--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>train (R2)</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t xml:space="preserve"> (conflict-21, top300, formodel-2).csv)</t>
+  </si>
+  <si>
+    <t>train (MAE)</t>
+  </si>
+  <si>
+    <t>test (MAE)</t>
   </si>
 </sst>
 </file>
@@ -464,23 +470,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:J57"/>
+  <dimension ref="C1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -489,16 +507,30 @@
         <v>5</v>
       </c>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -513,8 +545,22 @@
       <c r="J4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -533,8 +579,26 @@
       <c r="J5" s="3">
         <v>0.64275982298876144</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.11629864236609461</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.31224638203978711</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>8.1769613043519596E-2</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0.2185752247090387</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
@@ -555,8 +619,28 @@
       <c r="J6" s="3">
         <v>0.629469090151622</v>
       </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N6" s="2">
+        <f>N5+1</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.1168169117142514</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.31273421380824667</v>
+      </c>
+      <c r="S6" s="2">
+        <f>S5+1</f>
+        <v>2</v>
+      </c>
+      <c r="T6" s="3">
+        <v>8.2015583435031403E-2</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0.228059986916406</v>
+      </c>
+    </row>
+    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" ref="C7:C54" si="0">C6+1</f>
         <v>3</v>
@@ -577,8 +661,28 @@
       <c r="J7" s="3">
         <v>0.66944149512898354</v>
       </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
+        <f t="shared" ref="N7:N54" si="2">N6+1</f>
+        <v>3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.1179096055996649</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0.29563574077515559</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" ref="S7:S54" si="3">S6+1</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>8.2242710734438632E-2</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.2149826377335019</v>
+      </c>
+    </row>
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -599,8 +703,28 @@
       <c r="J8" s="3">
         <v>0.68654267551945458</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.1172464566941234</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.30646210688982789</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T8" s="3">
+        <v>8.1549176794793454E-2</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0.22654039805285689</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -621,8 +745,28 @@
       <c r="J9" s="3">
         <v>0.66641103683849501</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.11815620674558699</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0.30697978105111479</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
+        <v>8.1536264136596287E-2</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.22159406681404359</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -643,8 +787,28 @@
       <c r="J10" s="3">
         <v>0.6532349561766656</v>
       </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.1169240315092835</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0.30980523001355198</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T10" s="3">
+        <v>8.1823070141145773E-2</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.22855806711828469</v>
+      </c>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -665,8 +829,28 @@
       <c r="J11" s="3">
         <v>0.65712144013742768</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.1162986700492049</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.32155039855673279</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T11" s="3">
+        <v>8.1705863850174379E-2</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.21721269051565181</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -687,8 +871,28 @@
       <c r="J12" s="3">
         <v>0.62811490133172454</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.11776354951009541</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.31911434022278012</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="T12" s="3">
+        <v>8.2664068657790857E-2</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.21594411354817489</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -709,8 +913,28 @@
       <c r="J13" s="3">
         <v>0.64387148219708357</v>
       </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.1156787760033966</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.31468487648743998</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="T13" s="3">
+        <v>8.2246020605867914E-2</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.22114865492312391</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -731,8 +955,28 @@
       <c r="J14" s="3">
         <v>0.67642291136019894</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.1178000635324878</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0.30004516193868969</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
+        <v>8.2762723030266369E-2</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0.22181721225600909</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -753,8 +997,28 @@
       <c r="J15" s="3">
         <v>0.66143118076609753</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N15" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.1171383818317885</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.30811545296515908</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="T15" s="3">
+        <v>8.3102819747522774E-2</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0.2112029915425882</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -775,8 +1039,28 @@
       <c r="J16" s="3">
         <v>0.67018187713441957</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N16" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.1171186160910848</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.31103563353080099</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="T16" s="3">
+        <v>8.2339487334254086E-2</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.2260417239367816</v>
+      </c>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -797,8 +1081,28 @@
       <c r="J17" s="3">
         <v>0.62043554495858433</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N17" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.1171742453010904</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.31140957698377753</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="T17" s="3">
+        <v>8.1596317207806829E-2</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0.23112952553723701</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -819,8 +1123,28 @@
       <c r="J18" s="3">
         <v>0.65092072927518974</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N18" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.1164586784263299</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0.30973552394199477</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="T18" s="3">
+        <v>8.2632752639061433E-2</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.21940649077523819</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -841,8 +1165,28 @@
       <c r="J19" s="3">
         <v>0.63727055500260632</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.1177906235918996</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.30600599996569089</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="T19" s="3">
+        <v>8.1650285344827836E-2</v>
+      </c>
+      <c r="U19" s="3">
+        <v>0.22222848595890529</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -863,8 +1207,28 @@
       <c r="J20" s="3">
         <v>0.67338195669841994</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.11747927165115141</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0.31312975008720212</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="T20" s="3">
+        <v>8.2300244262586322E-2</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0.2131942670611168</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -885,8 +1249,28 @@
       <c r="J21" s="3">
         <v>0.6026267589083667</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N21" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.1170660597063146</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.31892808825715768</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="T21" s="3">
+        <v>8.2010057078785031E-2</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.22226383573189001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -907,8 +1291,28 @@
       <c r="J22" s="3">
         <v>0.61387782259502877</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N22" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.1190566414304584</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.29201141261772301</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="T22" s="3">
+        <v>8.2465725949413093E-2</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.22775780337315041</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -929,8 +1333,28 @@
       <c r="J23" s="3">
         <v>0.67092602974066218</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N23" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.1170426397950606</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0.31211045796856152</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="T23" s="3">
+        <v>8.1284535638414881E-2</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.2249461185399371</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -951,8 +1375,28 @@
       <c r="J24" s="3">
         <v>0.64708949151819772</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.1170295318423671</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.30995721028871059</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="T24" s="3">
+        <v>8.2756239960734349E-2</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.2251606878609029</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -973,8 +1417,28 @@
       <c r="J25" s="3">
         <v>0.62155754559636966</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N25" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.1159687288999377</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0.3253760936579731</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="T25" s="3">
+        <v>8.2789932906881553E-2</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.22213151164887629</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -995,8 +1459,28 @@
       <c r="J26" s="3">
         <v>0.65686887250701631</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N26" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.1188156322728026</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0.30442573730136491</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="T26" s="3">
+        <v>8.1020708579676914E-2</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.21822296232072161</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1017,8 +1501,28 @@
       <c r="J27" s="3">
         <v>0.65923397279026807</v>
       </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N27" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.11645404150536651</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0.31879587372270279</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="T27" s="3">
+        <v>8.1844616988188068E-2</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0.22593443927629869</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1039,8 +1543,28 @@
       <c r="J28" s="3">
         <v>0.61945516198522554</v>
       </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N28" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.1157431253931244</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.31943845407734389</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="T28" s="3">
+        <v>8.2173262857609272E-2</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0.21537597522765939</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1061,8 +1585,28 @@
       <c r="J29" s="3">
         <v>0.62156571497581037</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N29" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.11867626165435349</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0.3004675508345675</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="T29" s="3">
+        <v>8.3103598191252098E-2</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0.21896354956737649</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1083,8 +1627,28 @@
       <c r="J30" s="3">
         <v>0.66045691000948448</v>
       </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N30" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.1169732797623813</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0.3032128295097809</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="T30" s="3">
+        <v>8.3415777895986545E-2</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0.21674506623377729</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1105,8 +1669,28 @@
       <c r="J31" s="3">
         <v>0.63145951918685972</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N31" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.1163453991392718</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.32424540470377</v>
+      </c>
+      <c r="S31" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="T31" s="3">
+        <v>8.199141602551098E-2</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0.22104538512261029</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1127,8 +1711,28 @@
       <c r="J32" s="3">
         <v>0.64038552491857614</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N32" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.11644616566050631</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0.31759852383906773</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="T32" s="3">
+        <v>8.1993014509199463E-2</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0.22662824984082541</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1149,8 +1753,28 @@
       <c r="J33" s="3">
         <v>0.65931224638203723</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N33" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.11672428402742439</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0.31902442548075549</v>
+      </c>
+      <c r="S33" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="T33" s="3">
+        <v>8.2309728202983323E-2</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0.22590961366287871</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1171,8 +1795,28 @@
       <c r="J34" s="3">
         <v>0.67417057297540284</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N34" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.1169542614656538</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0.32529631093429251</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="T34" s="3">
+        <v>8.1605759551974022E-2</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0.22718560267952981</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1193,8 +1837,28 @@
       <c r="J35" s="3">
         <v>0.67312707425646479</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N35" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.1171298554338379</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0.30882175983954802</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="T35" s="3">
+        <v>8.0857996013291869E-2</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.23442192452121891</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1215,8 +1879,28 @@
       <c r="J36" s="3">
         <v>0.68213548431407811</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.11464950412351831</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0.31775017191690352</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="T36" s="3">
+        <v>8.268426659852357E-2</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0.214568109380808</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1237,8 +1921,28 @@
       <c r="J37" s="3">
         <v>0.66254879724570159</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.1192575516029472</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0.30416485167056451</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="T37" s="3">
+        <v>8.251939102818831E-2</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0.22075695663214909</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1259,8 +1963,28 @@
       <c r="J38" s="3">
         <v>0.62595058311489304</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N38" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.116326574624316</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0.31101830390379742</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="T38" s="3">
+        <v>8.2179918254379064E-2</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0.22428725388674131</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1281,8 +2005,28 @@
       <c r="J39" s="3">
         <v>0.66168153920180028</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N39" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.11657180545628169</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0.32267682431196071</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="T39" s="3">
+        <v>8.434088398931025E-2</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0.2074504515956096</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1303,8 +2047,28 @@
       <c r="J40" s="3">
         <v>0.65877402667637974</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N40" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.1175172251952756</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0.29687029675893889</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="T40" s="3">
+        <v>8.1053474524131197E-2</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0.2234413775313043</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1325,8 +2089,28 @@
       <c r="J41" s="3">
         <v>0.60822670067763585</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N41" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.1163592268528314</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0.33429847081729869</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="T41" s="3">
+        <v>8.2970175312972821E-2</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0.21663735395507289</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1347,8 +2131,28 @@
       <c r="J42" s="3">
         <v>0.67173315570091452</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N42" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.1171025183624865</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0.30969333488200551</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="T42" s="3">
+        <v>8.2391958007001886E-2</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0.2213559784908905</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1369,8 +2173,28 @@
       <c r="J43" s="3">
         <v>0.62366652977891113</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N43" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.1160097829524077</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0.31411067341506499</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="T43" s="3">
+        <v>8.22429721964546E-2</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0.22404168224471041</v>
+      </c>
+    </row>
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1391,8 +2215,28 @@
       <c r="J44" s="3">
         <v>0.66709565694910156</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N44" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.1169842007493667</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0.3195361200902328</v>
+      </c>
+      <c r="S44" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="T44" s="3">
+        <v>8.1921480878560951E-2</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0.22349437843421341</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1413,8 +2257,28 @@
       <c r="J45" s="3">
         <v>0.65934202866357861</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N45" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.1156723396802683</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0.32980129419433779</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="T45" s="3">
+        <v>8.265138180769839E-2</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0.2185944437724423</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1435,8 +2299,28 @@
       <c r="J46" s="3">
         <v>0.66645550777495477</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N46" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.1192893179719352</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0.30232087969819471</v>
+      </c>
+      <c r="S46" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="T46" s="3">
+        <v>8.1484548138303636E-2</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0.2207778386553034</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1457,8 +2341,28 @@
       <c r="J47" s="3">
         <v>0.6887499196782334</v>
       </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N47" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.1148393825765807</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0.32812220282649351</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="T47" s="3">
+        <v>8.2216713090806512E-2</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0.2176719762422053</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1479,8 +2383,28 @@
       <c r="J48" s="3">
         <v>0.67400105812749556</v>
       </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N48" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.1183066921327932</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0.31167400605268719</v>
+      </c>
+      <c r="S48" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="T48" s="3">
+        <v>8.1229551364922783E-2</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0.22558488513671829</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1501,8 +2425,28 @@
       <c r="J49" s="3">
         <v>0.67184601578768866</v>
       </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.1181313888372665</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0.2993634376661844</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="T49" s="3">
+        <v>8.1252399579726312E-2</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0.22627686644551931</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1523,8 +2467,28 @@
       <c r="J50" s="3">
         <v>0.6561462463634381</v>
       </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N50" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.11526373697328469</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0.32834649138557082</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="T50" s="3">
+        <v>8.1913761806771665E-2</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0.22526419522709509</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1545,8 +2509,28 @@
       <c r="J51" s="3">
         <v>0.62565473218451251</v>
       </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N51" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.1167540156878106</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0.31376120183153111</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="T51" s="3">
+        <v>8.2386580208719126E-2</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0.2183309121651047</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1567,8 +2551,28 @@
       <c r="J52" s="3">
         <v>0.67470635833973236</v>
       </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N52" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.115755029130523</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0.316101255139209</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="T52" s="3">
+        <v>8.2620642193867777E-2</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0.2183574957645468</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1589,8 +2593,28 @@
       <c r="J53" s="3">
         <v>0.67214288983268911</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N53" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.1179774430612817</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0.31719008723074549</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="T53" s="3">
+        <v>8.317294504866625E-2</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0.2208504624832697</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1611,8 +2635,28 @@
       <c r="J54" s="3">
         <v>0.66955852923017856</v>
       </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N54" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.11672725996177399</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0.31912823714411509</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="T54" s="3">
+        <v>8.2903110305879796E-2</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0.22718864352021659</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
@@ -1635,8 +2679,30 @@
         <f>AVERAGE(J5:J54)</f>
         <v>0.65279081267306827</v>
       </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="N56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O56" s="3">
+        <f>AVERAGE(O5:O54)</f>
+        <v>0.11699947269078689</v>
+      </c>
+      <c r="P56" s="3">
+        <f>AVERAGE(P5:P54)</f>
+        <v>0.31308656886454217</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T56" s="3">
+        <f>AVERAGE(T5:T54)</f>
+        <v>8.2193910513009422E-2</v>
+      </c>
+      <c r="U56" s="3">
+        <f>AVERAGE(U5:U54)</f>
+        <v>0.22170521049141068</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -1658,6 +2724,28 @@
       <c r="J57" s="3">
         <f>_xlfn.STDEV.S(J5:J54)</f>
         <v>2.2180145922211052E-2</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3">
+        <f>_xlfn.STDEV.S(O5:O54)</f>
+        <v>1.0573885580347465E-3</v>
+      </c>
+      <c r="P57" s="3">
+        <f>_xlfn.STDEV.S(P5:P54)</f>
+        <v>9.2969639757002707E-3</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T57" s="3">
+        <f>_xlfn.STDEV.S(T5:T54)</f>
+        <v>6.7919170904217252E-4</v>
+      </c>
+      <c r="U57" s="3">
+        <f>_xlfn.STDEV.S(U5:U54)</f>
+        <v>5.2278534035366938E-3</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="error" sheetId="1" r:id="rId1"/>
-    <sheet name="signif" sheetId="2" r:id="rId2"/>
+    <sheet name="error (soc-eco)" sheetId="1" r:id="rId1"/>
+    <sheet name="error (dem)" sheetId="3" r:id="rId2"/>
+    <sheet name="signif" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>train (R2)</t>
   </si>
@@ -104,13 +105,151 @@
   </si>
   <si>
     <t>test (MAE)</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>10-14</t>
+  </si>
+  <si>
+    <t>15-19</t>
+  </si>
+  <si>
+    <t>20-24</t>
+  </si>
+  <si>
+    <t>25-29</t>
+  </si>
+  <si>
+    <t>30-34</t>
+  </si>
+  <si>
+    <t>35-39</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>(avgage-superdataset-24-alltime-clust (IQR)-normbysoul-f</t>
+  </si>
+  <si>
+    <t>avgage</t>
+  </si>
+  <si>
+    <t>(agerow-superdataset-24-alltime-clust (IQR)-normbysoul-f</t>
+  </si>
+  <si>
+    <t>0-4_male</t>
+  </si>
+  <si>
+    <t>5-9_male</t>
+  </si>
+  <si>
+    <t>10-14_male</t>
+  </si>
+  <si>
+    <t>15-19_male</t>
+  </si>
+  <si>
+    <t>20-24_male</t>
+  </si>
+  <si>
+    <t>25-29_male</t>
+  </si>
+  <si>
+    <t>30-34_male</t>
+  </si>
+  <si>
+    <t>35-39_male</t>
+  </si>
+  <si>
+    <t>40-44_male</t>
+  </si>
+  <si>
+    <t>45-49_male</t>
+  </si>
+  <si>
+    <t>50-54_male</t>
+  </si>
+  <si>
+    <t>55-59_male</t>
+  </si>
+  <si>
+    <t>60-64_male</t>
+  </si>
+  <si>
+    <t>65-69_male</t>
+  </si>
+  <si>
+    <t>0-4_female</t>
+  </si>
+  <si>
+    <t>5-9_female</t>
+  </si>
+  <si>
+    <t>10-14_female</t>
+  </si>
+  <si>
+    <t>15-19_female</t>
+  </si>
+  <si>
+    <t>20-24_female</t>
+  </si>
+  <si>
+    <t>25-29_female</t>
+  </si>
+  <si>
+    <t>30-34_female</t>
+  </si>
+  <si>
+    <t>35-39_female</t>
+  </si>
+  <si>
+    <t>40-44_female</t>
+  </si>
+  <si>
+    <t>45-49_female</t>
+  </si>
+  <si>
+    <t>50-54_female</t>
+  </si>
+  <si>
+    <t>55-59_female</t>
+  </si>
+  <si>
+    <t>60-64_female</t>
+  </si>
+  <si>
+    <t>65-69_female</t>
+  </si>
+  <si>
+    <t>agerow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +290,11 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -189,6 +333,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,10 +2903,1214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D20"/>
+  <dimension ref="D2:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.89710417727868963</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.26818729527531049</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.90729947776996445</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.30138002696576222</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <f>D6+1</f>
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.89844526287566817</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.2261206792417039</v>
+      </c>
+      <c r="J7" s="2">
+        <f>J6+1</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.90453732905272644</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.33605610666232788</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:D55" si="0">D7+1</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.89833842305614253</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.26463127992501662</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" ref="J8:J55" si="1">J7+1</f>
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.90634310003394225</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.31550163596450448</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.89958574663382662</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.2745112093809744</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.90496776123943767</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.34040323335747003</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.89793467778235114</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.28398710471662753</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.90627679672742345</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.2856393139030704</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.89771673934811913</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.27296211706149998</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.90482907765804699</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.32350897458847039</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.89919241917540083</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.26233267711727343</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.90711654164017819</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.31172778499274828</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.89624864781101443</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.27324999616583151</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.9070408177586653</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.36464165434328472</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.89940330018337533</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.25865140992048891</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.90680025960378041</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.31966052725589239</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.89866033151968883</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.2351722376086591</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.90590947691463908</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.35906007628160869</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.89905264479029645</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.30668965003446402</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.90594593788745892</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.31808632689186728</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.89978665441388461</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0.25714672682626649</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.90484188397091125</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.30758642450531831</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.89865844657109417</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.24947929999899959</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.90596487131354675</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.32070142630575699</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.89799217174016066</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.31364417652716903</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.9069682665093971</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.30549426965808041</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.89389352546193801</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.29548887863172663</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.90891542634736688</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.28729591536322102</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.89844342298667401</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.29904476936040209</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.90514206201650027</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.32283470611445708</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.8945468918617312</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.30961312774935412</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.90354728790772931</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.34791311662321012</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.89661243904052168</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.29301145323821459</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.90626839177978047</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.27819203103218942</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.89704969500031972</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.30596824557868019</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.90677026900242663</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.33051649428899599</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.89611185474293498</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.24968965398616469</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.90774746551355912</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.31334375349141319</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.89721925342926112</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.30089253148125578</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.90547632321899174</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.32047435147645048</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.89640534499323843</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.28898947601744851</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.90521034191213445</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.35566017575288672</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.8992682546853128</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.26382343512627221</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.90292739820445433</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.33514263685159013</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.89815425245495906</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.30244915485993162</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.90772126145404974</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.30821721905365829</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.89928524223062412</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.28704568827427568</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.904697421130913</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.34914379939291379</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.89804849017084609</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.29279654586376519</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.90718240503389791</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.31181950741017489</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.89617613229107296</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0.27841261887597002</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.90732264106647842</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.3091955641571783</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.89819561170927487</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.27460237732291892</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.90276746056687007</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.33298812020121588</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.89862453096985084</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.2235630712993191</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.90660429609040316</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.30580620990159341</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.89830333750867619</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.25270065629008892</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.907372243852134</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.33211367010758341</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.89615609958482612</v>
+      </c>
+      <c r="F36" s="3">
+        <v>0.25803149899587258</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.90614418710388023</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.29615609697219258</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.89655359841142035</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.26976277615200661</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.90682318086615654</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.29381406280476791</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.89687879949098082</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.26570226191517909</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.90774080246328848</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.29108931258119852</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.89791636842458056</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.2707900903834477</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.90517543957709057</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.35666862901144109</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.89866214526602051</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.27287301168532668</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.90677225972663833</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.34281492183782147</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.89711451066997516</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.30263906726792372</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.90507710767794458</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.31052113871149611</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.89735764765705883</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0.27080073259838822</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.90457541543937847</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.35907823165696667</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.89692826001478121</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.30235905765278381</v>
+      </c>
+      <c r="J43" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.90609319503778751</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.31675399132070903</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.89809930626562895</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.26999799855731288</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.90780783970153789</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.32634483448152529</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.89868060867510258</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.2955355754351664</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.90882122626077899</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.32048463042837422</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.8972407049592771</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.29630157871071189</v>
+      </c>
+      <c r="J46" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.90460452488302978</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.31959327377859481</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.89636894537575762</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.28803455368732878</v>
+      </c>
+      <c r="J47" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.90484529705829164</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.34590476000107417</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.89741687384364055</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.27738225896947333</v>
+      </c>
+      <c r="J48" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.90604040458777069</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0.34417727260539488</v>
+      </c>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.89678795556632096</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.29174972745231442</v>
+      </c>
+      <c r="J49" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.90681820918125555</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0.30829801070136592</v>
+      </c>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.89960884324946866</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.25334832780984762</v>
+      </c>
+      <c r="J50" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.90396337711884267</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.32269804555968251</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.89752875623585315</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.2936027574149862</v>
+      </c>
+      <c r="J51" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.90693023941997919</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.33961824834053139</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.89871889367819091</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.24065257239927429</v>
+      </c>
+      <c r="J52" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.90674446886971027</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.35862164817227471</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.89953641535628537</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.2492218319333441</v>
+      </c>
+      <c r="J53" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.90503412311777087</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.36070908551586822</v>
+      </c>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.89810189952562303</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.28298325700822508</v>
+      </c>
+      <c r="J54" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.9062280592663311</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0.35826711604088057</v>
+      </c>
+    </row>
+    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.89890230050206288</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.26993216906255901</v>
+      </c>
+      <c r="J55" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.904524870314658</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.32981012043012192</v>
+      </c>
+    </row>
+    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <f>AVERAGE(E6:E55)</f>
+        <v>0.89778033710939609</v>
+      </c>
+      <c r="F57" s="3">
+        <f>AVERAGE(F6:F55)</f>
+        <v>0.27573117297695088</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="3">
+        <f>AVERAGE(K6:K55)</f>
+        <v>0.90602557041699849</v>
+      </c>
+      <c r="L57" s="3">
+        <f>AVERAGE(L6:L55)</f>
+        <v>0.32503056967694349</v>
+      </c>
+    </row>
+    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
+        <f>_xlfn.STDEV.S(E6:E55)</f>
+        <v>1.2790642900937243E-3</v>
+      </c>
+      <c r="F58" s="3">
+        <f>_xlfn.STDEV.S(F6:F55)</f>
+        <v>2.1958553241676768E-2</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
+        <f>_xlfn.STDEV.S(K6:K55)</f>
+        <v>1.379915286741316E-3</v>
+      </c>
+      <c r="L58" s="3">
+        <f>_xlfn.STDEV.S(L6:L55)</f>
+        <v>2.2127364474893569E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,9 +4118,10 @@
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -2779,8 +4131,20 @@
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -2790,8 +4154,20 @@
       <c r="D5" s="3">
         <v>3.5839162327457257E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5.9488779016518112E-2</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="3">
+        <v>2.9884759031708862E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2801,8 +4177,20 @@
       <c r="D6" s="3">
         <v>4.6028263868876838E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5.5610458398160881E-2</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="3">
+        <v>2.3824907865479202E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2812,8 +4200,20 @@
       <c r="D7" s="3">
         <v>5.648927896701416E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="3">
+        <v>6.0403418239606731E-2</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" s="3">
+        <v>2.5124802420021169E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
@@ -2823,8 +4223,20 @@
       <c r="D8" s="3">
         <v>0.14226226591072541</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5.6977217942613061E-2</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3.7911740382224272E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -2834,8 +4246,20 @@
       <c r="D9" s="3">
         <v>0.1490336878608037</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="3">
+        <v>8.4446572990212146E-2</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" s="3">
+        <v>4.8602959606299692E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2845,8 +4269,20 @@
       <c r="D10" s="3">
         <v>3.2349520015093267E-2</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="3">
+        <v>5.8505404289282373E-2</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3.0391294166711911E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -2856,8 +4292,20 @@
       <c r="D11" s="3">
         <v>3.687169044121625E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.14193218019964149</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P11" s="3">
+        <v>7.6725442774408584E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -2867,8 +4315,20 @@
       <c r="D12" s="3">
         <v>5.4983417701167853E-2</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="3">
+        <v>7.4003184006731851E-2</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="3">
+        <v>4.2689366802183007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2878,8 +4338,20 @@
       <c r="D13" s="3">
         <v>0.1000667937501426</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="3">
+        <v>8.0522762607605408E-2</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="3">
+        <v>3.7627777925334213E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2889,8 +4361,20 @@
       <c r="D14" s="3">
         <v>6.5429969665446008E-2</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6.6036902776701212E-2</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P14" s="3">
+        <v>3.1719670398973457E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2900,8 +4384,20 @@
       <c r="D15" s="3">
         <v>3.822299269172038E-2</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="3">
+        <v>5.8791167678081721E-2</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3.552658184529725E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
@@ -2911,8 +4407,20 @@
       <c r="D16" s="3">
         <v>4.1288856968829481E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="3">
+        <v>9.0149449777747734E-2</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="3">
+        <v>9.7923259736975521E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2922,8 +4430,20 @@
       <c r="D17" s="3">
         <v>0.1120867822496293</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5.4494961146640888E-2</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2.9238202951780569E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
@@ -2933,8 +4453,20 @@
       <c r="D18" s="3">
         <v>4.0743905516229313E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="3">
+        <v>5.8637540930456387E-2</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2.375557566817026E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
@@ -2944,11 +4476,120 @@
       <c r="D19" s="3">
         <v>4.8303412065648192E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="O19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2.8114733218078121E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
+      <c r="O20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3.2802825469900987E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="3">
+        <v>3.5332766189128867E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3.2769620441415959E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="3">
+        <v>4.1648676160846762E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="3">
+        <v>3.4158862614362233E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="3">
+        <v>3.249785324545075E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" s="3">
+        <v>3.4122402443515901E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" s="3">
+        <v>3.233685814745544E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="3">
+        <v>2.9273473008173921E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P29" s="3">
+        <v>2.2377191968737369E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="3">
+        <v>2.4356895550089741E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" s="3">
+        <v>2.4808400569703098E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="3">
+        <v>2.445309939757288E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -11,6 +11,11 @@
     <sheet name="error (dem)" sheetId="3" r:id="rId2"/>
     <sheet name="signif" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">signif!$B$27:$B$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">signif!$C$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">signif!$C$27:$C$41</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
   <si>
     <t>train (R2)</t>
   </si>
@@ -352,6 +357,2002 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>signif!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>formodel-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>signif!$B$27:$B$41</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>livarea</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>avgemployers</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sportsvenue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>harvest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>preschool</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>agrprod</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>avgsalary</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>factoriescap</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>servicesnum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>shoparea</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>livestock</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>roadslen</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>hospitals</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>foodseats</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>retailturnover</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>signif!$C$27:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.2349520015093267E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5839162327457257E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.687169044121625E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.822299269172038E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0743905516229313E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1288856968829481E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6028263868876838E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8303412065648192E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4983417701167853E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.648927896701416E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5429969665446008E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1000667937501426</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1120867822496293</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14226226591072541</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1490336878608037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FCC8-45E5-8F07-6A3B58CC3747}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="33010720"/>
+        <c:axId val="33019040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="33010720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33019040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33019040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33010720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>signif!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>agerow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>signif!$O$5:$O$32</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>50-54_female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65-69_male</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-9_male</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55-59_female</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65-69_female</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-64_female</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10-14_male</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0-4_female</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64_male</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45-49_female</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0-4_male</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25-29_male</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45-49_male</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40-44_female</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30-34_female</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15-19_female</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5-9_female</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35-39_female</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25-29_female</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10-14_female</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50-54_male</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40-44_male</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15-19_male</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20-24_female</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35-39_male</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20-24_male</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30-34_male</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55-59_male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>signif!$P$5:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>2.2377191968737369E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.375557566817026E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3824907865479202E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4356895550089741E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.445309939757288E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4808400569703098E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5124802420021169E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8114733218078121E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9238202951780569E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9273473008173921E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9884759031708862E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0391294166711911E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.1719670398973457E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.233685814745544E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.249785324545075E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2769620441415959E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2802825469900987E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4122402443515901E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4158862614362233E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5332766189128867E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.552658184529725E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7627777925334213E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7911740382224272E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1648676160846762E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.2689366802183007E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.8602959606299692E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.6725442774408584E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7923259736975521E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BB7-4E04-BDF0-45B781F7074B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="247"/>
+        <c:axId val="33674368"/>
+        <c:axId val="33678112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="33674368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33678112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33678112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33674368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="221">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -619,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E57"/>
     </sheetView>
   </sheetViews>
@@ -2905,7 +4906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -4107,10 +6108,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:P32"/>
+  <dimension ref="B4:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4161,10 +6162,10 @@
         <v>5.9488779016518112E-2</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="P5" s="3">
-        <v>2.9884759031708862E-2</v>
+        <v>2.2377191968737369E-2</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -4184,10 +6185,10 @@
         <v>5.5610458398160881E-2</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="P6" s="3">
-        <v>2.3824907865479202E-2</v>
+        <v>2.375557566817026E-2</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -4207,10 +6208,10 @@
         <v>6.0403418239606731E-2</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P7" s="3">
-        <v>2.5124802420021169E-2</v>
+        <v>2.3824907865479202E-2</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -4230,10 +6231,10 @@
         <v>5.6977217942613061E-2</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="P8" s="3">
-        <v>3.7911740382224272E-2</v>
+        <v>2.4356895550089741E-2</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -4253,10 +6254,10 @@
         <v>8.4446572990212146E-2</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="P9" s="3">
-        <v>4.8602959606299692E-2</v>
+        <v>2.445309939757288E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -4276,10 +6277,10 @@
         <v>5.8505404289282373E-2</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="P10" s="3">
-        <v>3.0391294166711911E-2</v>
+        <v>2.4808400569703098E-2</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -4299,10 +6300,10 @@
         <v>0.14193218019964149</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P11" s="3">
-        <v>7.6725442774408584E-2</v>
+        <v>2.5124802420021169E-2</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -4322,10 +6323,10 @@
         <v>7.4003184006731851E-2</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P12" s="3">
-        <v>4.2689366802183007E-2</v>
+        <v>2.8114733218078121E-2</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -4345,10 +6346,10 @@
         <v>8.0522762607605408E-2</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P13" s="3">
-        <v>3.7627777925334213E-2</v>
+        <v>2.9238202951780569E-2</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -4368,10 +6369,10 @@
         <v>6.6036902776701212E-2</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="P14" s="3">
-        <v>3.1719670398973457E-2</v>
+        <v>2.9273473008173921E-2</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -4391,10 +6392,10 @@
         <v>5.8791167678081721E-2</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P15" s="3">
-        <v>3.552658184529725E-2</v>
+        <v>2.9884759031708862E-2</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
@@ -4414,10 +6415,10 @@
         <v>9.0149449777747734E-2</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P16" s="3">
-        <v>9.7923259736975521E-2</v>
+        <v>3.0391294166711911E-2</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -4437,10 +6438,10 @@
         <v>5.4494961146640888E-2</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P17" s="3">
-        <v>2.9238202951780569E-2</v>
+        <v>3.1719670398973457E-2</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -4460,10 +6461,10 @@
         <v>5.8637540930456387E-2</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="P18" s="3">
-        <v>2.375557566817026E-2</v>
+        <v>3.233685814745544E-2</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -4477,119 +6478,237 @@
         <v>4.8303412065648192E-2</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P19" s="3">
-        <v>2.8114733218078121E-2</v>
+        <v>3.249785324545075E-2</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D20" s="6"/>
       <c r="O20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" s="3">
-        <v>3.2802825469900987E-2</v>
+        <v>3.2769620441415959E-2</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="3">
-        <v>3.5332766189128867E-2</v>
+        <v>3.2802825469900987E-2</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O22" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P22" s="3">
-        <v>3.2769620441415959E-2</v>
+        <v>3.4122402443515901E-2</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O23" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P23" s="3">
-        <v>4.1648676160846762E-2</v>
+        <v>3.4158862614362233E-2</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O24" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P24" s="3">
-        <v>3.4158862614362233E-2</v>
+        <v>3.5332766189128867E-2</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="O25" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P25" s="3">
-        <v>3.249785324545075E-2</v>
+        <v>3.552658184529725E-2</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O26" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="P26" s="3">
-        <v>3.4122402443515901E-2</v>
+        <v>3.7627777925334213E-2</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3.2349520015093267E-2</v>
+      </c>
       <c r="O27" s="7" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="P27" s="3">
-        <v>3.233685814745544E-2</v>
+        <v>3.7911740382224272E-2</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3.5839162327457257E-2</v>
+      </c>
       <c r="O28" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="P28" s="3">
-        <v>2.9273473008173921E-2</v>
+        <v>4.1648676160846762E-2</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.687169044121625E-2</v>
+      </c>
       <c r="O29" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="P29" s="3">
-        <v>2.2377191968737369E-2</v>
+        <v>4.2689366802183007E-2</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3.822299269172038E-2</v>
+      </c>
       <c r="O30" s="7" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="P30" s="3">
-        <v>2.4356895550089741E-2</v>
+        <v>4.8602959606299692E-2</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4.0743905516229313E-2</v>
+      </c>
       <c r="O31" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="P31" s="3">
-        <v>2.4808400569703098E-2</v>
+        <v>7.6725442774408584E-2</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4.1288856968829481E-2</v>
+      </c>
       <c r="O32" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="P32" s="3">
-        <v>2.445309939757288E-2</v>
+        <v>9.7923259736975521E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="3">
+        <v>4.6028263868876838E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4.8303412065648192E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3">
+        <v>5.4983417701167853E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3">
+        <v>5.648927896701416E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6.5429969665446008E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.1000667937501426</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.1120867822496293</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.14226226591072541</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.1490336878608037</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="O5:P32">
+    <sortCondition ref="P5:P32"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -4,18 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="error (soc-eco)" sheetId="1" r:id="rId1"/>
-    <sheet name="error (dem)" sheetId="3" r:id="rId2"/>
-    <sheet name="signif" sheetId="2" r:id="rId3"/>
+    <sheet name="error (soc-eco + dem)" sheetId="4" r:id="rId1"/>
+    <sheet name="error (soc-eco)" sheetId="1" r:id="rId2"/>
+    <sheet name="error (dem)" sheetId="3" r:id="rId3"/>
+    <sheet name="signif" sheetId="2" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">signif!$B$27:$B$41</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">signif!$C$26</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">signif!$C$27:$C$41</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>train (R2)</t>
   </si>
@@ -248,6 +244,9 @@
   </si>
   <si>
     <t>agerow</t>
+  </si>
+  <si>
+    <t>(ecoage-superdataset-24-alltime-clust (IQR)-normbysoul-f</t>
   </si>
 </sst>
 </file>
@@ -2618,9 +2617,674 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.94672967667817709</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.62502421699024935</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f>C6+1</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.94860855661753218</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.63308764134199857</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C55" si="0">C7+1</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.94860455006944178</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.63382655107750108</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.94767328141544516</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.62959509433099037</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.94751955641671448</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.63662434798891443</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.94636908532755781</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.66551852337575401</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.94820196127458867</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.60023415518071532</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.94962001944752583</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.57995757074742893</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.94718282319591307</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.6213748472828613</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.94770381182605912</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.64958769551626994</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.94871674174208431</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.64228057889242574</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.94658346327132192</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.6716596990275705</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.94806964995523235</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.62621002315026586</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.94919792545461057</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.60030520870429882</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.94826973532561354</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.62907537357843224</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.94551613072739227</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.66330181424293366</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.94662771600072126</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.64220781715955022</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.94783124980205613</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.59984577757592639</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.94492110934962237</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.67064256322997429</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.94841164363496222</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.59917211172804097</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.9466579874645209</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.61013829086145144</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.94645829804140791</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.63556619366342093</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.94596385885069112</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.64197556376576093</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.94817244299464709</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.5669596428559488</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.94919252089059303</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.60800372134215086</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.94829300157213225</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.60497944477121135</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.94286403835735688</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.68921973330485087</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.9478972636518127</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.63847976939520823</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.9474734655939886</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.63408130619328995</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.94738235689718553</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.61924033242386722</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.94735832799060571</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.64297560254326502</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.94687947574697484</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.61768952805553101</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.94821249143869424</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.61177491460678723</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.9486289243743351</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.63167060762507266</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.94931258625718307</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.60157879665711556</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.94637291510358368</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.63885176407450506</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.94737537416031237</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.62946554551197509</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.94788518047791259</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.61747511013462308</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.94773142271396671</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.62111628260762364</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.94811240709315436</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.60478322030409282</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.94845661889193422</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.61937733851569854</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.94830079738819983</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.59421665274029967</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.94678029231201333</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.64876875612375617</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.94636188146449596</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.59995840677244505</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.94669801519937247</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.64725048722908884</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.94708844833610117</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.62637785609494079</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.94629988874577964</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.64450937961750077</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.94707114444224716</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.627778404972958</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.94760848248849605</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.63730381007408254</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.9488674637320299</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0.60085887403427418</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <f>AVERAGE(D6:D55)</f>
+        <v>0.94748232120408604</v>
+      </c>
+      <c r="E57" s="3">
+        <f>AVERAGE(E6:E55)</f>
+        <v>0.62663913895989798</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="3">
+        <f>_xlfn.STDEV.S(D6:D55)</f>
+        <v>1.2177404528064843E-3</v>
+      </c>
+      <c r="E58" s="3">
+        <f>_xlfn.STDEV.S(E6:E55)</f>
+        <v>2.3923681415653975E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E57"/>
     </sheetView>
   </sheetViews>
@@ -4902,11 +5566,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -6106,11 +6770,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W47" sqref="W47"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="error (soc-eco + dem)" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>train (R2)</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>(ecoage-superdataset-24-alltime-clust (IQR)-normbysoul-f</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (conflict-21, top300, formodel-2, norm11).csv)</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -5568,23 +5571,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:L58"/>
+  <dimension ref="D2:R58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
@@ -5593,16 +5599,23 @@
         <v>44</v>
       </c>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -5617,8 +5630,15 @@
       <c r="L5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
         <v>1</v>
       </c>
@@ -5637,8 +5657,17 @@
       <c r="L6" s="3">
         <v>0.30138002696576222</v>
       </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.91123785852774997</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.36848928238861622</v>
+      </c>
+    </row>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f>D6+1</f>
         <v>2</v>
@@ -5659,8 +5688,18 @@
       <c r="L7" s="3">
         <v>0.33605610666232788</v>
       </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P7" s="2">
+        <f>P6+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.91169752312099739</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.36745965385872292</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <f t="shared" ref="D8:D55" si="0">D7+1</f>
         <v>3</v>
@@ -5681,8 +5720,18 @@
       <c r="L8" s="3">
         <v>0.31550163596450448</v>
       </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P8" s="2">
+        <f t="shared" ref="P8:P55" si="2">P7+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.90948649996940611</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.38424225933507289</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5703,8 +5752,18 @@
       <c r="L9" s="3">
         <v>0.34040323335747003</v>
       </c>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.91193811593853913</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.34224769704717062</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5725,8 +5784,18 @@
       <c r="L10" s="3">
         <v>0.2856393139030704</v>
       </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.91046388632986452</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.35296069861369012</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5747,8 +5816,18 @@
       <c r="L11" s="3">
         <v>0.32350897458847039</v>
       </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.90824389917358206</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.3869490565462419</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5769,8 +5848,18 @@
       <c r="L12" s="3">
         <v>0.31172778499274828</v>
       </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.90979850177755994</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.35837750600112012</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5791,8 +5880,18 @@
       <c r="L13" s="3">
         <v>0.36464165434328472</v>
       </c>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0.90922512777742825</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.38211100243818741</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5813,8 +5912,18 @@
       <c r="L14" s="3">
         <v>0.31966052725589239</v>
       </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0.90988114373850659</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.3561435463206466</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5835,8 +5944,18 @@
       <c r="L15" s="3">
         <v>0.35906007628160869</v>
       </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0.90945803974734651</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.36353769019507348</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5857,8 +5976,18 @@
       <c r="L16" s="3">
         <v>0.31808632689186728</v>
       </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>0.91073417840791659</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.37022756806940638</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5879,8 +6008,18 @@
       <c r="L17" s="3">
         <v>0.30758642450531831</v>
       </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0.91065996469633015</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.37518872464659703</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5901,8 +6040,18 @@
       <c r="L18" s="3">
         <v>0.32070142630575699</v>
       </c>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0.91013084620132556</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.3519755344879566</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5923,8 +6072,18 @@
       <c r="L19" s="3">
         <v>0.30549426965808041</v>
       </c>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.90997757893818065</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.33945686412592557</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5945,8 +6104,18 @@
       <c r="L20" s="3">
         <v>0.28729591536322102</v>
       </c>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.91209472365433397</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.34916664239529083</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5967,8 +6136,18 @@
       <c r="L21" s="3">
         <v>0.32283470611445708</v>
       </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.91180620796185052</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.3441756986153196</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5989,8 +6168,18 @@
       <c r="L22" s="3">
         <v>0.34791311662321012</v>
       </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.91166712231578073</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.32367387023366728</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6011,8 +6200,18 @@
       <c r="L23" s="3">
         <v>0.27819203103218942</v>
       </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0.91027726919061158</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.38153316128653608</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6033,8 +6232,18 @@
       <c r="L24" s="3">
         <v>0.33051649428899599</v>
       </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0.91053679469203419</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.36349344312586213</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6055,8 +6264,18 @@
       <c r="L25" s="3">
         <v>0.31334375349141319</v>
       </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0.90928044916626938</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.39013366290362861</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6077,8 +6296,18 @@
       <c r="L26" s="3">
         <v>0.32047435147645048</v>
       </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0.91125794568695351</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.36123939362136481</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6099,8 +6328,18 @@
       <c r="L27" s="3">
         <v>0.35566017575288672</v>
       </c>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0.90692237995498859</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.40655641561173878</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6121,8 +6360,18 @@
       <c r="L28" s="3">
         <v>0.33514263685159013</v>
       </c>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.91179107298108009</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0.38001010606786589</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6143,8 +6392,18 @@
       <c r="L29" s="3">
         <v>0.30821721905365829</v>
       </c>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0.90715917898088139</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.38210824174425989</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6165,8 +6424,18 @@
       <c r="L30" s="3">
         <v>0.34914379939291379</v>
       </c>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0.90922311824387758</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.37847927180935031</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6187,8 +6456,18 @@
       <c r="L31" s="3">
         <v>0.31181950741017489</v>
       </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.91016619522780307</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.36834541782196389</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6209,8 +6488,18 @@
       <c r="L32" s="3">
         <v>0.3091955641571783</v>
       </c>
-    </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0.90570372254268894</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0.380444456752696</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6231,8 +6520,18 @@
       <c r="L33" s="3">
         <v>0.33298812020121588</v>
       </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0.91428860615041374</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0.32701664900322253</v>
+      </c>
+    </row>
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6253,8 +6552,18 @@
       <c r="L34" s="3">
         <v>0.30580620990159341</v>
       </c>
-    </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0.91090642277278777</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.33675509576834722</v>
+      </c>
+    </row>
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6275,8 +6584,18 @@
       <c r="L35" s="3">
         <v>0.33211367010758341</v>
       </c>
-    </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0.90971187802686959</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0.39289839745223359</v>
+      </c>
+    </row>
+    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6297,8 +6616,18 @@
       <c r="L36" s="3">
         <v>0.29615609697219258</v>
       </c>
-    </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0.91281901631766182</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0.33593958046317479</v>
+      </c>
+    </row>
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6319,8 +6648,18 @@
       <c r="L37" s="3">
         <v>0.29381406280476791</v>
       </c>
-    </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0.91171634477563079</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0.33147875475970873</v>
+      </c>
+    </row>
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6341,8 +6680,18 @@
       <c r="L38" s="3">
         <v>0.29108931258119852</v>
       </c>
-    </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0.91153107448643322</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0.36283344915887489</v>
+      </c>
+    </row>
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6363,8 +6712,18 @@
       <c r="L39" s="3">
         <v>0.35666862901144109</v>
       </c>
-    </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0.9079553818824242</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0.39007098336000601</v>
+      </c>
+    </row>
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6385,8 +6744,18 @@
       <c r="L40" s="3">
         <v>0.34281492183782147</v>
       </c>
-    </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0.91207156517525589</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0.34056059741658029</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6407,8 +6776,18 @@
       <c r="L41" s="3">
         <v>0.31052113871149611</v>
       </c>
-    </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0.91002522136297781</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0.33975032067533739</v>
+      </c>
+    </row>
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6429,8 +6808,18 @@
       <c r="L42" s="3">
         <v>0.35907823165696667</v>
       </c>
-    </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0.91046793567113171</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0.36313494791188211</v>
+      </c>
+    </row>
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6451,8 +6840,18 @@
       <c r="L43" s="3">
         <v>0.31675399132070903</v>
       </c>
-    </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0.90953477061713006</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0.36246967000715941</v>
+      </c>
+    </row>
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6473,8 +6872,18 @@
       <c r="L44" s="3">
         <v>0.32634483448152529</v>
       </c>
-    </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0.91161832847125224</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0.34493578754436272</v>
+      </c>
+    </row>
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6495,8 +6904,18 @@
       <c r="L45" s="3">
         <v>0.32048463042837422</v>
       </c>
-    </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0.91172492790692494</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.36893137751882737</v>
+      </c>
+    </row>
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6517,8 +6936,18 @@
       <c r="L46" s="3">
         <v>0.31959327377859481</v>
       </c>
-    </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0.90921275604493956</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0.37105015657727369</v>
+      </c>
+    </row>
+    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6539,8 +6968,18 @@
       <c r="L47" s="3">
         <v>0.34590476000107417</v>
       </c>
-    </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0.91164001452526378</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0.35249554353093832</v>
+      </c>
+    </row>
+    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6561,8 +7000,18 @@
       <c r="L48" s="3">
         <v>0.34417727260539488</v>
       </c>
-    </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0.91055669512409243</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0.3706951219811524</v>
+      </c>
+    </row>
+    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6583,8 +7032,18 @@
       <c r="L49" s="3">
         <v>0.30829801070136592</v>
       </c>
-    </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0.91281040199218588</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0.34367331656116329</v>
+      </c>
+    </row>
+    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6605,8 +7064,18 @@
       <c r="L50" s="3">
         <v>0.32269804555968251</v>
       </c>
-    </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0.91011136158225225</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0.34806672372107561</v>
+      </c>
+    </row>
+    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6627,8 +7096,18 @@
       <c r="L51" s="3">
         <v>0.33961824834053139</v>
       </c>
-    </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0.90961158443673784</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0.38037184952708958</v>
+      </c>
+    </row>
+    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6649,8 +7128,18 @@
       <c r="L52" s="3">
         <v>0.35862164817227471</v>
       </c>
-    </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0.91271058221917067</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0.34551653518771602</v>
+      </c>
+    </row>
+    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6671,8 +7160,18 @@
       <c r="L53" s="3">
         <v>0.36070908551586822</v>
       </c>
-    </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0.90971828708205449</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0.37805016856775958</v>
+      </c>
+    </row>
+    <row r="54" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6693,8 +7192,18 @@
       <c r="L54" s="3">
         <v>0.35826711604088057</v>
       </c>
-    </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0.91114452363446241</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0.33137099620465438</v>
+      </c>
+    </row>
+    <row r="55" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6715,8 +7224,18 @@
       <c r="L55" s="3">
         <v>0.32981012043012192</v>
       </c>
-    </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0.90683543225806162</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0.38338232660787619</v>
+      </c>
+    </row>
+    <row r="57" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
         <v>2</v>
       </c>
@@ -6739,8 +7258,19 @@
         <f>AVERAGE(L6:L55)</f>
         <v>0.32503056967694349</v>
       </c>
-    </row>
-    <row r="58" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="P57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="3">
+        <f>AVERAGE(Q6:Q55)</f>
+        <v>0.91039084914919988</v>
+      </c>
+      <c r="R57" s="3">
+        <f>AVERAGE(R6:R55)</f>
+        <v>0.36220350431140796</v>
+      </c>
+    </row>
+    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
@@ -6762,6 +7292,17 @@
       <c r="L58" s="3">
         <f>_xlfn.STDEV.S(L6:L55)</f>
         <v>2.2127364474893569E-2</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3">
+        <f>_xlfn.STDEV.S(Q6:Q55)</f>
+        <v>1.6674408854695235E-3</v>
+      </c>
+      <c r="R58" s="3">
+        <f>_xlfn.STDEV.S(R6:R55)</f>
+        <v>1.9695268616722442E-2</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>train (R2)</t>
   </si>
@@ -5571,15 +5571,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:R58"/>
+  <dimension ref="D2:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -5589,33 +5589,43 @@
       <c r="P2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L3" s="1"/>
       <c r="P3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -5637,8 +5647,15 @@
       <c r="R5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
         <v>1</v>
       </c>
@@ -5652,22 +5669,31 @@
         <v>1</v>
       </c>
       <c r="K6" s="3">
-        <v>0.90729947776996445</v>
+        <v>0.90373266047866063</v>
       </c>
       <c r="L6" s="3">
-        <v>0.30138002696576222</v>
+        <v>0.27273903470836602</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="3">
+        <v>0.90729947776996445</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.30138002696576222</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="3">
         <v>0.91123785852774997</v>
       </c>
-      <c r="R6" s="3">
+      <c r="X6" s="3">
         <v>0.36848928238861622</v>
       </c>
     </row>
-    <row r="7" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f>D6+1</f>
         <v>2</v>
@@ -5683,23 +5709,33 @@
         <v>2</v>
       </c>
       <c r="K7" s="3">
-        <v>0.90453732905272644</v>
+        <v>0.90492837759286349</v>
       </c>
       <c r="L7" s="3">
-        <v>0.33605610666232788</v>
+        <v>0.29830742155207812</v>
       </c>
       <c r="P7" s="2">
         <f>P6+1</f>
         <v>2</v>
       </c>
       <c r="Q7" s="3">
+        <v>0.90453732905272644</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.33605610666232788</v>
+      </c>
+      <c r="V7" s="2">
+        <f>V6+1</f>
+        <v>2</v>
+      </c>
+      <c r="W7" s="3">
         <v>0.91169752312099739</v>
       </c>
-      <c r="R7" s="3">
+      <c r="X7" s="3">
         <v>0.36745965385872292</v>
       </c>
     </row>
-    <row r="8" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <f t="shared" ref="D8:D55" si="0">D7+1</f>
         <v>3</v>
@@ -5715,23 +5751,33 @@
         <v>3</v>
       </c>
       <c r="K8" s="3">
-        <v>0.90634310003394225</v>
+        <v>0.90385289289569115</v>
       </c>
       <c r="L8" s="3">
-        <v>0.31550163596450448</v>
+        <v>0.31771619807114487</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P55" si="2">P7+1</f>
         <v>3</v>
       </c>
       <c r="Q8" s="3">
+        <v>0.90634310003394225</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.31550163596450448</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" ref="V8:V55" si="3">V7+1</f>
+        <v>3</v>
+      </c>
+      <c r="W8" s="3">
         <v>0.90948649996940611</v>
       </c>
-      <c r="R8" s="3">
+      <c r="X8" s="3">
         <v>0.38424225933507289</v>
       </c>
     </row>
-    <row r="9" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5747,23 +5793,33 @@
         <v>4</v>
       </c>
       <c r="K9" s="3">
+        <v>0.89953306366185315</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.33801144764942093</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3">
         <v>0.90496776123943767</v>
       </c>
-      <c r="L9" s="3">
+      <c r="R9" s="3">
         <v>0.34040323335747003</v>
       </c>
-      <c r="P9" s="2">
-        <f t="shared" si="2"/>
+      <c r="V9" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="W9" s="3">
         <v>0.91193811593853913</v>
       </c>
-      <c r="R9" s="3">
+      <c r="X9" s="3">
         <v>0.34224769704717062</v>
       </c>
     </row>
-    <row r="10" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5779,23 +5835,33 @@
         <v>5</v>
       </c>
       <c r="K10" s="3">
+        <v>0.90136985970336125</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.31642306681930721</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>0.90627679672742345</v>
       </c>
-      <c r="L10" s="3">
+      <c r="R10" s="3">
         <v>0.2856393139030704</v>
       </c>
-      <c r="P10" s="2">
-        <f t="shared" si="2"/>
+      <c r="V10" s="2">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="W10" s="3">
         <v>0.91046388632986452</v>
       </c>
-      <c r="R10" s="3">
+      <c r="X10" s="3">
         <v>0.35296069861369012</v>
       </c>
     </row>
-    <row r="11" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5811,23 +5877,33 @@
         <v>6</v>
       </c>
       <c r="K11" s="3">
+        <v>0.90138396919391139</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.30768700182399999</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="3">
         <v>0.90482907765804699</v>
       </c>
-      <c r="L11" s="3">
+      <c r="R11" s="3">
         <v>0.32350897458847039</v>
       </c>
-      <c r="P11" s="2">
-        <f t="shared" si="2"/>
+      <c r="V11" s="2">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="W11" s="3">
         <v>0.90824389917358206</v>
       </c>
-      <c r="R11" s="3">
+      <c r="X11" s="3">
         <v>0.3869490565462419</v>
       </c>
     </row>
-    <row r="12" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5843,23 +5919,33 @@
         <v>7</v>
       </c>
       <c r="K12" s="3">
+        <v>0.90231531521818586</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.32351159869657958</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q12" s="3">
         <v>0.90711654164017819</v>
       </c>
-      <c r="L12" s="3">
+      <c r="R12" s="3">
         <v>0.31172778499274828</v>
       </c>
-      <c r="P12" s="2">
-        <f t="shared" si="2"/>
+      <c r="V12" s="2">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="W12" s="3">
         <v>0.90979850177755994</v>
       </c>
-      <c r="R12" s="3">
+      <c r="X12" s="3">
         <v>0.35837750600112012</v>
       </c>
     </row>
-    <row r="13" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5875,23 +5961,33 @@
         <v>8</v>
       </c>
       <c r="K13" s="3">
+        <v>0.90223926137681121</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.32833084244804728</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q13" s="3">
         <v>0.9070408177586653</v>
       </c>
-      <c r="L13" s="3">
+      <c r="R13" s="3">
         <v>0.36464165434328472</v>
       </c>
-      <c r="P13" s="2">
-        <f t="shared" si="2"/>
+      <c r="V13" s="2">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="W13" s="3">
         <v>0.90922512777742825</v>
       </c>
-      <c r="R13" s="3">
+      <c r="X13" s="3">
         <v>0.38211100243818741</v>
       </c>
     </row>
-    <row r="14" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5907,23 +6003,33 @@
         <v>9</v>
       </c>
       <c r="K14" s="3">
+        <v>0.90517755039438064</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.28809169607035873</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q14" s="3">
         <v>0.90680025960378041</v>
       </c>
-      <c r="L14" s="3">
+      <c r="R14" s="3">
         <v>0.31966052725589239</v>
       </c>
-      <c r="P14" s="2">
-        <f t="shared" si="2"/>
+      <c r="V14" s="2">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="W14" s="3">
         <v>0.90988114373850659</v>
       </c>
-      <c r="R14" s="3">
+      <c r="X14" s="3">
         <v>0.3561435463206466</v>
       </c>
     </row>
-    <row r="15" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5939,23 +6045,33 @@
         <v>10</v>
       </c>
       <c r="K15" s="3">
+        <v>0.90450733697384911</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.32835674653263491</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3">
         <v>0.90590947691463908</v>
       </c>
-      <c r="L15" s="3">
+      <c r="R15" s="3">
         <v>0.35906007628160869</v>
       </c>
-      <c r="P15" s="2">
-        <f t="shared" si="2"/>
+      <c r="V15" s="2">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="W15" s="3">
         <v>0.90945803974734651</v>
       </c>
-      <c r="R15" s="3">
+      <c r="X15" s="3">
         <v>0.36353769019507348</v>
       </c>
     </row>
-    <row r="16" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5971,23 +6087,33 @@
         <v>11</v>
       </c>
       <c r="K16" s="3">
+        <v>0.90393596855193603</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.29829184981696177</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Q16" s="3">
         <v>0.90594593788745892</v>
       </c>
-      <c r="L16" s="3">
+      <c r="R16" s="3">
         <v>0.31808632689186728</v>
       </c>
-      <c r="P16" s="2">
-        <f t="shared" si="2"/>
+      <c r="V16" s="2">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="W16" s="3">
         <v>0.91073417840791659</v>
       </c>
-      <c r="R16" s="3">
+      <c r="X16" s="3">
         <v>0.37022756806940638</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6003,23 +6129,33 @@
         <v>12</v>
       </c>
       <c r="K17" s="3">
+        <v>0.90531163045973895</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.25106128653786958</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q17" s="3">
         <v>0.90484188397091125</v>
       </c>
-      <c r="L17" s="3">
+      <c r="R17" s="3">
         <v>0.30758642450531831</v>
       </c>
-      <c r="P17" s="2">
-        <f t="shared" si="2"/>
+      <c r="V17" s="2">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="W17" s="3">
         <v>0.91065996469633015</v>
       </c>
-      <c r="R17" s="3">
+      <c r="X17" s="3">
         <v>0.37518872464659703</v>
       </c>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6035,23 +6171,33 @@
         <v>13</v>
       </c>
       <c r="K18" s="3">
+        <v>0.90202338462075715</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.33735062535815818</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Q18" s="3">
         <v>0.90596487131354675</v>
       </c>
-      <c r="L18" s="3">
+      <c r="R18" s="3">
         <v>0.32070142630575699</v>
       </c>
-      <c r="P18" s="2">
-        <f t="shared" si="2"/>
+      <c r="V18" s="2">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="W18" s="3">
         <v>0.91013084620132556</v>
       </c>
-      <c r="R18" s="3">
+      <c r="X18" s="3">
         <v>0.3519755344879566</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6067,23 +6213,33 @@
         <v>14</v>
       </c>
       <c r="K19" s="3">
+        <v>0.90407835765922895</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.3304309515370687</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q19" s="3">
         <v>0.9069682665093971</v>
       </c>
-      <c r="L19" s="3">
+      <c r="R19" s="3">
         <v>0.30549426965808041</v>
       </c>
-      <c r="P19" s="2">
-        <f t="shared" si="2"/>
+      <c r="V19" s="2">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="W19" s="3">
         <v>0.90997757893818065</v>
       </c>
-      <c r="R19" s="3">
+      <c r="X19" s="3">
         <v>0.33945686412592557</v>
       </c>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6099,23 +6255,33 @@
         <v>15</v>
       </c>
       <c r="K20" s="3">
+        <v>0.90375598082407904</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.299373351706543</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Q20" s="3">
         <v>0.90891542634736688</v>
       </c>
-      <c r="L20" s="3">
+      <c r="R20" s="3">
         <v>0.28729591536322102</v>
       </c>
-      <c r="P20" s="2">
-        <f t="shared" si="2"/>
+      <c r="V20" s="2">
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="W20" s="3">
         <v>0.91209472365433397</v>
       </c>
-      <c r="R20" s="3">
+      <c r="X20" s="3">
         <v>0.34916664239529083</v>
       </c>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6131,23 +6297,33 @@
         <v>16</v>
       </c>
       <c r="K21" s="3">
+        <v>0.90525037853355683</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.27452247831120918</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="Q21" s="3">
         <v>0.90514206201650027</v>
       </c>
-      <c r="L21" s="3">
+      <c r="R21" s="3">
         <v>0.32283470611445708</v>
       </c>
-      <c r="P21" s="2">
-        <f t="shared" si="2"/>
+      <c r="V21" s="2">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="W21" s="3">
         <v>0.91180620796185052</v>
       </c>
-      <c r="R21" s="3">
+      <c r="X21" s="3">
         <v>0.3441756986153196</v>
       </c>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6163,23 +6339,33 @@
         <v>17</v>
       </c>
       <c r="K22" s="3">
+        <v>0.9053819583948155</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.29748372126577061</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="Q22" s="3">
         <v>0.90354728790772931</v>
       </c>
-      <c r="L22" s="3">
+      <c r="R22" s="3">
         <v>0.34791311662321012</v>
       </c>
-      <c r="P22" s="2">
-        <f t="shared" si="2"/>
+      <c r="V22" s="2">
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="W22" s="3">
         <v>0.91166712231578073</v>
       </c>
-      <c r="R22" s="3">
+      <c r="X22" s="3">
         <v>0.32367387023366728</v>
       </c>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6195,23 +6381,33 @@
         <v>18</v>
       </c>
       <c r="K23" s="3">
+        <v>0.90312486924599744</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.30117321776116862</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Q23" s="3">
         <v>0.90626839177978047</v>
       </c>
-      <c r="L23" s="3">
+      <c r="R23" s="3">
         <v>0.27819203103218942</v>
       </c>
-      <c r="P23" s="2">
-        <f t="shared" si="2"/>
+      <c r="V23" s="2">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="W23" s="3">
         <v>0.91027726919061158</v>
       </c>
-      <c r="R23" s="3">
+      <c r="X23" s="3">
         <v>0.38153316128653608</v>
       </c>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6227,23 +6423,33 @@
         <v>19</v>
       </c>
       <c r="K24" s="3">
+        <v>0.89982690998032533</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0.3167875381638966</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q24" s="3">
         <v>0.90677026900242663</v>
       </c>
-      <c r="L24" s="3">
+      <c r="R24" s="3">
         <v>0.33051649428899599</v>
       </c>
-      <c r="P24" s="2">
-        <f t="shared" si="2"/>
+      <c r="V24" s="2">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="W24" s="3">
         <v>0.91053679469203419</v>
       </c>
-      <c r="R24" s="3">
+      <c r="X24" s="3">
         <v>0.36349344312586213</v>
       </c>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6259,23 +6465,33 @@
         <v>20</v>
       </c>
       <c r="K25" s="3">
+        <v>0.90105691939190313</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.30649863501180208</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="3">
         <v>0.90774746551355912</v>
       </c>
-      <c r="L25" s="3">
+      <c r="R25" s="3">
         <v>0.31334375349141319</v>
       </c>
-      <c r="P25" s="2">
-        <f t="shared" si="2"/>
+      <c r="V25" s="2">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="W25" s="3">
         <v>0.90928044916626938</v>
       </c>
-      <c r="R25" s="3">
+      <c r="X25" s="3">
         <v>0.39013366290362861</v>
       </c>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6291,23 +6507,33 @@
         <v>21</v>
       </c>
       <c r="K26" s="3">
+        <v>0.90195585669729206</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.32358771295802219</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="Q26" s="3">
         <v>0.90547632321899174</v>
       </c>
-      <c r="L26" s="3">
+      <c r="R26" s="3">
         <v>0.32047435147645048</v>
       </c>
-      <c r="P26" s="2">
-        <f t="shared" si="2"/>
+      <c r="V26" s="2">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="W26" s="3">
         <v>0.91125794568695351</v>
       </c>
-      <c r="R26" s="3">
+      <c r="X26" s="3">
         <v>0.36123939362136481</v>
       </c>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6323,23 +6549,33 @@
         <v>22</v>
       </c>
       <c r="K27" s="3">
+        <v>0.90670514368487454</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.25690366746712889</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="Q27" s="3">
         <v>0.90521034191213445</v>
       </c>
-      <c r="L27" s="3">
+      <c r="R27" s="3">
         <v>0.35566017575288672</v>
       </c>
-      <c r="P27" s="2">
-        <f t="shared" si="2"/>
+      <c r="V27" s="2">
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="W27" s="3">
         <v>0.90692237995498859</v>
       </c>
-      <c r="R27" s="3">
+      <c r="X27" s="3">
         <v>0.40655641561173878</v>
       </c>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6355,23 +6591,33 @@
         <v>23</v>
       </c>
       <c r="K28" s="3">
+        <v>0.89853178284665669</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0.33705456531061212</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="Q28" s="3">
         <v>0.90292739820445433</v>
       </c>
-      <c r="L28" s="3">
+      <c r="R28" s="3">
         <v>0.33514263685159013</v>
       </c>
-      <c r="P28" s="2">
-        <f t="shared" si="2"/>
+      <c r="V28" s="2">
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="W28" s="3">
         <v>0.91179107298108009</v>
       </c>
-      <c r="R28" s="3">
+      <c r="X28" s="3">
         <v>0.38001010606786589</v>
       </c>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6387,23 +6633,33 @@
         <v>24</v>
       </c>
       <c r="K29" s="3">
+        <v>0.90257769247556818</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0.32782769567709319</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>0.90772126145404974</v>
       </c>
-      <c r="L29" s="3">
+      <c r="R29" s="3">
         <v>0.30821721905365829</v>
       </c>
-      <c r="P29" s="2">
-        <f t="shared" si="2"/>
+      <c r="V29" s="2">
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="W29" s="3">
         <v>0.90715917898088139</v>
       </c>
-      <c r="R29" s="3">
+      <c r="X29" s="3">
         <v>0.38210824174425989</v>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6419,23 +6675,33 @@
         <v>25</v>
       </c>
       <c r="K30" s="3">
+        <v>0.90321466383614424</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0.32067460917560342</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="Q30" s="3">
         <v>0.904697421130913</v>
       </c>
-      <c r="L30" s="3">
+      <c r="R30" s="3">
         <v>0.34914379939291379</v>
       </c>
-      <c r="P30" s="2">
-        <f t="shared" si="2"/>
+      <c r="V30" s="2">
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="W30" s="3">
         <v>0.90922311824387758</v>
       </c>
-      <c r="R30" s="3">
+      <c r="X30" s="3">
         <v>0.37847927180935031</v>
       </c>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6451,23 +6717,33 @@
         <v>26</v>
       </c>
       <c r="K31" s="3">
+        <v>0.90444929421809273</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.31157238001884541</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="Q31" s="3">
         <v>0.90718240503389791</v>
       </c>
-      <c r="L31" s="3">
+      <c r="R31" s="3">
         <v>0.31181950741017489</v>
       </c>
-      <c r="P31" s="2">
-        <f t="shared" si="2"/>
+      <c r="V31" s="2">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="W31" s="3">
         <v>0.91016619522780307</v>
       </c>
-      <c r="R31" s="3">
+      <c r="X31" s="3">
         <v>0.36834541782196389</v>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6483,23 +6759,33 @@
         <v>27</v>
       </c>
       <c r="K32" s="3">
+        <v>0.90244749673008584</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.33405339788006028</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="Q32" s="3">
         <v>0.90732264106647842</v>
       </c>
-      <c r="L32" s="3">
+      <c r="R32" s="3">
         <v>0.3091955641571783</v>
       </c>
-      <c r="P32" s="2">
-        <f t="shared" si="2"/>
+      <c r="V32" s="2">
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="W32" s="3">
         <v>0.90570372254268894</v>
       </c>
-      <c r="R32" s="3">
+      <c r="X32" s="3">
         <v>0.380444456752696</v>
       </c>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6515,23 +6801,33 @@
         <v>28</v>
       </c>
       <c r="K33" s="3">
+        <v>0.90355283847609014</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.33322278487284113</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="Q33" s="3">
         <v>0.90276746056687007</v>
       </c>
-      <c r="L33" s="3">
+      <c r="R33" s="3">
         <v>0.33298812020121588</v>
       </c>
-      <c r="P33" s="2">
-        <f t="shared" si="2"/>
+      <c r="V33" s="2">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="W33" s="3">
         <v>0.91428860615041374</v>
       </c>
-      <c r="R33" s="3">
+      <c r="X33" s="3">
         <v>0.32701664900322253</v>
       </c>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6547,23 +6843,33 @@
         <v>29</v>
       </c>
       <c r="K34" s="3">
+        <v>0.90197776417156084</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.31601097752112872</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="Q34" s="3">
         <v>0.90660429609040316</v>
       </c>
-      <c r="L34" s="3">
+      <c r="R34" s="3">
         <v>0.30580620990159341</v>
       </c>
-      <c r="P34" s="2">
-        <f t="shared" si="2"/>
+      <c r="V34" s="2">
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="W34" s="3">
         <v>0.91090642277278777</v>
       </c>
-      <c r="R34" s="3">
+      <c r="X34" s="3">
         <v>0.33675509576834722</v>
       </c>
     </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D35" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6579,23 +6885,33 @@
         <v>30</v>
       </c>
       <c r="K35" s="3">
+        <v>0.90536613673469923</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0.26231035959351068</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q35" s="3">
         <v>0.907372243852134</v>
       </c>
-      <c r="L35" s="3">
+      <c r="R35" s="3">
         <v>0.33211367010758341</v>
       </c>
-      <c r="P35" s="2">
-        <f t="shared" si="2"/>
+      <c r="V35" s="2">
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="W35" s="3">
         <v>0.90971187802686959</v>
       </c>
-      <c r="R35" s="3">
+      <c r="X35" s="3">
         <v>0.39289839745223359</v>
       </c>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6611,23 +6927,33 @@
         <v>31</v>
       </c>
       <c r="K36" s="3">
+        <v>0.90197820887766367</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0.3322903874423534</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="Q36" s="3">
         <v>0.90614418710388023</v>
       </c>
-      <c r="L36" s="3">
+      <c r="R36" s="3">
         <v>0.29615609697219258</v>
       </c>
-      <c r="P36" s="2">
-        <f t="shared" si="2"/>
+      <c r="V36" s="2">
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="W36" s="3">
         <v>0.91281901631766182</v>
       </c>
-      <c r="R36" s="3">
+      <c r="X36" s="3">
         <v>0.33593958046317479</v>
       </c>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6643,23 +6969,33 @@
         <v>32</v>
       </c>
       <c r="K37" s="3">
+        <v>0.90298836504826774</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0.31742056780640121</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Q37" s="3">
         <v>0.90682318086615654</v>
       </c>
-      <c r="L37" s="3">
+      <c r="R37" s="3">
         <v>0.29381406280476791</v>
       </c>
-      <c r="P37" s="2">
-        <f t="shared" si="2"/>
+      <c r="V37" s="2">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="W37" s="3">
         <v>0.91171634477563079</v>
       </c>
-      <c r="R37" s="3">
+      <c r="X37" s="3">
         <v>0.33147875475970873</v>
       </c>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6675,23 +7011,33 @@
         <v>33</v>
       </c>
       <c r="K38" s="3">
+        <v>0.90252502447082661</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0.33576606744126991</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="Q38" s="3">
         <v>0.90774080246328848</v>
       </c>
-      <c r="L38" s="3">
+      <c r="R38" s="3">
         <v>0.29108931258119852</v>
       </c>
-      <c r="P38" s="2">
-        <f t="shared" si="2"/>
+      <c r="V38" s="2">
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="W38" s="3">
         <v>0.91153107448643322</v>
       </c>
-      <c r="R38" s="3">
+      <c r="X38" s="3">
         <v>0.36283344915887489</v>
       </c>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D39" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6707,23 +7053,33 @@
         <v>34</v>
       </c>
       <c r="K39" s="3">
+        <v>0.90369306644263347</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.28819379189438432</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="Q39" s="3">
         <v>0.90517543957709057</v>
       </c>
-      <c r="L39" s="3">
+      <c r="R39" s="3">
         <v>0.35666862901144109</v>
       </c>
-      <c r="P39" s="2">
-        <f t="shared" si="2"/>
+      <c r="V39" s="2">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="W39" s="3">
         <v>0.9079553818824242</v>
       </c>
-      <c r="R39" s="3">
+      <c r="X39" s="3">
         <v>0.39007098336000601</v>
       </c>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D40" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6739,23 +7095,33 @@
         <v>35</v>
       </c>
       <c r="K40" s="3">
+        <v>0.9024128984018176</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.31170679963278969</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="Q40" s="3">
         <v>0.90677225972663833</v>
       </c>
-      <c r="L40" s="3">
+      <c r="R40" s="3">
         <v>0.34281492183782147</v>
       </c>
-      <c r="P40" s="2">
-        <f t="shared" si="2"/>
+      <c r="V40" s="2">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="W40" s="3">
         <v>0.91207156517525589</v>
       </c>
-      <c r="R40" s="3">
+      <c r="X40" s="3">
         <v>0.34056059741658029</v>
       </c>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D41" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6771,23 +7137,33 @@
         <v>36</v>
       </c>
       <c r="K41" s="3">
+        <v>0.90449137534695201</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.30008282622540228</v>
+      </c>
+      <c r="P41" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="Q41" s="3">
         <v>0.90507710767794458</v>
       </c>
-      <c r="L41" s="3">
+      <c r="R41" s="3">
         <v>0.31052113871149611</v>
       </c>
-      <c r="P41" s="2">
-        <f t="shared" si="2"/>
+      <c r="V41" s="2">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="W41" s="3">
         <v>0.91002522136297781</v>
       </c>
-      <c r="R41" s="3">
+      <c r="X41" s="3">
         <v>0.33975032067533739</v>
       </c>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D42" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6803,23 +7179,33 @@
         <v>37</v>
       </c>
       <c r="K42" s="3">
+        <v>0.90345653396166736</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0.32266337145443058</v>
+      </c>
+      <c r="P42" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="Q42" s="3">
         <v>0.90457541543937847</v>
       </c>
-      <c r="L42" s="3">
+      <c r="R42" s="3">
         <v>0.35907823165696667</v>
       </c>
-      <c r="P42" s="2">
-        <f t="shared" si="2"/>
+      <c r="V42" s="2">
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="W42" s="3">
         <v>0.91046793567113171</v>
       </c>
-      <c r="R42" s="3">
+      <c r="X42" s="3">
         <v>0.36313494791188211</v>
       </c>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D43" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6835,23 +7221,33 @@
         <v>38</v>
       </c>
       <c r="K43" s="3">
+        <v>0.90231808364500043</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0.31887775230364312</v>
+      </c>
+      <c r="P43" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q43" s="3">
         <v>0.90609319503778751</v>
       </c>
-      <c r="L43" s="3">
+      <c r="R43" s="3">
         <v>0.31675399132070903</v>
       </c>
-      <c r="P43" s="2">
-        <f t="shared" si="2"/>
+      <c r="V43" s="2">
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="W43" s="3">
         <v>0.90953477061713006</v>
       </c>
-      <c r="R43" s="3">
+      <c r="X43" s="3">
         <v>0.36246967000715941</v>
       </c>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D44" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6867,23 +7263,33 @@
         <v>39</v>
       </c>
       <c r="K44" s="3">
+        <v>0.90275285634840141</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0.28788860891547191</v>
+      </c>
+      <c r="P44" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="Q44" s="3">
         <v>0.90780783970153789</v>
       </c>
-      <c r="L44" s="3">
+      <c r="R44" s="3">
         <v>0.32634483448152529</v>
       </c>
-      <c r="P44" s="2">
-        <f t="shared" si="2"/>
+      <c r="V44" s="2">
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="W44" s="3">
         <v>0.91161832847125224</v>
       </c>
-      <c r="R44" s="3">
+      <c r="X44" s="3">
         <v>0.34493578754436272</v>
       </c>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D45" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6899,23 +7305,33 @@
         <v>40</v>
       </c>
       <c r="K45" s="3">
+        <v>0.90424087965074074</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0.26955396843156171</v>
+      </c>
+      <c r="P45" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="Q45" s="3">
         <v>0.90882122626077899</v>
       </c>
-      <c r="L45" s="3">
+      <c r="R45" s="3">
         <v>0.32048463042837422</v>
       </c>
-      <c r="P45" s="2">
-        <f t="shared" si="2"/>
+      <c r="V45" s="2">
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="W45" s="3">
         <v>0.91172492790692494</v>
       </c>
-      <c r="R45" s="3">
+      <c r="X45" s="3">
         <v>0.36893137751882737</v>
       </c>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D46" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6931,23 +7347,33 @@
         <v>41</v>
       </c>
       <c r="K46" s="3">
+        <v>0.90087824935070937</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.32634766791146808</v>
+      </c>
+      <c r="P46" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="Q46" s="3">
         <v>0.90460452488302978</v>
       </c>
-      <c r="L46" s="3">
+      <c r="R46" s="3">
         <v>0.31959327377859481</v>
       </c>
-      <c r="P46" s="2">
-        <f t="shared" si="2"/>
+      <c r="V46" s="2">
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="W46" s="3">
         <v>0.90921275604493956</v>
       </c>
-      <c r="R46" s="3">
+      <c r="X46" s="3">
         <v>0.37105015657727369</v>
       </c>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D47" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6963,23 +7389,33 @@
         <v>42</v>
       </c>
       <c r="K47" s="3">
+        <v>0.9010084663796778</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0.35511010994512437</v>
+      </c>
+      <c r="P47" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="Q47" s="3">
         <v>0.90484529705829164</v>
       </c>
-      <c r="L47" s="3">
+      <c r="R47" s="3">
         <v>0.34590476000107417</v>
       </c>
-      <c r="P47" s="2">
-        <f t="shared" si="2"/>
+      <c r="V47" s="2">
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="W47" s="3">
         <v>0.91164001452526378</v>
       </c>
-      <c r="R47" s="3">
+      <c r="X47" s="3">
         <v>0.35249554353093832</v>
       </c>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6995,23 +7431,33 @@
         <v>43</v>
       </c>
       <c r="K48" s="3">
+        <v>0.90153545685927039</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0.29721134470575811</v>
+      </c>
+      <c r="P48" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="Q48" s="3">
         <v>0.90604040458777069</v>
       </c>
-      <c r="L48" s="3">
+      <c r="R48" s="3">
         <v>0.34417727260539488</v>
       </c>
-      <c r="P48" s="2">
-        <f t="shared" si="2"/>
+      <c r="V48" s="2">
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="W48" s="3">
         <v>0.91055669512409243</v>
       </c>
-      <c r="R48" s="3">
+      <c r="X48" s="3">
         <v>0.3706951219811524</v>
       </c>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D49" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -7027,23 +7473,33 @@
         <v>44</v>
       </c>
       <c r="K49" s="3">
+        <v>0.90465576734145303</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0.30534838695498412</v>
+      </c>
+      <c r="P49" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="Q49" s="3">
         <v>0.90681820918125555</v>
       </c>
-      <c r="L49" s="3">
+      <c r="R49" s="3">
         <v>0.30829801070136592</v>
       </c>
-      <c r="P49" s="2">
-        <f t="shared" si="2"/>
+      <c r="V49" s="2">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="W49" s="3">
         <v>0.91281040199218588</v>
       </c>
-      <c r="R49" s="3">
+      <c r="X49" s="3">
         <v>0.34367331656116329</v>
       </c>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D50" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -7059,23 +7515,33 @@
         <v>45</v>
       </c>
       <c r="K50" s="3">
+        <v>0.90295710251354122</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.28706688221118237</v>
+      </c>
+      <c r="P50" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="Q50" s="3">
         <v>0.90396337711884267</v>
       </c>
-      <c r="L50" s="3">
+      <c r="R50" s="3">
         <v>0.32269804555968251</v>
       </c>
-      <c r="P50" s="2">
-        <f t="shared" si="2"/>
+      <c r="V50" s="2">
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="W50" s="3">
         <v>0.91011136158225225</v>
       </c>
-      <c r="R50" s="3">
+      <c r="X50" s="3">
         <v>0.34806672372107561</v>
       </c>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -7091,23 +7557,33 @@
         <v>46</v>
       </c>
       <c r="K51" s="3">
+        <v>0.90285775202878771</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0.2922365867369292</v>
+      </c>
+      <c r="P51" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="Q51" s="3">
         <v>0.90693023941997919</v>
       </c>
-      <c r="L51" s="3">
+      <c r="R51" s="3">
         <v>0.33961824834053139</v>
       </c>
-      <c r="P51" s="2">
-        <f t="shared" si="2"/>
+      <c r="V51" s="2">
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="W51" s="3">
         <v>0.90961158443673784</v>
       </c>
-      <c r="R51" s="3">
+      <c r="X51" s="3">
         <v>0.38037184952708958</v>
       </c>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -7123,23 +7599,33 @@
         <v>47</v>
       </c>
       <c r="K52" s="3">
+        <v>0.90401839283139052</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.29445536099535119</v>
+      </c>
+      <c r="P52" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="Q52" s="3">
         <v>0.90674446886971027</v>
       </c>
-      <c r="L52" s="3">
+      <c r="R52" s="3">
         <v>0.35862164817227471</v>
       </c>
-      <c r="P52" s="2">
-        <f t="shared" si="2"/>
+      <c r="V52" s="2">
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="W52" s="3">
         <v>0.91271058221917067</v>
       </c>
-      <c r="R52" s="3">
+      <c r="X52" s="3">
         <v>0.34551653518771602</v>
       </c>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -7155,23 +7641,33 @@
         <v>48</v>
       </c>
       <c r="K53" s="3">
+        <v>0.90110899477790185</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0.33887728697039732</v>
+      </c>
+      <c r="P53" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="Q53" s="3">
         <v>0.90503412311777087</v>
       </c>
-      <c r="L53" s="3">
+      <c r="R53" s="3">
         <v>0.36070908551586822</v>
       </c>
-      <c r="P53" s="2">
-        <f t="shared" si="2"/>
+      <c r="V53" s="2">
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="W53" s="3">
         <v>0.90971828708205449</v>
       </c>
-      <c r="R53" s="3">
+      <c r="X53" s="3">
         <v>0.37805016856775958</v>
       </c>
     </row>
-    <row r="54" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D54" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7187,23 +7683,33 @@
         <v>49</v>
       </c>
       <c r="K54" s="3">
+        <v>0.89992865201698835</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0.33014576971993442</v>
+      </c>
+      <c r="P54" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="Q54" s="3">
         <v>0.9062280592663311</v>
       </c>
-      <c r="L54" s="3">
+      <c r="R54" s="3">
         <v>0.35826711604088057</v>
       </c>
-      <c r="P54" s="2">
-        <f t="shared" si="2"/>
+      <c r="V54" s="2">
+        <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="W54" s="3">
         <v>0.91114452363446241</v>
       </c>
-      <c r="R54" s="3">
+      <c r="X54" s="3">
         <v>0.33137099620465438</v>
       </c>
     </row>
-    <row r="55" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -7219,23 +7725,33 @@
         <v>50</v>
       </c>
       <c r="K55" s="3">
+        <v>0.90409466463416577</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0.31049660225793307</v>
+      </c>
+      <c r="P55" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Q55" s="3">
         <v>0.904524870314658</v>
       </c>
-      <c r="L55" s="3">
+      <c r="R55" s="3">
         <v>0.32981012043012192</v>
       </c>
-      <c r="P55" s="2">
-        <f t="shared" si="2"/>
+      <c r="V55" s="2">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="W55" s="3">
         <v>0.90683543225806162</v>
       </c>
-      <c r="R55" s="3">
+      <c r="X55" s="3">
         <v>0.38338232660787619</v>
       </c>
     </row>
-    <row r="57" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
         <v>2</v>
       </c>
@@ -7252,25 +7768,36 @@
       </c>
       <c r="K57" s="3">
         <f>AVERAGE(K6:K55)</f>
-        <v>0.90602557041699849</v>
+        <v>0.90294932211901668</v>
       </c>
       <c r="L57" s="3">
         <f>AVERAGE(L6:L55)</f>
-        <v>0.32503056967694349</v>
+        <v>0.30954214000548008</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>2</v>
       </c>
       <c r="Q57" s="3">
         <f>AVERAGE(Q6:Q55)</f>
-        <v>0.91039084914919988</v>
+        <v>0.90602557041699849</v>
       </c>
       <c r="R57" s="3">
         <f>AVERAGE(R6:R55)</f>
+        <v>0.32503056967694349</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W57" s="3">
+        <f>AVERAGE(W6:W55)</f>
+        <v>0.91039084914919988</v>
+      </c>
+      <c r="X57" s="3">
+        <f>AVERAGE(X6:X55)</f>
         <v>0.36220350431140796</v>
       </c>
     </row>
-    <row r="58" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D58" s="2" t="s">
         <v>3</v>
       </c>
@@ -7287,21 +7814,32 @@
       </c>
       <c r="K58" s="3">
         <f>_xlfn.STDEV.S(K6:K55)</f>
-        <v>1.379915286741316E-3</v>
+        <v>1.7100346597826767E-3</v>
       </c>
       <c r="L58" s="3">
         <f>_xlfn.STDEV.S(L6:L55)</f>
-        <v>2.2127364474893569E-2</v>
+        <v>2.3363627775253883E-2</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q58" s="3">
         <f>_xlfn.STDEV.S(Q6:Q55)</f>
-        <v>1.6674408854695235E-3</v>
+        <v>1.379915286741316E-3</v>
       </c>
       <c r="R58" s="3">
         <f>_xlfn.STDEV.S(R6:R55)</f>
+        <v>2.2127364474893569E-2</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="3">
+        <f>_xlfn.STDEV.S(W6:W55)</f>
+        <v>1.6674408854695235E-3</v>
+      </c>
+      <c r="X58" s="3">
+        <f>_xlfn.STDEV.S(X6:X55)</f>
         <v>1.9695268616722442E-2</v>
       </c>
     </row>

--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="error (soc-eco + dem)" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>train (R2)</t>
   </si>
@@ -3285,35 +3285,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:U57"/>
+  <dimension ref="C1:Y57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E57"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
     <col min="16" max="16" width="11.28515625" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="W1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3322,30 +3325,37 @@
         <v>5</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="1"/>
-      <c r="S2" s="1" t="s">
+      <c r="O2" s="1"/>
+      <c r="R2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="T2" s="1"/>
+      <c r="W2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -3360,22 +3370,29 @@
       <c r="J4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="O4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -3394,26 +3411,35 @@
       <c r="J5" s="3">
         <v>0.64275982298876144</v>
       </c>
-      <c r="N5" s="2">
+      <c r="M5" s="2">
         <v>1</v>
       </c>
+      <c r="N5" s="3">
+        <v>0.9483826461959044</v>
+      </c>
       <c r="O5" s="3">
+        <v>0.62424276749922858</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
         <v>0.11629864236609461</v>
       </c>
-      <c r="P5" s="3">
+      <c r="T5" s="3">
         <v>0.31224638203978711</v>
       </c>
-      <c r="S5" s="2">
+      <c r="W5" s="2">
         <v>1</v>
       </c>
-      <c r="T5" s="3">
+      <c r="X5" s="3">
         <v>8.1769613043519596E-2</v>
       </c>
-      <c r="U5" s="3">
+      <c r="Y5" s="3">
         <v>0.2185752247090387</v>
       </c>
     </row>
-    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
@@ -3434,28 +3460,38 @@
       <c r="J6" s="3">
         <v>0.629469090151622</v>
       </c>
-      <c r="N6" s="2">
-        <f>N5+1</f>
+      <c r="M6" s="2">
+        <f>M5+1</f>
         <v>2</v>
       </c>
+      <c r="N6" s="3">
+        <v>0.95014181806151399</v>
+      </c>
       <c r="O6" s="3">
+        <v>0.65165738632552261</v>
+      </c>
+      <c r="R6" s="2">
+        <f>R5+1</f>
+        <v>2</v>
+      </c>
+      <c r="S6" s="3">
         <v>0.1168169117142514</v>
       </c>
-      <c r="P6" s="3">
+      <c r="T6" s="3">
         <v>0.31273421380824667</v>
       </c>
-      <c r="S6" s="2">
-        <f>S5+1</f>
+      <c r="W6" s="2">
+        <f>W5+1</f>
         <v>2</v>
       </c>
-      <c r="T6" s="3">
+      <c r="X6" s="3">
         <v>8.2015583435031403E-2</v>
       </c>
-      <c r="U6" s="3">
+      <c r="Y6" s="3">
         <v>0.228059986916406</v>
       </c>
     </row>
-    <row r="7" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" ref="C7:C54" si="0">C6+1</f>
         <v>3</v>
@@ -3476,28 +3512,38 @@
       <c r="J7" s="3">
         <v>0.66944149512898354</v>
       </c>
-      <c r="N7" s="2">
-        <f t="shared" ref="N7:N54" si="2">N6+1</f>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M54" si="2">M6+1</f>
         <v>3</v>
       </c>
+      <c r="N7" s="3">
+        <v>0.94851326772255407</v>
+      </c>
       <c r="O7" s="3">
+        <v>0.6671959229934028</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7:R54" si="3">R6+1</f>
+        <v>3</v>
+      </c>
+      <c r="S7" s="3">
         <v>0.1179096055996649</v>
       </c>
-      <c r="P7" s="3">
+      <c r="T7" s="3">
         <v>0.29563574077515559</v>
       </c>
-      <c r="S7" s="2">
-        <f t="shared" ref="S7:S54" si="3">S6+1</f>
+      <c r="W7" s="2">
+        <f t="shared" ref="W7:W54" si="4">W6+1</f>
         <v>3</v>
       </c>
-      <c r="T7" s="3">
+      <c r="X7" s="3">
         <v>8.2242710734438632E-2</v>
       </c>
-      <c r="U7" s="3">
+      <c r="Y7" s="3">
         <v>0.2149826377335019</v>
       </c>
     </row>
-    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3518,28 +3564,38 @@
       <c r="J8" s="3">
         <v>0.68654267551945458</v>
       </c>
-      <c r="N8" s="2">
+      <c r="M8" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="N8" s="3">
+        <v>0.94974359082717996</v>
+      </c>
       <c r="O8" s="3">
+        <v>0.62610975868051677</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="S8" s="3">
         <v>0.1172464566941234</v>
       </c>
-      <c r="P8" s="3">
+      <c r="T8" s="3">
         <v>0.30646210688982789</v>
       </c>
-      <c r="S8" s="2">
-        <f t="shared" si="3"/>
+      <c r="W8" s="2">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="T8" s="3">
+      <c r="X8" s="3">
         <v>8.1549176794793454E-2</v>
       </c>
-      <c r="U8" s="3">
+      <c r="Y8" s="3">
         <v>0.22654039805285689</v>
       </c>
     </row>
-    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3560,28 +3616,38 @@
       <c r="J9" s="3">
         <v>0.66641103683849501</v>
       </c>
-      <c r="N9" s="2">
+      <c r="M9" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
+      <c r="N9" s="3">
+        <v>0.95025250774461234</v>
+      </c>
       <c r="O9" s="3">
+        <v>0.62707359060358336</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>0.11815620674558699</v>
       </c>
-      <c r="P9" s="3">
+      <c r="T9" s="3">
         <v>0.30697978105111479</v>
       </c>
-      <c r="S9" s="2">
-        <f t="shared" si="3"/>
+      <c r="W9" s="2">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="T9" s="3">
+      <c r="X9" s="3">
         <v>8.1536264136596287E-2</v>
       </c>
-      <c r="U9" s="3">
+      <c r="Y9" s="3">
         <v>0.22159406681404359</v>
       </c>
     </row>
-    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3602,28 +3668,38 @@
       <c r="J10" s="3">
         <v>0.6532349561766656</v>
       </c>
-      <c r="N10" s="2">
+      <c r="M10" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="N10" s="3">
+        <v>0.94796415952673541</v>
+      </c>
       <c r="O10" s="3">
+        <v>0.67429355017169756</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="S10" s="3">
         <v>0.1169240315092835</v>
       </c>
-      <c r="P10" s="3">
+      <c r="T10" s="3">
         <v>0.30980523001355198</v>
       </c>
-      <c r="S10" s="2">
-        <f t="shared" si="3"/>
+      <c r="W10" s="2">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="T10" s="3">
+      <c r="X10" s="3">
         <v>8.1823070141145773E-2</v>
       </c>
-      <c r="U10" s="3">
+      <c r="Y10" s="3">
         <v>0.22855806711828469</v>
       </c>
     </row>
-    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3644,28 +3720,38 @@
       <c r="J11" s="3">
         <v>0.65712144013742768</v>
       </c>
-      <c r="N11" s="2">
+      <c r="M11" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
+      <c r="N11" s="3">
+        <v>0.94938913654931145</v>
+      </c>
       <c r="O11" s="3">
+        <v>0.64531580148263057</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S11" s="3">
         <v>0.1162986700492049</v>
       </c>
-      <c r="P11" s="3">
+      <c r="T11" s="3">
         <v>0.32155039855673279</v>
       </c>
-      <c r="S11" s="2">
-        <f t="shared" si="3"/>
+      <c r="W11" s="2">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="T11" s="3">
+      <c r="X11" s="3">
         <v>8.1705863850174379E-2</v>
       </c>
-      <c r="U11" s="3">
+      <c r="Y11" s="3">
         <v>0.21721269051565181</v>
       </c>
     </row>
-    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3686,28 +3772,38 @@
       <c r="J12" s="3">
         <v>0.62811490133172454</v>
       </c>
-      <c r="N12" s="2">
+      <c r="M12" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
+      <c r="N12" s="3">
+        <v>0.94858419153504725</v>
+      </c>
       <c r="O12" s="3">
+        <v>0.62639699780051294</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S12" s="3">
         <v>0.11776354951009541</v>
       </c>
-      <c r="P12" s="3">
+      <c r="T12" s="3">
         <v>0.31911434022278012</v>
       </c>
-      <c r="S12" s="2">
-        <f t="shared" si="3"/>
+      <c r="W12" s="2">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="T12" s="3">
+      <c r="X12" s="3">
         <v>8.2664068657790857E-2</v>
       </c>
-      <c r="U12" s="3">
+      <c r="Y12" s="3">
         <v>0.21594411354817489</v>
       </c>
     </row>
-    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3728,28 +3824,38 @@
       <c r="J13" s="3">
         <v>0.64387148219708357</v>
       </c>
-      <c r="N13" s="2">
+      <c r="M13" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
+      <c r="N13" s="3">
+        <v>0.94893636270296566</v>
+      </c>
       <c r="O13" s="3">
+        <v>0.66640684057230692</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="S13" s="3">
         <v>0.1156787760033966</v>
       </c>
-      <c r="P13" s="3">
+      <c r="T13" s="3">
         <v>0.31468487648743998</v>
       </c>
-      <c r="S13" s="2">
-        <f t="shared" si="3"/>
+      <c r="W13" s="2">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="T13" s="3">
+      <c r="X13" s="3">
         <v>8.2246020605867914E-2</v>
       </c>
-      <c r="U13" s="3">
+      <c r="Y13" s="3">
         <v>0.22114865492312391</v>
       </c>
     </row>
-    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3770,28 +3876,38 @@
       <c r="J14" s="3">
         <v>0.67642291136019894</v>
       </c>
-      <c r="N14" s="2">
+      <c r="M14" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="N14" s="3">
+        <v>0.95029434903033028</v>
+      </c>
       <c r="O14" s="3">
+        <v>0.63156679502402269</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>0.1178000635324878</v>
       </c>
-      <c r="P14" s="3">
+      <c r="T14" s="3">
         <v>0.30004516193868969</v>
       </c>
-      <c r="S14" s="2">
-        <f t="shared" si="3"/>
+      <c r="W14" s="2">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="T14" s="3">
+      <c r="X14" s="3">
         <v>8.2762723030266369E-2</v>
       </c>
-      <c r="U14" s="3">
+      <c r="Y14" s="3">
         <v>0.22181721225600909</v>
       </c>
     </row>
-    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3812,28 +3928,38 @@
       <c r="J15" s="3">
         <v>0.66143118076609753</v>
       </c>
-      <c r="N15" s="2">
+      <c r="M15" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
+      <c r="N15" s="3">
+        <v>0.9484002184287218</v>
+      </c>
       <c r="O15" s="3">
+        <v>0.64802503096297781</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S15" s="3">
         <v>0.1171383818317885</v>
       </c>
-      <c r="P15" s="3">
+      <c r="T15" s="3">
         <v>0.30811545296515908</v>
       </c>
-      <c r="S15" s="2">
-        <f t="shared" si="3"/>
+      <c r="W15" s="2">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="T15" s="3">
+      <c r="X15" s="3">
         <v>8.3102819747522774E-2</v>
       </c>
-      <c r="U15" s="3">
+      <c r="Y15" s="3">
         <v>0.2112029915425882</v>
       </c>
     </row>
-    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3854,28 +3980,38 @@
       <c r="J16" s="3">
         <v>0.67018187713441957</v>
       </c>
-      <c r="N16" s="2">
+      <c r="M16" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
+      <c r="N16" s="3">
+        <v>0.94989129262824368</v>
+      </c>
       <c r="O16" s="3">
+        <v>0.63875755894633546</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="S16" s="3">
         <v>0.1171186160910848</v>
       </c>
-      <c r="P16" s="3">
+      <c r="T16" s="3">
         <v>0.31103563353080099</v>
       </c>
-      <c r="S16" s="2">
-        <f t="shared" si="3"/>
+      <c r="W16" s="2">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="T16" s="3">
+      <c r="X16" s="3">
         <v>8.2339487334254086E-2</v>
       </c>
-      <c r="U16" s="3">
+      <c r="Y16" s="3">
         <v>0.2260417239367816</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3896,28 +4032,38 @@
       <c r="J17" s="3">
         <v>0.62043554495858433</v>
       </c>
-      <c r="N17" s="2">
+      <c r="M17" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
+      <c r="N17" s="3">
+        <v>0.9492074765160603</v>
+      </c>
       <c r="O17" s="3">
+        <v>0.64812073080130728</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="S17" s="3">
         <v>0.1171742453010904</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <v>0.31140957698377753</v>
       </c>
-      <c r="S17" s="2">
-        <f t="shared" si="3"/>
+      <c r="W17" s="2">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="T17" s="3">
+      <c r="X17" s="3">
         <v>8.1596317207806829E-2</v>
       </c>
-      <c r="U17" s="3">
+      <c r="Y17" s="3">
         <v>0.23112952553723701</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3938,28 +4084,38 @@
       <c r="J18" s="3">
         <v>0.65092072927518974</v>
       </c>
-      <c r="N18" s="2">
+      <c r="M18" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
+      <c r="N18" s="3">
+        <v>0.94938848879038751</v>
+      </c>
       <c r="O18" s="3">
+        <v>0.66775707346954982</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="S18" s="3">
         <v>0.1164586784263299</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <v>0.30973552394199477</v>
       </c>
-      <c r="S18" s="2">
-        <f t="shared" si="3"/>
+      <c r="W18" s="2">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="T18" s="3">
+      <c r="X18" s="3">
         <v>8.2632752639061433E-2</v>
       </c>
-      <c r="U18" s="3">
+      <c r="Y18" s="3">
         <v>0.21940649077523819</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3980,28 +4136,38 @@
       <c r="J19" s="3">
         <v>0.63727055500260632</v>
       </c>
-      <c r="N19" s="2">
+      <c r="M19" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
+      <c r="N19" s="3">
+        <v>0.94881345044029819</v>
+      </c>
       <c r="O19" s="3">
+        <v>0.61746215094387957</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="S19" s="3">
         <v>0.1177906235918996</v>
       </c>
-      <c r="P19" s="3">
+      <c r="T19" s="3">
         <v>0.30600599996569089</v>
       </c>
-      <c r="S19" s="2">
-        <f t="shared" si="3"/>
+      <c r="W19" s="2">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="T19" s="3">
+      <c r="X19" s="3">
         <v>8.1650285344827836E-2</v>
       </c>
-      <c r="U19" s="3">
+      <c r="Y19" s="3">
         <v>0.22222848595890529</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4022,28 +4188,38 @@
       <c r="J20" s="3">
         <v>0.67338195669841994</v>
       </c>
-      <c r="N20" s="2">
+      <c r="M20" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
+      <c r="N20" s="3">
+        <v>0.95006313957131971</v>
+      </c>
       <c r="O20" s="3">
+        <v>0.61314988818603333</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="S20" s="3">
         <v>0.11747927165115141</v>
       </c>
-      <c r="P20" s="3">
+      <c r="T20" s="3">
         <v>0.31312975008720212</v>
       </c>
-      <c r="S20" s="2">
-        <f t="shared" si="3"/>
+      <c r="W20" s="2">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="T20" s="3">
+      <c r="X20" s="3">
         <v>8.2300244262586322E-2</v>
       </c>
-      <c r="U20" s="3">
+      <c r="Y20" s="3">
         <v>0.2131942670611168</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4064,28 +4240,38 @@
       <c r="J21" s="3">
         <v>0.6026267589083667</v>
       </c>
-      <c r="N21" s="2">
+      <c r="M21" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
+      <c r="N21" s="3">
+        <v>0.94841670021682811</v>
+      </c>
       <c r="O21" s="3">
+        <v>0.68723334489831167</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S21" s="3">
         <v>0.1170660597063146</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>0.31892808825715768</v>
       </c>
-      <c r="S21" s="2">
-        <f t="shared" si="3"/>
+      <c r="W21" s="2">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="T21" s="3">
+      <c r="X21" s="3">
         <v>8.2010057078785031E-2</v>
       </c>
-      <c r="U21" s="3">
+      <c r="Y21" s="3">
         <v>0.22226383573189001</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4106,28 +4292,38 @@
       <c r="J22" s="3">
         <v>0.61387782259502877</v>
       </c>
-      <c r="N22" s="2">
+      <c r="M22" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
+      <c r="N22" s="3">
+        <v>0.94745703865263975</v>
+      </c>
       <c r="O22" s="3">
+        <v>0.65213060930063704</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="S22" s="3">
         <v>0.1190566414304584</v>
       </c>
-      <c r="P22" s="3">
+      <c r="T22" s="3">
         <v>0.29201141261772301</v>
       </c>
-      <c r="S22" s="2">
-        <f t="shared" si="3"/>
+      <c r="W22" s="2">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="T22" s="3">
+      <c r="X22" s="3">
         <v>8.2465725949413093E-2</v>
       </c>
-      <c r="U22" s="3">
+      <c r="Y22" s="3">
         <v>0.22775780337315041</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4148,28 +4344,38 @@
       <c r="J23" s="3">
         <v>0.67092602974066218</v>
       </c>
-      <c r="N23" s="2">
+      <c r="M23" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
+      <c r="N23" s="3">
+        <v>0.94775393662384277</v>
+      </c>
       <c r="O23" s="3">
+        <v>0.63138559963267504</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="S23" s="3">
         <v>0.1170426397950606</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>0.31211045796856152</v>
       </c>
-      <c r="S23" s="2">
-        <f t="shared" si="3"/>
+      <c r="W23" s="2">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="T23" s="3">
+      <c r="X23" s="3">
         <v>8.1284535638414881E-2</v>
       </c>
-      <c r="U23" s="3">
+      <c r="Y23" s="3">
         <v>0.2249461185399371</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4190,28 +4396,38 @@
       <c r="J24" s="3">
         <v>0.64708949151819772</v>
       </c>
-      <c r="N24" s="2">
+      <c r="M24" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="N24" s="3">
+        <v>0.94822046642134838</v>
+      </c>
       <c r="O24" s="3">
+        <v>0.69353925357839019</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="S24" s="3">
         <v>0.1170295318423671</v>
       </c>
-      <c r="P24" s="3">
+      <c r="T24" s="3">
         <v>0.30995721028871059</v>
       </c>
-      <c r="S24" s="2">
-        <f t="shared" si="3"/>
+      <c r="W24" s="2">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="T24" s="3">
+      <c r="X24" s="3">
         <v>8.2756239960734349E-2</v>
       </c>
-      <c r="U24" s="3">
+      <c r="Y24" s="3">
         <v>0.2251606878609029</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4232,28 +4448,38 @@
       <c r="J25" s="3">
         <v>0.62155754559636966</v>
       </c>
-      <c r="N25" s="2">
+      <c r="M25" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
+      <c r="N25" s="3">
+        <v>0.94931379914042635</v>
+      </c>
       <c r="O25" s="3">
+        <v>0.62472045871967519</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="S25" s="3">
         <v>0.1159687288999377</v>
       </c>
-      <c r="P25" s="3">
+      <c r="T25" s="3">
         <v>0.3253760936579731</v>
       </c>
-      <c r="S25" s="2">
-        <f t="shared" si="3"/>
+      <c r="W25" s="2">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="T25" s="3">
+      <c r="X25" s="3">
         <v>8.2789932906881553E-2</v>
       </c>
-      <c r="U25" s="3">
+      <c r="Y25" s="3">
         <v>0.22213151164887629</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4274,28 +4500,38 @@
       <c r="J26" s="3">
         <v>0.65686887250701631</v>
       </c>
-      <c r="N26" s="2">
+      <c r="M26" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
+      <c r="N26" s="3">
+        <v>0.94756894863843066</v>
+      </c>
       <c r="O26" s="3">
+        <v>0.66667210354049744</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="S26" s="3">
         <v>0.1188156322728026</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>0.30442573730136491</v>
       </c>
-      <c r="S26" s="2">
-        <f t="shared" si="3"/>
+      <c r="W26" s="2">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="T26" s="3">
+      <c r="X26" s="3">
         <v>8.1020708579676914E-2</v>
       </c>
-      <c r="U26" s="3">
+      <c r="Y26" s="3">
         <v>0.21822296232072161</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4316,28 +4552,38 @@
       <c r="J27" s="3">
         <v>0.65923397279026807</v>
       </c>
-      <c r="N27" s="2">
+      <c r="M27" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
+      <c r="N27" s="3">
+        <v>0.94927941087257661</v>
+      </c>
       <c r="O27" s="3">
+        <v>0.64131762871406184</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="S27" s="3">
         <v>0.11645404150536651</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>0.31879587372270279</v>
       </c>
-      <c r="S27" s="2">
-        <f t="shared" si="3"/>
+      <c r="W27" s="2">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="T27" s="3">
+      <c r="X27" s="3">
         <v>8.1844616988188068E-2</v>
       </c>
-      <c r="U27" s="3">
+      <c r="Y27" s="3">
         <v>0.22593443927629869</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4358,28 +4604,38 @@
       <c r="J28" s="3">
         <v>0.61945516198522554</v>
       </c>
-      <c r="N28" s="2">
+      <c r="M28" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="N28" s="3">
+        <v>0.9515021068214562</v>
+      </c>
       <c r="O28" s="3">
+        <v>0.63518254619664005</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="S28" s="3">
         <v>0.1157431253931244</v>
       </c>
-      <c r="P28" s="3">
+      <c r="T28" s="3">
         <v>0.31943845407734389</v>
       </c>
-      <c r="S28" s="2">
-        <f t="shared" si="3"/>
+      <c r="W28" s="2">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="T28" s="3">
+      <c r="X28" s="3">
         <v>8.2173262857609272E-2</v>
       </c>
-      <c r="U28" s="3">
+      <c r="Y28" s="3">
         <v>0.21537597522765939</v>
       </c>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4400,28 +4656,38 @@
       <c r="J29" s="3">
         <v>0.62156571497581037</v>
       </c>
-      <c r="N29" s="2">
+      <c r="M29" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
+      <c r="N29" s="3">
+        <v>0.95079891183675846</v>
+      </c>
       <c r="O29" s="3">
+        <v>0.62709149935300168</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="S29" s="3">
         <v>0.11867626165435349</v>
       </c>
-      <c r="P29" s="3">
+      <c r="T29" s="3">
         <v>0.3004675508345675</v>
       </c>
-      <c r="S29" s="2">
-        <f t="shared" si="3"/>
+      <c r="W29" s="2">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="T29" s="3">
+      <c r="X29" s="3">
         <v>8.3103598191252098E-2</v>
       </c>
-      <c r="U29" s="3">
+      <c r="Y29" s="3">
         <v>0.21896354956737649</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4442,28 +4708,38 @@
       <c r="J30" s="3">
         <v>0.66045691000948448</v>
       </c>
-      <c r="N30" s="2">
+      <c r="M30" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
+      <c r="N30" s="3">
+        <v>0.94856625043000042</v>
+      </c>
       <c r="O30" s="3">
+        <v>0.66241752296418577</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="S30" s="3">
         <v>0.1169732797623813</v>
       </c>
-      <c r="P30" s="3">
+      <c r="T30" s="3">
         <v>0.3032128295097809</v>
       </c>
-      <c r="S30" s="2">
-        <f t="shared" si="3"/>
+      <c r="W30" s="2">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="T30" s="3">
+      <c r="X30" s="3">
         <v>8.3415777895986545E-2</v>
       </c>
-      <c r="U30" s="3">
+      <c r="Y30" s="3">
         <v>0.21674506623377729</v>
       </c>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4484,28 +4760,38 @@
       <c r="J31" s="3">
         <v>0.63145951918685972</v>
       </c>
-      <c r="N31" s="2">
+      <c r="M31" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
+      <c r="N31" s="3">
+        <v>0.94916909696737206</v>
+      </c>
       <c r="O31" s="3">
+        <v>0.64024763553481212</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="S31" s="3">
         <v>0.1163453991392718</v>
       </c>
-      <c r="P31" s="3">
+      <c r="T31" s="3">
         <v>0.32424540470377</v>
       </c>
-      <c r="S31" s="2">
-        <f t="shared" si="3"/>
+      <c r="W31" s="2">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="T31" s="3">
+      <c r="X31" s="3">
         <v>8.199141602551098E-2</v>
       </c>
-      <c r="U31" s="3">
+      <c r="Y31" s="3">
         <v>0.22104538512261029</v>
       </c>
     </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4526,28 +4812,38 @@
       <c r="J32" s="3">
         <v>0.64038552491857614</v>
       </c>
-      <c r="N32" s="2">
+      <c r="M32" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
+      <c r="N32" s="3">
+        <v>0.95126590667618927</v>
+      </c>
       <c r="O32" s="3">
+        <v>0.63468850809580535</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="S32" s="3">
         <v>0.11644616566050631</v>
       </c>
-      <c r="P32" s="3">
+      <c r="T32" s="3">
         <v>0.31759852383906773</v>
       </c>
-      <c r="S32" s="2">
-        <f t="shared" si="3"/>
+      <c r="W32" s="2">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="T32" s="3">
+      <c r="X32" s="3">
         <v>8.1993014509199463E-2</v>
       </c>
-      <c r="U32" s="3">
+      <c r="Y32" s="3">
         <v>0.22662824984082541</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4568,28 +4864,38 @@
       <c r="J33" s="3">
         <v>0.65931224638203723</v>
       </c>
-      <c r="N33" s="2">
+      <c r="M33" s="2">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
+      <c r="N33" s="3">
+        <v>0.94801919875087393</v>
+      </c>
       <c r="O33" s="3">
+        <v>0.63510125010181251</v>
+      </c>
+      <c r="R33" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="S33" s="3">
         <v>0.11672428402742439</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>0.31902442548075549</v>
       </c>
-      <c r="S33" s="2">
-        <f t="shared" si="3"/>
+      <c r="W33" s="2">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="T33" s="3">
+      <c r="X33" s="3">
         <v>8.2309728202983323E-2</v>
       </c>
-      <c r="U33" s="3">
+      <c r="Y33" s="3">
         <v>0.22590961366287871</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4610,28 +4916,38 @@
       <c r="J34" s="3">
         <v>0.67417057297540284</v>
       </c>
-      <c r="N34" s="2">
+      <c r="M34" s="2">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="N34" s="3">
+        <v>0.94840673758908034</v>
+      </c>
       <c r="O34" s="3">
+        <v>0.63280636724155181</v>
+      </c>
+      <c r="R34" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="S34" s="3">
         <v>0.1169542614656538</v>
       </c>
-      <c r="P34" s="3">
+      <c r="T34" s="3">
         <v>0.32529631093429251</v>
       </c>
-      <c r="S34" s="2">
-        <f t="shared" si="3"/>
+      <c r="W34" s="2">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="T34" s="3">
+      <c r="X34" s="3">
         <v>8.1605759551974022E-2</v>
       </c>
-      <c r="U34" s="3">
+      <c r="Y34" s="3">
         <v>0.22718560267952981</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4652,28 +4968,38 @@
       <c r="J35" s="3">
         <v>0.67312707425646479</v>
       </c>
-      <c r="N35" s="2">
+      <c r="M35" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
+      <c r="N35" s="3">
+        <v>0.94897277585487816</v>
+      </c>
       <c r="O35" s="3">
+        <v>0.63271904361202025</v>
+      </c>
+      <c r="R35" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="S35" s="3">
         <v>0.1171298554338379</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>0.30882175983954802</v>
       </c>
-      <c r="S35" s="2">
-        <f t="shared" si="3"/>
+      <c r="W35" s="2">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="T35" s="3">
+      <c r="X35" s="3">
         <v>8.0857996013291869E-2</v>
       </c>
-      <c r="U35" s="3">
+      <c r="Y35" s="3">
         <v>0.23442192452121891</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4694,28 +5020,38 @@
       <c r="J36" s="3">
         <v>0.68213548431407811</v>
       </c>
-      <c r="N36" s="2">
+      <c r="M36" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
+      <c r="N36" s="3">
+        <v>0.94989485658998185</v>
+      </c>
       <c r="O36" s="3">
+        <v>0.62461230834730297</v>
+      </c>
+      <c r="R36" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="S36" s="3">
         <v>0.11464950412351831</v>
       </c>
-      <c r="P36" s="3">
+      <c r="T36" s="3">
         <v>0.31775017191690352</v>
       </c>
-      <c r="S36" s="2">
-        <f t="shared" si="3"/>
+      <c r="W36" s="2">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="T36" s="3">
+      <c r="X36" s="3">
         <v>8.268426659852357E-2</v>
       </c>
-      <c r="U36" s="3">
+      <c r="Y36" s="3">
         <v>0.214568109380808</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4736,28 +5072,38 @@
       <c r="J37" s="3">
         <v>0.66254879724570159</v>
       </c>
-      <c r="N37" s="2">
+      <c r="M37" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
+      <c r="N37" s="3">
+        <v>0.94907260950292616</v>
+      </c>
       <c r="O37" s="3">
+        <v>0.64995189227802974</v>
+      </c>
+      <c r="R37" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="S37" s="3">
         <v>0.1192575516029472</v>
       </c>
-      <c r="P37" s="3">
+      <c r="T37" s="3">
         <v>0.30416485167056451</v>
       </c>
-      <c r="S37" s="2">
-        <f t="shared" si="3"/>
+      <c r="W37" s="2">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="T37" s="3">
+      <c r="X37" s="3">
         <v>8.251939102818831E-2</v>
       </c>
-      <c r="U37" s="3">
+      <c r="Y37" s="3">
         <v>0.22075695663214909</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4778,28 +5124,38 @@
       <c r="J38" s="3">
         <v>0.62595058311489304</v>
       </c>
-      <c r="N38" s="2">
+      <c r="M38" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
+      <c r="N38" s="3">
+        <v>0.94705888623340939</v>
+      </c>
       <c r="O38" s="3">
+        <v>0.68579049132970538</v>
+      </c>
+      <c r="R38" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S38" s="3">
         <v>0.116326574624316</v>
       </c>
-      <c r="P38" s="3">
+      <c r="T38" s="3">
         <v>0.31101830390379742</v>
       </c>
-      <c r="S38" s="2">
-        <f t="shared" si="3"/>
+      <c r="W38" s="2">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="T38" s="3">
+      <c r="X38" s="3">
         <v>8.2179918254379064E-2</v>
       </c>
-      <c r="U38" s="3">
+      <c r="Y38" s="3">
         <v>0.22428725388674131</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4820,28 +5176,38 @@
       <c r="J39" s="3">
         <v>0.66168153920180028</v>
       </c>
-      <c r="N39" s="2">
+      <c r="M39" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
+      <c r="N39" s="3">
+        <v>0.94958304174087971</v>
+      </c>
       <c r="O39" s="3">
+        <v>0.65048634766205182</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="S39" s="3">
         <v>0.11657180545628169</v>
       </c>
-      <c r="P39" s="3">
+      <c r="T39" s="3">
         <v>0.32267682431196071</v>
       </c>
-      <c r="S39" s="2">
-        <f t="shared" si="3"/>
+      <c r="W39" s="2">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="T39" s="3">
+      <c r="X39" s="3">
         <v>8.434088398931025E-2</v>
       </c>
-      <c r="U39" s="3">
+      <c r="Y39" s="3">
         <v>0.2074504515956096</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4862,28 +5228,38 @@
       <c r="J40" s="3">
         <v>0.65877402667637974</v>
       </c>
-      <c r="N40" s="2">
+      <c r="M40" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
+      <c r="N40" s="3">
+        <v>0.94913214919623734</v>
+      </c>
       <c r="O40" s="3">
+        <v>0.65518227950724151</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="S40" s="3">
         <v>0.1175172251952756</v>
       </c>
-      <c r="P40" s="3">
+      <c r="T40" s="3">
         <v>0.29687029675893889</v>
       </c>
-      <c r="S40" s="2">
-        <f t="shared" si="3"/>
+      <c r="W40" s="2">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="T40" s="3">
+      <c r="X40" s="3">
         <v>8.1053474524131197E-2</v>
       </c>
-      <c r="U40" s="3">
+      <c r="Y40" s="3">
         <v>0.2234413775313043</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4904,28 +5280,38 @@
       <c r="J41" s="3">
         <v>0.60822670067763585</v>
       </c>
-      <c r="N41" s="2">
+      <c r="M41" s="2">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
+      <c r="N41" s="3">
+        <v>0.94985408030840934</v>
+      </c>
       <c r="O41" s="3">
+        <v>0.63504508315405128</v>
+      </c>
+      <c r="R41" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="S41" s="3">
         <v>0.1163592268528314</v>
       </c>
-      <c r="P41" s="3">
+      <c r="T41" s="3">
         <v>0.33429847081729869</v>
       </c>
-      <c r="S41" s="2">
-        <f t="shared" si="3"/>
+      <c r="W41" s="2">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="T41" s="3">
+      <c r="X41" s="3">
         <v>8.2970175312972821E-2</v>
       </c>
-      <c r="U41" s="3">
+      <c r="Y41" s="3">
         <v>0.21663735395507289</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4946,28 +5332,38 @@
       <c r="J42" s="3">
         <v>0.67173315570091452</v>
       </c>
-      <c r="N42" s="2">
+      <c r="M42" s="2">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
+      <c r="N42" s="3">
+        <v>0.94749047901522876</v>
+      </c>
       <c r="O42" s="3">
+        <v>0.65365982615793783</v>
+      </c>
+      <c r="R42" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="S42" s="3">
         <v>0.1171025183624865</v>
       </c>
-      <c r="P42" s="3">
+      <c r="T42" s="3">
         <v>0.30969333488200551</v>
       </c>
-      <c r="S42" s="2">
-        <f t="shared" si="3"/>
+      <c r="W42" s="2">
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="T42" s="3">
+      <c r="X42" s="3">
         <v>8.2391958007001886E-2</v>
       </c>
-      <c r="U42" s="3">
+      <c r="Y42" s="3">
         <v>0.2213559784908905</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4988,28 +5384,38 @@
       <c r="J43" s="3">
         <v>0.62366652977891113</v>
       </c>
-      <c r="N43" s="2">
+      <c r="M43" s="2">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
+      <c r="N43" s="3">
+        <v>0.94941351161572984</v>
+      </c>
       <c r="O43" s="3">
+        <v>0.64862303322456505</v>
+      </c>
+      <c r="R43" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="S43" s="3">
         <v>0.1160097829524077</v>
       </c>
-      <c r="P43" s="3">
+      <c r="T43" s="3">
         <v>0.31411067341506499</v>
       </c>
-      <c r="S43" s="2">
-        <f t="shared" si="3"/>
+      <c r="W43" s="2">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="T43" s="3">
+      <c r="X43" s="3">
         <v>8.22429721964546E-2</v>
       </c>
-      <c r="U43" s="3">
+      <c r="Y43" s="3">
         <v>0.22404168224471041</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5030,28 +5436,38 @@
       <c r="J44" s="3">
         <v>0.66709565694910156</v>
       </c>
-      <c r="N44" s="2">
+      <c r="M44" s="2">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
+      <c r="N44" s="3">
+        <v>0.94713217301416419</v>
+      </c>
       <c r="O44" s="3">
+        <v>0.66737832250117057</v>
+      </c>
+      <c r="R44" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S44" s="3">
         <v>0.1169842007493667</v>
       </c>
-      <c r="P44" s="3">
+      <c r="T44" s="3">
         <v>0.3195361200902328</v>
       </c>
-      <c r="S44" s="2">
-        <f t="shared" si="3"/>
+      <c r="W44" s="2">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="T44" s="3">
+      <c r="X44" s="3">
         <v>8.1921480878560951E-2</v>
       </c>
-      <c r="U44" s="3">
+      <c r="Y44" s="3">
         <v>0.22349437843421341</v>
       </c>
     </row>
-    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5072,28 +5488,38 @@
       <c r="J45" s="3">
         <v>0.65934202866357861</v>
       </c>
-      <c r="N45" s="2">
+      <c r="M45" s="2">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
+      <c r="N45" s="3">
+        <v>0.94955062022533965</v>
+      </c>
       <c r="O45" s="3">
+        <v>0.66217097171706796</v>
+      </c>
+      <c r="R45" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="S45" s="3">
         <v>0.1156723396802683</v>
       </c>
-      <c r="P45" s="3">
+      <c r="T45" s="3">
         <v>0.32980129419433779</v>
       </c>
-      <c r="S45" s="2">
-        <f t="shared" si="3"/>
+      <c r="W45" s="2">
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="T45" s="3">
+      <c r="X45" s="3">
         <v>8.265138180769839E-2</v>
       </c>
-      <c r="U45" s="3">
+      <c r="Y45" s="3">
         <v>0.2185944437724423</v>
       </c>
     </row>
-    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5114,28 +5540,38 @@
       <c r="J46" s="3">
         <v>0.66645550777495477</v>
       </c>
-      <c r="N46" s="2">
+      <c r="M46" s="2">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
+      <c r="N46" s="3">
+        <v>0.94945515644551282</v>
+      </c>
       <c r="O46" s="3">
+        <v>0.61884190231559644</v>
+      </c>
+      <c r="R46" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="S46" s="3">
         <v>0.1192893179719352</v>
       </c>
-      <c r="P46" s="3">
+      <c r="T46" s="3">
         <v>0.30232087969819471</v>
       </c>
-      <c r="S46" s="2">
-        <f t="shared" si="3"/>
+      <c r="W46" s="2">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="T46" s="3">
+      <c r="X46" s="3">
         <v>8.1484548138303636E-2</v>
       </c>
-      <c r="U46" s="3">
+      <c r="Y46" s="3">
         <v>0.2207778386553034</v>
       </c>
     </row>
-    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5156,28 +5592,38 @@
       <c r="J47" s="3">
         <v>0.6887499196782334</v>
       </c>
-      <c r="N47" s="2">
+      <c r="M47" s="2">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
+      <c r="N47" s="3">
+        <v>0.9495275389287956</v>
+      </c>
       <c r="O47" s="3">
+        <v>0.60652038798714258</v>
+      </c>
+      <c r="R47" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="S47" s="3">
         <v>0.1148393825765807</v>
       </c>
-      <c r="P47" s="3">
+      <c r="T47" s="3">
         <v>0.32812220282649351</v>
       </c>
-      <c r="S47" s="2">
-        <f t="shared" si="3"/>
+      <c r="W47" s="2">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="T47" s="3">
+      <c r="X47" s="3">
         <v>8.2216713090806512E-2</v>
       </c>
-      <c r="U47" s="3">
+      <c r="Y47" s="3">
         <v>0.2176719762422053</v>
       </c>
     </row>
-    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5198,28 +5644,38 @@
       <c r="J48" s="3">
         <v>0.67400105812749556</v>
       </c>
-      <c r="N48" s="2">
+      <c r="M48" s="2">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
+      <c r="N48" s="3">
+        <v>0.94950923407580956</v>
+      </c>
       <c r="O48" s="3">
+        <v>0.64211990133419727</v>
+      </c>
+      <c r="R48" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="S48" s="3">
         <v>0.1183066921327932</v>
       </c>
-      <c r="P48" s="3">
+      <c r="T48" s="3">
         <v>0.31167400605268719</v>
       </c>
-      <c r="S48" s="2">
-        <f t="shared" si="3"/>
+      <c r="W48" s="2">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="T48" s="3">
+      <c r="X48" s="3">
         <v>8.1229551364922783E-2</v>
       </c>
-      <c r="U48" s="3">
+      <c r="Y48" s="3">
         <v>0.22558488513671829</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5240,28 +5696,38 @@
       <c r="J49" s="3">
         <v>0.67184601578768866</v>
       </c>
-      <c r="N49" s="2">
+      <c r="M49" s="2">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
+      <c r="N49" s="3">
+        <v>0.9499083921940904</v>
+      </c>
       <c r="O49" s="3">
+        <v>0.67279707299537095</v>
+      </c>
+      <c r="R49" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="S49" s="3">
         <v>0.1181313888372665</v>
       </c>
-      <c r="P49" s="3">
+      <c r="T49" s="3">
         <v>0.2993634376661844</v>
       </c>
-      <c r="S49" s="2">
-        <f t="shared" si="3"/>
+      <c r="W49" s="2">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="T49" s="3">
+      <c r="X49" s="3">
         <v>8.1252399579726312E-2</v>
       </c>
-      <c r="U49" s="3">
+      <c r="Y49" s="3">
         <v>0.22627686644551931</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5282,28 +5748,38 @@
       <c r="J50" s="3">
         <v>0.6561462463634381</v>
       </c>
-      <c r="N50" s="2">
+      <c r="M50" s="2">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
+      <c r="N50" s="3">
+        <v>0.9486434871385766</v>
+      </c>
       <c r="O50" s="3">
+        <v>0.66064148960936353</v>
+      </c>
+      <c r="R50" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="S50" s="3">
         <v>0.11526373697328469</v>
       </c>
-      <c r="P50" s="3">
+      <c r="T50" s="3">
         <v>0.32834649138557082</v>
       </c>
-      <c r="S50" s="2">
-        <f t="shared" si="3"/>
+      <c r="W50" s="2">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="T50" s="3">
+      <c r="X50" s="3">
         <v>8.1913761806771665E-2</v>
       </c>
-      <c r="U50" s="3">
+      <c r="Y50" s="3">
         <v>0.22526419522709509</v>
       </c>
     </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5324,28 +5800,38 @@
       <c r="J51" s="3">
         <v>0.62565473218451251</v>
       </c>
-      <c r="N51" s="2">
+      <c r="M51" s="2">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
+      <c r="N51" s="3">
+        <v>0.95056760645959915</v>
+      </c>
       <c r="O51" s="3">
+        <v>0.63749684147528407</v>
+      </c>
+      <c r="R51" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="S51" s="3">
         <v>0.1167540156878106</v>
       </c>
-      <c r="P51" s="3">
+      <c r="T51" s="3">
         <v>0.31376120183153111</v>
       </c>
-      <c r="S51" s="2">
-        <f t="shared" si="3"/>
+      <c r="W51" s="2">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="T51" s="3">
+      <c r="X51" s="3">
         <v>8.2386580208719126E-2</v>
       </c>
-      <c r="U51" s="3">
+      <c r="Y51" s="3">
         <v>0.2183309121651047</v>
       </c>
     </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5366,28 +5852,38 @@
       <c r="J52" s="3">
         <v>0.67470635833973236</v>
       </c>
-      <c r="N52" s="2">
+      <c r="M52" s="2">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
+      <c r="N52" s="3">
+        <v>0.9491752781596875</v>
+      </c>
       <c r="O52" s="3">
+        <v>0.62266464437681956</v>
+      </c>
+      <c r="R52" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="S52" s="3">
         <v>0.115755029130523</v>
       </c>
-      <c r="P52" s="3">
+      <c r="T52" s="3">
         <v>0.316101255139209</v>
       </c>
-      <c r="S52" s="2">
-        <f t="shared" si="3"/>
+      <c r="W52" s="2">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="T52" s="3">
+      <c r="X52" s="3">
         <v>8.2620642193867777E-2</v>
       </c>
-      <c r="U52" s="3">
+      <c r="Y52" s="3">
         <v>0.2183574957645468</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5408,28 +5904,38 @@
       <c r="J53" s="3">
         <v>0.67214288983268911</v>
       </c>
-      <c r="N53" s="2">
+      <c r="M53" s="2">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
+      <c r="N53" s="3">
+        <v>0.95023491224099565</v>
+      </c>
       <c r="O53" s="3">
+        <v>0.6234164050981541</v>
+      </c>
+      <c r="R53" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="S53" s="3">
         <v>0.1179774430612817</v>
       </c>
-      <c r="P53" s="3">
+      <c r="T53" s="3">
         <v>0.31719008723074549</v>
       </c>
-      <c r="S53" s="2">
-        <f t="shared" si="3"/>
+      <c r="W53" s="2">
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="T53" s="3">
+      <c r="X53" s="3">
         <v>8.317294504866625E-2</v>
       </c>
-      <c r="U53" s="3">
+      <c r="Y53" s="3">
         <v>0.2208504624832697</v>
       </c>
     </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5450,28 +5956,38 @@
       <c r="J54" s="3">
         <v>0.66955852923017856</v>
       </c>
-      <c r="N54" s="2">
+      <c r="M54" s="2">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
+      <c r="N54" s="3">
+        <v>0.94889179727122863</v>
+      </c>
       <c r="O54" s="3">
+        <v>0.67125972957766566</v>
+      </c>
+      <c r="R54" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S54" s="3">
         <v>0.11672725996177399</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>0.31912823714411509</v>
       </c>
-      <c r="S54" s="2">
-        <f t="shared" si="3"/>
+      <c r="W54" s="2">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="T54" s="3">
+      <c r="X54" s="3">
         <v>8.2903110305879796E-2</v>
       </c>
-      <c r="U54" s="3">
+      <c r="Y54" s="3">
         <v>0.22718864352021659</v>
       </c>
     </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
@@ -5494,30 +6010,41 @@
         <f>AVERAGE(J5:J54)</f>
         <v>0.65279081267306827</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="N56" s="3">
+        <f>AVERAGE(N5:N54)</f>
+        <v>0.94913546384240977</v>
       </c>
       <c r="O56" s="3">
         <f>AVERAGE(O5:O54)</f>
+        <v>0.64518888293192622</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S56" s="3">
+        <f>AVERAGE(S5:S54)</f>
         <v>0.11699947269078689</v>
-      </c>
-      <c r="P56" s="3">
-        <f>AVERAGE(P5:P54)</f>
-        <v>0.31308656886454217</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="T56" s="3">
         <f>AVERAGE(T5:T54)</f>
+        <v>0.31308656886454217</v>
+      </c>
+      <c r="W56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X56" s="3">
+        <f>AVERAGE(X5:X54)</f>
         <v>8.2193910513009422E-2</v>
       </c>
-      <c r="U56" s="3">
-        <f>AVERAGE(U5:U54)</f>
+      <c r="Y56" s="3">
+        <f>AVERAGE(Y5:Y54)</f>
         <v>0.22170521049141068</v>
       </c>
     </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -5540,26 +6067,37 @@
         <f>_xlfn.STDEV.S(J5:J54)</f>
         <v>2.2180145922211052E-2</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="N57" s="3">
+        <f>_xlfn.STDEV.S(N5:N54)</f>
+        <v>1.0061875462076956E-3</v>
       </c>
       <c r="O57" s="3">
         <f>_xlfn.STDEV.S(O5:O54)</f>
+        <v>2.0441479091949693E-2</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S57" s="3">
+        <f>_xlfn.STDEV.S(S5:S54)</f>
         <v>1.0573885580347465E-3</v>
-      </c>
-      <c r="P57" s="3">
-        <f>_xlfn.STDEV.S(P5:P54)</f>
-        <v>9.2969639757002707E-3</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="T57" s="3">
         <f>_xlfn.STDEV.S(T5:T54)</f>
+        <v>9.2969639757002707E-3</v>
+      </c>
+      <c r="W57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X57" s="3">
+        <f>_xlfn.STDEV.S(X5:X54)</f>
         <v>6.7919170904217252E-4</v>
       </c>
-      <c r="U57" s="3">
-        <f>_xlfn.STDEV.S(U5:U54)</f>
+      <c r="Y57" s="3">
+        <f>_xlfn.STDEV.S(Y5:Y54)</f>
         <v>5.2278534035366938E-3</v>
       </c>
     </row>
@@ -5573,7 +6111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="error (soc-eco + dem)" sheetId="4" r:id="rId1"/>
-    <sheet name="error (soc-eco)" sheetId="1" r:id="rId2"/>
+    <sheet name="error (soc-eco)" sheetId="1" r:id="rId1"/>
+    <sheet name="error (soc-eco + dem)" sheetId="4" r:id="rId2"/>
     <sheet name="error (dem)" sheetId="3" r:id="rId3"/>
     <sheet name="signif" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
   <si>
     <t>train (R2)</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (conflict-21, top300, formodel-2, norm11).csv)</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
   </si>
 </sst>
 </file>
@@ -2620,6 +2623,3368 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:AG57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AE2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.93263881464523712</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.56156889627929463</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.95126729923176923</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.64275982298876144</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.5729003942191212</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.43373143217207027</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.9483826461959044</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.62424276749922858</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.11629864236609461</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>0.31224638203978711</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>8.1769613043519596E-2</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.2185752247090387</v>
+      </c>
+    </row>
+    <row r="6" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <f>C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.92995863383395361</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.57750461373675044</v>
+      </c>
+      <c r="H6" s="2">
+        <f>H5+1</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.95208657287749376</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.629469090151622</v>
+      </c>
+      <c r="M6" s="2">
+        <f>M5+1</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.57014393347583381</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.43618552280823431</v>
+      </c>
+      <c r="U6" s="2">
+        <f>U5+1</f>
+        <v>2</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.95014181806151399</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.65165738632552261</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>Z5+1</f>
+        <v>2</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0.1168169117142514</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0.31273421380824667</v>
+      </c>
+      <c r="AE6" s="2">
+        <f>AE5+1</f>
+        <v>2</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>8.2015583435031403E-2</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0.228059986916406</v>
+      </c>
+    </row>
+    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:C54" si="0">C6+1</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.9295856483224525</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.60832402864298207</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7:H54" si="1">H6+1</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.95200789112485118</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.66944149512898354</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M54" si="2">M6+1</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.56924440784655839</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.44454614706989459</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" ref="U7:U54" si="3">U6+1</f>
+        <v>3</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.94851326772255407</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.6671959229934028</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7:Z54" si="4">Z6+1</f>
+        <v>3</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0.1179096055996649</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>0.29563574077515559</v>
+      </c>
+      <c r="AE7" s="2">
+        <f t="shared" ref="AE7:AE54" si="5">AE6+1</f>
+        <v>3</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>8.2242710734438632E-2</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>0.2149826377335019</v>
+      </c>
+    </row>
+    <row r="8" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.93471818104097915</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.517191287337742</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.95055672753182496</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.68654267551945458</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.54245416236916832</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.48360989825138317</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.94974359082717996</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.62610975868051677</v>
+      </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.1172464566941234</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0.30646210688982789</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>8.1549176794793454E-2</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>0.22654039805285689</v>
+      </c>
+    </row>
+    <row r="9" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.93270180860473195</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.56151875036614585</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.95214389810174382</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.66641103683849501</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.5647076339167596</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.43857857430598168</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.95025250774461234</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0.62707359060358336</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0.11815620674558699</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>0.30697978105111479</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>8.1536264136596287E-2</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>0.22159406681404359</v>
+      </c>
+    </row>
+    <row r="10" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.93679827647234271</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.43696645484385083</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.95059898373151319</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.6532349561766656</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.56519497361366344</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.49003408102072449</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0.94796415952673541</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.67429355017169756</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0.1169240315092835</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>0.30980523001355198</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>8.1823070141145773E-2</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0.22855806711828469</v>
+      </c>
+    </row>
+    <row r="11" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.93194966234494203</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.57265957919999833</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.95177664218538671</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.65712144013742768</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.57312800073621273</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.46137825217904482</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0.94938913654931145</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.64531580148263057</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0.1162986700492049</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>0.32155039855673279</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>8.1705863850174379E-2</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>0.21721269051565181</v>
+      </c>
+    </row>
+    <row r="12" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.93323059300511157</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.52507057887809827</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.95211229900569394</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.62811490133172454</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.56548886907172435</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.46364370417685119</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0.94858419153504725</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.62639699780051294</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0.11776354951009541</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0.31911434022278012</v>
+      </c>
+      <c r="AE12" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>8.2664068657790857E-2</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0.21594411354817489</v>
+      </c>
+    </row>
+    <row r="13" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.93250116121323223</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.57498992624395417</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.95288449881370985</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.64387148219708357</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.56569296433728455</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.471774283102813</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.94893636270296566</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.66640684057230692</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0.1156787760033966</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0.31468487648743998</v>
+      </c>
+      <c r="AE13" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>8.2246020605867914E-2</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0.22114865492312391</v>
+      </c>
+    </row>
+    <row r="14" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.93511946626769316</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.51942288580286633</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.95055984880650379</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.67642291136019894</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.56131778126338294</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.49331047699419939</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0.95029434903033028</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.63156679502402269</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0.1178000635324878</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0.30004516193868969</v>
+      </c>
+      <c r="AE14" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>8.2762723030266369E-2</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>0.22181721225600909</v>
+      </c>
+    </row>
+    <row r="15" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.93506677157241735</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.47860647302880438</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.9516263438681829</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.66143118076609753</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.5599312129266768</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.47549414611864671</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0.9484002184287218</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.64802503096297781</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0.1171383818317885</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0.30811545296515908</v>
+      </c>
+      <c r="AE15" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>8.3102819747522774E-2</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>0.2112029915425882</v>
+      </c>
+    </row>
+    <row r="16" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.93555356209022267</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.47789564309637511</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.95259019175247539</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.67018187713441957</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.56888447789891305</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.46157035683934428</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0.94989129262824368</v>
+      </c>
+      <c r="W16" s="3">
+        <v>0.63875755894633546</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.1171186160910848</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0.31103563353080099</v>
+      </c>
+      <c r="AE16" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>8.2339487334254086E-2</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>0.2260417239367816</v>
+      </c>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.93378791937349992</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.5078787486361328</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.9527039059927398</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.62043554495858433</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.55481490217184271</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.43935771227128562</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0.9492074765160603</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0.64812073080130728</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0.1171742453010904</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>0.31140957698377753</v>
+      </c>
+      <c r="AE17" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>8.1596317207806829E-2</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>0.23112952553723701</v>
+      </c>
+    </row>
+    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.93471111627720604</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.51580996070666396</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.9516180665632118</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.65092072927518974</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.56113394375674164</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.51816536686718728</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0.94938848879038751</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.66775707346954982</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0.1164586784263299</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0.30973552394199477</v>
+      </c>
+      <c r="AE18" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>8.2632752639061433E-2</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0.21940649077523819</v>
+      </c>
+    </row>
+    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.93533900410590587</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.50795792173758669</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.95206163751220563</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0.63727055500260632</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.55820316769467215</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.5041717052889565</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.94881345044029819</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.61746215094387957</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0.1177906235918996</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0.30600599996569089</v>
+      </c>
+      <c r="AE19" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>8.1650285344827836E-2</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0.22222848595890529</v>
+      </c>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.93193469003019114</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.50167719590003501</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.94846654594236934</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0.67338195669841994</v>
+      </c>
+      <c r="M20" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.55378810396872091</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0.47859722758407591</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0.95006313957131971</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.61314988818603333</v>
+      </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0.11747927165115141</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0.31312975008720212</v>
+      </c>
+      <c r="AE20" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>8.2300244262586322E-2</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0.2131942670611168</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.93118987342570148</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.52781938819035079</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.95305584171554325</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.6026267589083667</v>
+      </c>
+      <c r="M21" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.55925898134961838</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.49724186270127962</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0.94841670021682811</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.68723334489831167</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.1170660597063146</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0.31892808825715768</v>
+      </c>
+      <c r="AE21" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>8.2010057078785031E-2</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>0.22226383573189001</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.93418085511409044</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.52720049996956586</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.95179639459008969</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.61387782259502877</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.5700450489036335</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.42430837265763438</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0.94745703865263975</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.65213060930063704</v>
+      </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0.1190566414304584</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0.29201141261772301</v>
+      </c>
+      <c r="AE22" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>8.2465725949413093E-2</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0.22775780337315041</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.93049973219886795</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.57702293203320476</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.95007276348837943</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.67092602974066218</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.56510457249046109</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0.50059267747274117</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0.94775393662384277</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.63138559963267504</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0.1170426397950606</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0.31211045796856152</v>
+      </c>
+      <c r="AE23" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>8.1284535638414881E-2</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0.2249461185399371</v>
+      </c>
+    </row>
+    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.93413281744519472</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.56586971018071774</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.95252487816233222</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.64708949151819772</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.5605271102695718</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.48448371170967042</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0.94822046642134838</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.69353925357839019</v>
+      </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0.1170295318423671</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0.30995721028871059</v>
+      </c>
+      <c r="AE24" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>8.2756239960734349E-2</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0.2251606878609029</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.93196644348340651</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.58594064860737916</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0.95156988259420594</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.62155754559636966</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0.56943036020671678</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0.45327508196252347</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0.94931379914042635</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0.62472045871967519</v>
+      </c>
+      <c r="Z25" s="2">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0.1159687288999377</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0.3253760936579731</v>
+      </c>
+      <c r="AE25" s="2">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>8.2789932906881553E-2</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0.22213151164887629</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.9349416306825481</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.52327771543121337</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0.95061182091821284</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.65686887250701631</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.54926529749374287</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0.48954710522503969</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0.94756894863843066</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0.66667210354049744</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0.1188156322728026</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0.30442573730136491</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>8.1020708579676914E-2</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>0.21822296232072161</v>
+      </c>
+    </row>
+    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.93465365204112694</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.51881384575003675</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.95070443132987481</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.65923397279026807</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0.54962587441459609</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0.52952299768277711</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0.94927941087257661</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0.64131762871406184</v>
+      </c>
+      <c r="Z27" s="2">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0.11645404150536651</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0.31879587372270279</v>
+      </c>
+      <c r="AE27" s="2">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>8.1844616988188068E-2</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>0.22593443927629869</v>
+      </c>
+    </row>
+    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.93403251358938688</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.54447087613979428</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0.95381421557342827</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.61945516198522554</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0.56256994786424719</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.49482280750057311</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0.9515021068214562</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0.63518254619664005</v>
+      </c>
+      <c r="Z28" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0.1157431253931244</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0.31943845407734389</v>
+      </c>
+      <c r="AE28" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>8.2173262857609272E-2</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0.21537597522765939</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.93348132922816696</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.540155014366548</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.95131418094314424</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.62156571497581037</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.55872190267000232</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.50745130933313165</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0.95079891183675846</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0.62709149935300168</v>
+      </c>
+      <c r="Z29" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0.11867626165435349</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0.3004675508345675</v>
+      </c>
+      <c r="AE29" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>8.3103598191252098E-2</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0.21896354956737649</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.93229441693593562</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.55574976160948963</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.95147010123595988</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.66045691000948448</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.58024609343143685</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0.4549042117983535</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0.94856625043000042</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0.66241752296418577</v>
+      </c>
+      <c r="Z30" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0.1169732797623813</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0.3032128295097809</v>
+      </c>
+      <c r="AE30" s="2">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>8.3415777895986545E-2</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0.21674506623377729</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.93213551916304493</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.57913550999125896</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0.95224297206722253</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.63145951918685972</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.55112998792645951</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0.53296804194773317</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0.94916909696737206</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0.64024763553481212</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0.1163453991392718</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0.32424540470377</v>
+      </c>
+      <c r="AE31" s="2">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>8.199141602551098E-2</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0.22104538512261029</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.93683955576202083</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.46533108661005268</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.95222040190024693</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.64038552491857614</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.56136621315304436</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0.48908718548259972</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0.95126590667618927</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0.63468850809580535</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0.11644616566050631</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0.31759852383906773</v>
+      </c>
+      <c r="AE32" s="2">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>8.1993014509199463E-2</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0.22662824984082541</v>
+      </c>
+    </row>
+    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.93622872283596204</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0.53001236721703682</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.95095638666022997</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.65931224638203723</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.55816565108809524</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0.49587274033729639</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0.94801919875087393</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0.63510125010181251</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0.11672428402742439</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0.31902442548075549</v>
+      </c>
+      <c r="AE33" s="2">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>8.2309728202983323E-2</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>0.22590961366287871</v>
+      </c>
+    </row>
+    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.93418677295100128</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.49760249069208312</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0.94988532577884655</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0.67417057297540284</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.55260648880568741</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.51932386991672441</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0.94840673758908034</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0.63280636724155181</v>
+      </c>
+      <c r="Z34" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0.1169542614656538</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0.32529631093429251</v>
+      </c>
+      <c r="AE34" s="2">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>8.1605759551974022E-2</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0.22718560267952981</v>
+      </c>
+    </row>
+    <row r="35" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.93669604220771152</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.48137648398110922</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0.95016447265366044</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0.67312707425646479</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.55800231360741881</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0.48655174627056319</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0.94897277585487816</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0.63271904361202025</v>
+      </c>
+      <c r="Z35" s="2">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0.1171298554338379</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0.30882175983954802</v>
+      </c>
+      <c r="AE35" s="2">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>8.0857996013291869E-2</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>0.23442192452121891</v>
+      </c>
+    </row>
+    <row r="36" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.93668554591666164</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.50102505212693771</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.9491562155757538</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0.68213548431407811</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.57172497230820551</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.46688614864403172</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="V36" s="3">
+        <v>0.94989485658998185</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0.62461230834730297</v>
+      </c>
+      <c r="Z36" s="2">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0.11464950412351831</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>0.31775017191690352</v>
+      </c>
+      <c r="AE36" s="2">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>8.268426659852357E-2</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>0.214568109380808</v>
+      </c>
+    </row>
+    <row r="37" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.93096750356178282</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.60075066336509719</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.95158952902300997</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0.66254879724570159</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.55690763968236379</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.49306054402245031</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="V37" s="3">
+        <v>0.94907260950292616</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0.64995189227802974</v>
+      </c>
+      <c r="Z37" s="2">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0.1192575516029472</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>0.30416485167056451</v>
+      </c>
+      <c r="AE37" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>8.251939102818831E-2</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>0.22075695663214909</v>
+      </c>
+    </row>
+    <row r="38" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.93409511612380902</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.49445800369783222</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.95290057406117912</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0.62595058311489304</v>
+      </c>
+      <c r="M38" s="2">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.56852446262164502</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.46651930880157372</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="V38" s="3">
+        <v>0.94705888623340939</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0.68579049132970538</v>
+      </c>
+      <c r="Z38" s="2">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0.116326574624316</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>0.31101830390379742</v>
+      </c>
+      <c r="AE38" s="2">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>8.2179918254379064E-2</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>0.22428725388674131</v>
+      </c>
+    </row>
+    <row r="39" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.9329979629458488</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.53382575118169018</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.95144950224021918</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.66168153920180028</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.56115963175501893</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.48126092422625771</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="V39" s="3">
+        <v>0.94958304174087971</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0.65048634766205182</v>
+      </c>
+      <c r="Z39" s="2">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>0.11657180545628169</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>0.32267682431196071</v>
+      </c>
+      <c r="AE39" s="2">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>8.434088398931025E-2</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>0.2074504515956096</v>
+      </c>
+    </row>
+    <row r="40" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.93492244237927935</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.5154512280322554</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.95085872281884654</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.65877402667637974</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.56560546594344041</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0.44550476415424028</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0.94913214919623734</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0.65518227950724151</v>
+      </c>
+      <c r="Z40" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>0.1175172251952756</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>0.29687029675893889</v>
+      </c>
+      <c r="AE40" s="2">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>8.1053474524131197E-2</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>0.2234413775313043</v>
+      </c>
+    </row>
+    <row r="41" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.93335820858374907</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.51779403398601831</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.95380200265216897</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.60822670067763585</v>
+      </c>
+      <c r="M41" s="2">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.55963266544690693</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0.51037081587766808</v>
+      </c>
+      <c r="U41" s="2">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0.94985408030840934</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0.63504508315405128</v>
+      </c>
+      <c r="Z41" s="2">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0.1163592268528314</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0.33429847081729869</v>
+      </c>
+      <c r="AE41" s="2">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>8.2970175312972821E-2</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>0.21663735395507289</v>
+      </c>
+    </row>
+    <row r="42" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.93222188335908718</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0.53519174034815009</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.95067508486409658</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.67173315570091452</v>
+      </c>
+      <c r="M42" s="2">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.56085220176285255</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.47270852034382588</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0.94749047901522876</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0.65365982615793783</v>
+      </c>
+      <c r="Z42" s="2">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0.1171025183624865</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0.30969333488200551</v>
+      </c>
+      <c r="AE42" s="2">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>8.2391958007001886E-2</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>0.2213559784908905</v>
+      </c>
+    </row>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.93112826290425421</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.59889946506826153</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.95344411522028072</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.62366652977891113</v>
+      </c>
+      <c r="M43" s="2">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.56119179626214155</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.47661244911387968</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0.94941351161572984</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0.64862303322456505</v>
+      </c>
+      <c r="Z43" s="2">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0.1160097829524077</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0.31411067341506499</v>
+      </c>
+      <c r="AE43" s="2">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>8.22429721964546E-2</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>0.22404168224471041</v>
+      </c>
+    </row>
+    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.93620238154020852</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.50785466663418022</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.95002307317341317</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.66709565694910156</v>
+      </c>
+      <c r="M44" s="2">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.54892211022858839</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.52029955105430714</v>
+      </c>
+      <c r="U44" s="2">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0.94713217301416419</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0.66737832250117057</v>
+      </c>
+      <c r="Z44" s="2">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0.1169842007493667</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0.3195361200902328</v>
+      </c>
+      <c r="AE44" s="2">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>8.1921480878560951E-2</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>0.22349437843421341</v>
+      </c>
+    </row>
+    <row r="45" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.93572370163635388</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.52349653196813595</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.95090755711542396</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.65934202866357861</v>
+      </c>
+      <c r="M45" s="2">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0.56491109036266129</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.49115575136044831</v>
+      </c>
+      <c r="U45" s="2">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0.94955062022533965</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0.66217097171706796</v>
+      </c>
+      <c r="Z45" s="2">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0.1156723396802683</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0.32980129419433779</v>
+      </c>
+      <c r="AE45" s="2">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>8.265138180769839E-2</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>0.2185944437724423</v>
+      </c>
+    </row>
+    <row r="46" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.93236055104093518</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.55200299023827715</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.95130469084444014</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.66645550777495477</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.5690967802681195</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.48108643836119352</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0.94945515644551282</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0.61884190231559644</v>
+      </c>
+      <c r="Z46" s="2">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0.1192893179719352</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0.30232087969819471</v>
+      </c>
+      <c r="AE46" s="2">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>8.1484548138303636E-2</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>0.2207778386553034</v>
+      </c>
+    </row>
+    <row r="47" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.93502960562289261</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0.49518945239806239</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.95036037549560126</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0.6887499196782334</v>
+      </c>
+      <c r="M47" s="2">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.55915574224950459</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0.49276078268304729</v>
+      </c>
+      <c r="U47" s="2">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0.9495275389287956</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0.60652038798714258</v>
+      </c>
+      <c r="Z47" s="2">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0.1148393825765807</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0.32812220282649351</v>
+      </c>
+      <c r="AE47" s="2">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>8.2216713090806512E-2</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0.2176719762422053</v>
+      </c>
+    </row>
+    <row r="48" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.93555439102520521</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.50969734232608466</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.95115894732868977</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0.67400105812749556</v>
+      </c>
+      <c r="M48" s="2">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.55900491735508084</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0.50325636406513996</v>
+      </c>
+      <c r="U48" s="2">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0.94950923407580956</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0.64211990133419727</v>
+      </c>
+      <c r="Z48" s="2">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0.1183066921327932</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0.31167400605268719</v>
+      </c>
+      <c r="AE48" s="2">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>8.1229551364922783E-2</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>0.22558488513671829</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.93424588829822997</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0.52838751723193189</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.95142097669402881</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.67184601578768866</v>
+      </c>
+      <c r="M49" s="2">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.56987359946145311</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0.45790968959728179</v>
+      </c>
+      <c r="U49" s="2">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0.9499083921940904</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0.67279707299537095</v>
+      </c>
+      <c r="Z49" s="2">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0.1181313888372665</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0.2993634376661844</v>
+      </c>
+      <c r="AE49" s="2">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>8.1252399579726312E-2</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>0.22627686644551931</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.9318078711926171</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.55554552528572498</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.95160578297007814</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0.6561462463634381</v>
+      </c>
+      <c r="M50" s="2">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.57084586930465497</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0.44089958672100488</v>
+      </c>
+      <c r="U50" s="2">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0.9486434871385766</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0.66064148960936353</v>
+      </c>
+      <c r="Z50" s="2">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0.11526373697328469</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0.32834649138557082</v>
+      </c>
+      <c r="AE50" s="2">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>8.1913761806771665E-2</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0.22526419522709509</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.93359166653116532</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0.53308548633171493</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.95131034032703898</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0.62565473218451251</v>
+      </c>
+      <c r="M51" s="2">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.56143080886473029</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0.50041944569344787</v>
+      </c>
+      <c r="U51" s="2">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0.95056760645959915</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0.63749684147528407</v>
+      </c>
+      <c r="Z51" s="2">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0.1167540156878106</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0.31376120183153111</v>
+      </c>
+      <c r="AE51" s="2">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>8.2386580208719126E-2</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>0.2183309121651047</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.93352893423435634</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.51781827477997133</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0.95049903576942163</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0.67470635833973236</v>
+      </c>
+      <c r="M52" s="2">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.57169128734075436</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0.44325058191149919</v>
+      </c>
+      <c r="U52" s="2">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0.9491752781596875</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0.62266464437681956</v>
+      </c>
+      <c r="Z52" s="2">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0.115755029130523</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0.316101255139209</v>
+      </c>
+      <c r="AE52" s="2">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>8.2620642193867777E-2</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>0.2183574957645468</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.93488696602904964</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0.52126617266258102</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0.95242716781327663</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0.67214288983268911</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0.57062196426779366</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0.46956736524243903</v>
+      </c>
+      <c r="U53" s="2">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0.95023491224099565</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0.6234164050981541</v>
+      </c>
+      <c r="Z53" s="2">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0.1179774430612817</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0.31719008723074549</v>
+      </c>
+      <c r="AE53" s="2">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>8.317294504866625E-2</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>0.2208504624832697</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.93434855163014841</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.51138770316234061</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.95210996402469006</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0.66955852923017856</v>
+      </c>
+      <c r="M54" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0.56712552347473832</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0.47284169948414362</v>
+      </c>
+      <c r="U54" s="2">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0.94889179727122863</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0.67125972957766566</v>
+      </c>
+      <c r="Z54" s="2">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0.11672725996177399</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0.31912823714411509</v>
+      </c>
+      <c r="AE54" s="2">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>8.2903110305879796E-2</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>0.22718864352021659</v>
+      </c>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <f>AVERAGE(D5:D54)</f>
+        <v>0.93373425241639818</v>
+      </c>
+      <c r="E56" s="3">
+        <f>AVERAGE(E5:E54)</f>
+        <v>0.53035897752064753</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="3">
+        <f>AVERAGE(I5:I54)</f>
+        <v>0.95148938161329388</v>
+      </c>
+      <c r="J56" s="3">
+        <f>AVERAGE(J5:J54)</f>
+        <v>0.65279081267306827</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N56" s="3">
+        <f>AVERAGE(N5:N54)</f>
+        <v>0.56262746603805336</v>
+      </c>
+      <c r="O56" s="3">
+        <f>AVERAGE(O5:O54)</f>
+        <v>0.47880946680814424</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V56" s="3">
+        <f>AVERAGE(V5:V54)</f>
+        <v>0.94913546384240977</v>
+      </c>
+      <c r="W56" s="3">
+        <f>AVERAGE(W5:W54)</f>
+        <v>0.64518888293192622</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA56" s="3">
+        <f>AVERAGE(AA5:AA54)</f>
+        <v>0.11699947269078689</v>
+      </c>
+      <c r="AB56" s="3">
+        <f>AVERAGE(AB5:AB54)</f>
+        <v>0.31308656886454217</v>
+      </c>
+      <c r="AE56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF56" s="3">
+        <f>AVERAGE(AF5:AF54)</f>
+        <v>8.2193910513009422E-2</v>
+      </c>
+      <c r="AG56" s="3">
+        <f>AVERAGE(AG5:AG54)</f>
+        <v>0.22170521049141068</v>
+      </c>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
+        <f>_xlfn.STDEV.S(D5:D54)</f>
+        <v>1.8378510505159906E-3</v>
+      </c>
+      <c r="E57" s="3">
+        <f>_xlfn.STDEV.S(E5:E54)</f>
+        <v>3.6264196769483045E-2</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
+        <f>_xlfn.STDEV.S(I5:I54)</f>
+        <v>1.109177074425751E-3</v>
+      </c>
+      <c r="J57" s="3">
+        <f>_xlfn.STDEV.S(J5:J54)</f>
+        <v>2.2180145922211052E-2</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3">
+        <f>_xlfn.STDEV.S(N5:N54)</f>
+        <v>7.4995626254446349E-3</v>
+      </c>
+      <c r="O57" s="3">
+        <f>_xlfn.STDEV.S(O5:O54)</f>
+        <v>2.6543667788147089E-2</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V57" s="3">
+        <f>_xlfn.STDEV.S(V5:V54)</f>
+        <v>1.0061875462076956E-3</v>
+      </c>
+      <c r="W57" s="3">
+        <f>_xlfn.STDEV.S(W5:W54)</f>
+        <v>2.0441479091949693E-2</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA57" s="3">
+        <f>_xlfn.STDEV.S(AA5:AA54)</f>
+        <v>1.0573885580347465E-3</v>
+      </c>
+      <c r="AB57" s="3">
+        <f>_xlfn.STDEV.S(AB5:AB54)</f>
+        <v>9.2969639757002707E-3</v>
+      </c>
+      <c r="AE57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF57" s="3">
+        <f>_xlfn.STDEV.S(AF5:AF54)</f>
+        <v>6.7919170904217252E-4</v>
+      </c>
+      <c r="AG57" s="3">
+        <f>_xlfn.STDEV.S(AG5:AG54)</f>
+        <v>5.2278534035366938E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E58"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -3280,2830 +6645,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:Y57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="15" max="15" width="10.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="R2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="W2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.93263881464523712</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.56156889627929463</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.95126729923176923</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.64275982298876144</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.9483826461959044</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.62424276749922858</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0.11629864236609461</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0.31224638203978711</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3">
-        <v>8.1769613043519596E-2</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0.2185752247090387</v>
-      </c>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
-        <f>C5+1</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.92995863383395361</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.57750461373675044</v>
-      </c>
-      <c r="H6" s="2">
-        <f>H5+1</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.95208657287749376</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.629469090151622</v>
-      </c>
-      <c r="M6" s="2">
-        <f>M5+1</f>
-        <v>2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0.95014181806151399</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.65165738632552261</v>
-      </c>
-      <c r="R6" s="2">
-        <f>R5+1</f>
-        <v>2</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0.1168169117142514</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0.31273421380824667</v>
-      </c>
-      <c r="W6" s="2">
-        <f>W5+1</f>
-        <v>2</v>
-      </c>
-      <c r="X6" s="3">
-        <v>8.2015583435031403E-2</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0.228059986916406</v>
-      </c>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
-        <f t="shared" ref="C7:C54" si="0">C6+1</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.9295856483224525</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.60832402864298207</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" ref="H7:H54" si="1">H6+1</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.95200789112485118</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.66944149512898354</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" ref="M7:M54" si="2">M6+1</f>
-        <v>3</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.94851326772255407</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0.6671959229934028</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7:R54" si="3">R6+1</f>
-        <v>3</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0.1179096055996649</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0.29563574077515559</v>
-      </c>
-      <c r="W7" s="2">
-        <f t="shared" ref="W7:W54" si="4">W6+1</f>
-        <v>3</v>
-      </c>
-      <c r="X7" s="3">
-        <v>8.2242710734438632E-2</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0.2149826377335019</v>
-      </c>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.93471818104097915</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.517191287337742</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0.95055672753182496</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.68654267551945458</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0.94974359082717996</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.62610975868051677</v>
-      </c>
-      <c r="R8" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0.1172464566941234</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0.30646210688982789</v>
-      </c>
-      <c r="W8" s="2">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
-        <v>8.1549176794793454E-2</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0.22654039805285689</v>
-      </c>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.93270180860473195</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.56151875036614585</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0.95214389810174382</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.66641103683849501</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0.95025250774461234</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.62707359060358336</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0.11815620674558699</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0.30697978105111479</v>
-      </c>
-      <c r="W9" s="2">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X9" s="3">
-        <v>8.1536264136596287E-2</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0.22159406681404359</v>
-      </c>
-    </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.93679827647234271</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.43696645484385083</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.95059898373151319</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0.6532349561766656</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0.94796415952673541</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.67429355017169756</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0.1169240315092835</v>
-      </c>
-      <c r="T10" s="3">
-        <v>0.30980523001355198</v>
-      </c>
-      <c r="W10" s="2">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="X10" s="3">
-        <v>8.1823070141145773E-2</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0.22855806711828469</v>
-      </c>
-    </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.93194966234494203</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.57265957919999833</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.95177664218538671</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.65712144013742768</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.94938913654931145</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0.64531580148263057</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0.1162986700492049</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0.32155039855673279</v>
-      </c>
-      <c r="W11" s="2">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="X11" s="3">
-        <v>8.1705863850174379E-2</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>0.21721269051565181</v>
-      </c>
-    </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.93323059300511157</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.52507057887809827</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0.95211229900569394</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.62811490133172454</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.94858419153504725</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.62639699780051294</v>
-      </c>
-      <c r="R12" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0.11776354951009541</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0.31911434022278012</v>
-      </c>
-      <c r="W12" s="2">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="X12" s="3">
-        <v>8.2664068657790857E-2</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0.21594411354817489</v>
-      </c>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.93250116121323223</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.57498992624395417</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.95288449881370985</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0.64387148219708357</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="N13" s="3">
-        <v>0.94893636270296566</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0.66640684057230692</v>
-      </c>
-      <c r="R13" s="2">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0.1156787760033966</v>
-      </c>
-      <c r="T13" s="3">
-        <v>0.31468487648743998</v>
-      </c>
-      <c r="W13" s="2">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="X13" s="3">
-        <v>8.2246020605867914E-2</v>
-      </c>
-      <c r="Y13" s="3">
-        <v>0.22114865492312391</v>
-      </c>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.93511946626769316</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.51942288580286633</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0.95055984880650379</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0.67642291136019894</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0.95029434903033028</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0.63156679502402269</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0.1178000635324878</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0.30004516193868969</v>
-      </c>
-      <c r="W14" s="2">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="X14" s="3">
-        <v>8.2762723030266369E-2</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0.22181721225600909</v>
-      </c>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.93506677157241735</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.47860647302880438</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0.9516263438681829</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0.66143118076609753</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0.9484002184287218</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0.64802503096297781</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0.1171383818317885</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0.30811545296515908</v>
-      </c>
-      <c r="W15" s="2">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="X15" s="3">
-        <v>8.3102819747522774E-2</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0.2112029915425882</v>
-      </c>
-    </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.93555356209022267</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.47789564309637511</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0.95259019175247539</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.67018187713441957</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0.94989129262824368</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0.63875755894633546</v>
-      </c>
-      <c r="R16" s="2">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0.1171186160910848</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0.31103563353080099</v>
-      </c>
-      <c r="W16" s="2">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="X16" s="3">
-        <v>8.2339487334254086E-2</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0.2260417239367816</v>
-      </c>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.93378791937349992</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.5078787486361328</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.9527039059927398</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.62043554495858433</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.9492074765160603</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0.64812073080130728</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0.1171742453010904</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0.31140957698377753</v>
-      </c>
-      <c r="W17" s="2">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="X17" s="3">
-        <v>8.1596317207806829E-2</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0.23112952553723701</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.93471111627720604</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.51580996070666396</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.9516180665632118</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.65092072927518974</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0.94938848879038751</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0.66775707346954982</v>
-      </c>
-      <c r="R18" s="2">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0.1164586784263299</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0.30973552394199477</v>
-      </c>
-      <c r="W18" s="2">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="X18" s="3">
-        <v>8.2632752639061433E-2</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0.21940649077523819</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.93533900410590587</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.50795792173758669</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.95206163751220563</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.63727055500260632</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="N19" s="3">
-        <v>0.94881345044029819</v>
-      </c>
-      <c r="O19" s="3">
-        <v>0.61746215094387957</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0.1177906235918996</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0.30600599996569089</v>
-      </c>
-      <c r="W19" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="X19" s="3">
-        <v>8.1650285344827836E-2</v>
-      </c>
-      <c r="Y19" s="3">
-        <v>0.22222848595890529</v>
-      </c>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.93193469003019114</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.50167719590003501</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0.94846654594236934</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0.67338195669841994</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0.95006313957131971</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0.61314988818603333</v>
-      </c>
-      <c r="R20" s="2">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0.11747927165115141</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0.31312975008720212</v>
-      </c>
-      <c r="W20" s="2">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="X20" s="3">
-        <v>8.2300244262586322E-2</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0.2131942670611168</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.93118987342570148</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.52781938819035079</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.95305584171554325</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.6026267589083667</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0.94841670021682811</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0.68723334489831167</v>
-      </c>
-      <c r="R21" s="2">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0.1170660597063146</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0.31892808825715768</v>
-      </c>
-      <c r="W21" s="2">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="X21" s="3">
-        <v>8.2010057078785031E-2</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0.22226383573189001</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.93418085511409044</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.52720049996956586</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0.95179639459008969</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0.61387782259502877</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0.94745703865263975</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0.65213060930063704</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0.1190566414304584</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0.29201141261772301</v>
-      </c>
-      <c r="W22" s="2">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="X22" s="3">
-        <v>8.2465725949413093E-2</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0.22775780337315041</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.93049973219886795</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.57702293203320476</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0.95007276348837943</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0.67092602974066218</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0.94775393662384277</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0.63138559963267504</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0.1170426397950606</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0.31211045796856152</v>
-      </c>
-      <c r="W23" s="2">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="X23" s="3">
-        <v>8.1284535638414881E-2</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0.2249461185399371</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C24" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.93413281744519472</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.56586971018071774</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.95252487816233222</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.64708949151819772</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0.94822046642134838</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0.69353925357839019</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0.1170295318423671</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0.30995721028871059</v>
-      </c>
-      <c r="W24" s="2">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="X24" s="3">
-        <v>8.2756239960734349E-2</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0.2251606878609029</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.93196644348340651</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.58594064860737916</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0.95156988259420594</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0.62155754559636966</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0.94931379914042635</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0.62472045871967519</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0.1159687288999377</v>
-      </c>
-      <c r="T25" s="3">
-        <v>0.3253760936579731</v>
-      </c>
-      <c r="W25" s="2">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="X25" s="3">
-        <v>8.2789932906881553E-2</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0.22213151164887629</v>
-      </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C26" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.9349416306825481</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.52327771543121337</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0.95061182091821284</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0.65686887250701631</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0.94756894863843066</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0.66667210354049744</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0.1188156322728026</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0.30442573730136491</v>
-      </c>
-      <c r="W26" s="2">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="X26" s="3">
-        <v>8.1020708579676914E-2</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0.21822296232072161</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C27" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.93465365204112694</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.51881384575003675</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0.95070443132987481</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0.65923397279026807</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0.94927941087257661</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0.64131762871406184</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0.11645404150536651</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0.31879587372270279</v>
-      </c>
-      <c r="W27" s="2">
-        <f t="shared" si="4"/>
-        <v>23</v>
-      </c>
-      <c r="X27" s="3">
-        <v>8.1844616988188068E-2</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0.22593443927629869</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.93403251358938688</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.54447087613979428</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0.95381421557342827</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0.61945516198522554</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0.9515021068214562</v>
-      </c>
-      <c r="O28" s="3">
-        <v>0.63518254619664005</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0.1157431253931244</v>
-      </c>
-      <c r="T28" s="3">
-        <v>0.31943845407734389</v>
-      </c>
-      <c r="W28" s="2">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="X28" s="3">
-        <v>8.2173262857609272E-2</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0.21537597522765939</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C29" s="2">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.93348132922816696</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.540155014366548</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0.95131418094314424</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0.62156571497581037</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0.95079891183675846</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0.62709149935300168</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0.11867626165435349</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0.3004675508345675</v>
-      </c>
-      <c r="W29" s="2">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="X29" s="3">
-        <v>8.3103598191252098E-2</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0.21896354956737649</v>
-      </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C30" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.93229441693593562</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.55574976160948963</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.95147010123595988</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0.66045691000948448</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0.94856625043000042</v>
-      </c>
-      <c r="O30" s="3">
-        <v>0.66241752296418577</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="S30" s="3">
-        <v>0.1169732797623813</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0.3032128295097809</v>
-      </c>
-      <c r="W30" s="2">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="X30" s="3">
-        <v>8.3415777895986545E-2</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>0.21674506623377729</v>
-      </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C31" s="2">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.93213551916304493</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.57913550999125896</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0.95224297206722253</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0.63145951918685972</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0.94916909696737206</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0.64024763553481212</v>
-      </c>
-      <c r="R31" s="2">
-        <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="S31" s="3">
-        <v>0.1163453991392718</v>
-      </c>
-      <c r="T31" s="3">
-        <v>0.32424540470377</v>
-      </c>
-      <c r="W31" s="2">
-        <f t="shared" si="4"/>
-        <v>27</v>
-      </c>
-      <c r="X31" s="3">
-        <v>8.199141602551098E-2</v>
-      </c>
-      <c r="Y31" s="3">
-        <v>0.22104538512261029</v>
-      </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C32" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.93683955576202083</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.46533108661005268</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0.95222040190024693</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0.64038552491857614</v>
-      </c>
-      <c r="M32" s="2">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0.95126590667618927</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0.63468850809580535</v>
-      </c>
-      <c r="R32" s="2">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0.11644616566050631</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0.31759852383906773</v>
-      </c>
-      <c r="W32" s="2">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="X32" s="3">
-        <v>8.1993014509199463E-2</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0.22662824984082541</v>
-      </c>
-    </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C33" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.93622872283596204</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.53001236721703682</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0.95095638666022997</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0.65931224638203723</v>
-      </c>
-      <c r="M33" s="2">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0.94801919875087393</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0.63510125010181251</v>
-      </c>
-      <c r="R33" s="2">
-        <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="S33" s="3">
-        <v>0.11672428402742439</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0.31902442548075549</v>
-      </c>
-      <c r="W33" s="2">
-        <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="X33" s="3">
-        <v>8.2309728202983323E-2</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0.22590961366287871</v>
-      </c>
-    </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C34" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.93418677295100128</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.49760249069208312</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0.94988532577884655</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0.67417057297540284</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0.94840673758908034</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0.63280636724155181</v>
-      </c>
-      <c r="R34" s="2">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="S34" s="3">
-        <v>0.1169542614656538</v>
-      </c>
-      <c r="T34" s="3">
-        <v>0.32529631093429251</v>
-      </c>
-      <c r="W34" s="2">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="X34" s="3">
-        <v>8.1605759551974022E-2</v>
-      </c>
-      <c r="Y34" s="3">
-        <v>0.22718560267952981</v>
-      </c>
-    </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C35" s="2">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.93669604220771152</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0.48137648398110922</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0.95016447265366044</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0.67312707425646479</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0.94897277585487816</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0.63271904361202025</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="S35" s="3">
-        <v>0.1171298554338379</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0.30882175983954802</v>
-      </c>
-      <c r="W35" s="2">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="X35" s="3">
-        <v>8.0857996013291869E-2</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0.23442192452121891</v>
-      </c>
-    </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C36" s="2">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.93668554591666164</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.50102505212693771</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0.9491562155757538</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0.68213548431407811</v>
-      </c>
-      <c r="M36" s="2">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0.94989485658998185</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0.62461230834730297</v>
-      </c>
-      <c r="R36" s="2">
-        <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="S36" s="3">
-        <v>0.11464950412351831</v>
-      </c>
-      <c r="T36" s="3">
-        <v>0.31775017191690352</v>
-      </c>
-      <c r="W36" s="2">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="X36" s="3">
-        <v>8.268426659852357E-2</v>
-      </c>
-      <c r="Y36" s="3">
-        <v>0.214568109380808</v>
-      </c>
-    </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C37" s="2">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.93096750356178282</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.60075066336509719</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="I37" s="3">
-        <v>0.95158952902300997</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0.66254879724570159</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0.94907260950292616</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0.64995189227802974</v>
-      </c>
-      <c r="R37" s="2">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="S37" s="3">
-        <v>0.1192575516029472</v>
-      </c>
-      <c r="T37" s="3">
-        <v>0.30416485167056451</v>
-      </c>
-      <c r="W37" s="2">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="X37" s="3">
-        <v>8.251939102818831E-2</v>
-      </c>
-      <c r="Y37" s="3">
-        <v>0.22075695663214909</v>
-      </c>
-    </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C38" s="2">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.93409511612380902</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.49445800369783222</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="I38" s="3">
-        <v>0.95290057406117912</v>
-      </c>
-      <c r="J38" s="3">
-        <v>0.62595058311489304</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0.94705888623340939</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0.68579049132970538</v>
-      </c>
-      <c r="R38" s="2">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="S38" s="3">
-        <v>0.116326574624316</v>
-      </c>
-      <c r="T38" s="3">
-        <v>0.31101830390379742</v>
-      </c>
-      <c r="W38" s="2">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="X38" s="3">
-        <v>8.2179918254379064E-2</v>
-      </c>
-      <c r="Y38" s="3">
-        <v>0.22428725388674131</v>
-      </c>
-    </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C39" s="2">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.9329979629458488</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.53382575118169018</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0.95144950224021918</v>
-      </c>
-      <c r="J39" s="3">
-        <v>0.66168153920180028</v>
-      </c>
-      <c r="M39" s="2">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0.94958304174087971</v>
-      </c>
-      <c r="O39" s="3">
-        <v>0.65048634766205182</v>
-      </c>
-      <c r="R39" s="2">
-        <f t="shared" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="S39" s="3">
-        <v>0.11657180545628169</v>
-      </c>
-      <c r="T39" s="3">
-        <v>0.32267682431196071</v>
-      </c>
-      <c r="W39" s="2">
-        <f t="shared" si="4"/>
-        <v>35</v>
-      </c>
-      <c r="X39" s="3">
-        <v>8.434088398931025E-2</v>
-      </c>
-      <c r="Y39" s="3">
-        <v>0.2074504515956096</v>
-      </c>
-    </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C40" s="2">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.93492244237927935</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.5154512280322554</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0.95085872281884654</v>
-      </c>
-      <c r="J40" s="3">
-        <v>0.65877402667637974</v>
-      </c>
-      <c r="M40" s="2">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0.94913214919623734</v>
-      </c>
-      <c r="O40" s="3">
-        <v>0.65518227950724151</v>
-      </c>
-      <c r="R40" s="2">
-        <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="S40" s="3">
-        <v>0.1175172251952756</v>
-      </c>
-      <c r="T40" s="3">
-        <v>0.29687029675893889</v>
-      </c>
-      <c r="W40" s="2">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="X40" s="3">
-        <v>8.1053474524131197E-2</v>
-      </c>
-      <c r="Y40" s="3">
-        <v>0.2234413775313043</v>
-      </c>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C41" s="2">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.93335820858374907</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.51779403398601831</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0.95380200265216897</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0.60822670067763585</v>
-      </c>
-      <c r="M41" s="2">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0.94985408030840934</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0.63504508315405128</v>
-      </c>
-      <c r="R41" s="2">
-        <f t="shared" si="3"/>
-        <v>37</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0.1163592268528314</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0.33429847081729869</v>
-      </c>
-      <c r="W41" s="2">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="X41" s="3">
-        <v>8.2970175312972821E-2</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0.21663735395507289</v>
-      </c>
-    </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C42" s="2">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.93222188335908718</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.53519174034815009</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0.95067508486409658</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0.67173315570091452</v>
-      </c>
-      <c r="M42" s="2">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0.94749047901522876</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0.65365982615793783</v>
-      </c>
-      <c r="R42" s="2">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0.1171025183624865</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0.30969333488200551</v>
-      </c>
-      <c r="W42" s="2">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="X42" s="3">
-        <v>8.2391958007001886E-2</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>0.2213559784908905</v>
-      </c>
-    </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C43" s="2">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.93112826290425421</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.59889946506826153</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0.95344411522028072</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0.62366652977891113</v>
-      </c>
-      <c r="M43" s="2">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0.94941351161572984</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0.64862303322456505</v>
-      </c>
-      <c r="R43" s="2">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0.1160097829524077</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0.31411067341506499</v>
-      </c>
-      <c r="W43" s="2">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="X43" s="3">
-        <v>8.22429721964546E-2</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0.22404168224471041</v>
-      </c>
-    </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C44" s="2">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.93620238154020852</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.50785466663418022</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0.95002307317341317</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0.66709565694910156</v>
-      </c>
-      <c r="M44" s="2">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0.94713217301416419</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0.66737832250117057</v>
-      </c>
-      <c r="R44" s="2">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0.1169842007493667</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0.3195361200902328</v>
-      </c>
-      <c r="W44" s="2">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="X44" s="3">
-        <v>8.1921480878560951E-2</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>0.22349437843421341</v>
-      </c>
-    </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C45" s="2">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.93572370163635388</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.52349653196813595</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0.95090755711542396</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0.65934202866357861</v>
-      </c>
-      <c r="M45" s="2">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0.94955062022533965</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0.66217097171706796</v>
-      </c>
-      <c r="R45" s="2">
-        <f t="shared" si="3"/>
-        <v>41</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0.1156723396802683</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0.32980129419433779</v>
-      </c>
-      <c r="W45" s="2">
-        <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="X45" s="3">
-        <v>8.265138180769839E-2</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0.2185944437724423</v>
-      </c>
-    </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C46" s="2">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.93236055104093518</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.55200299023827715</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0.95130469084444014</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0.66645550777495477</v>
-      </c>
-      <c r="M46" s="2">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0.94945515644551282</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0.61884190231559644</v>
-      </c>
-      <c r="R46" s="2">
-        <f t="shared" si="3"/>
-        <v>42</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0.1192893179719352</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0.30232087969819471</v>
-      </c>
-      <c r="W46" s="2">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="X46" s="3">
-        <v>8.1484548138303636E-2</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0.2207778386553034</v>
-      </c>
-    </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C47" s="2">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.93502960562289261</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.49518945239806239</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0.95036037549560126</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0.6887499196782334</v>
-      </c>
-      <c r="M47" s="2">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0.9495275389287956</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0.60652038798714258</v>
-      </c>
-      <c r="R47" s="2">
-        <f t="shared" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0.1148393825765807</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0.32812220282649351</v>
-      </c>
-      <c r="W47" s="2">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="X47" s="3">
-        <v>8.2216713090806512E-2</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0.2176719762422053</v>
-      </c>
-    </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C48" s="2">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.93555439102520521</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.50969734232608466</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0.95115894732868977</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0.67400105812749556</v>
-      </c>
-      <c r="M48" s="2">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0.94950923407580956</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0.64211990133419727</v>
-      </c>
-      <c r="R48" s="2">
-        <f t="shared" si="3"/>
-        <v>44</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0.1183066921327932</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0.31167400605268719</v>
-      </c>
-      <c r="W48" s="2">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="X48" s="3">
-        <v>8.1229551364922783E-2</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>0.22558488513671829</v>
-      </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C49" s="2">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.93424588829822997</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.52838751723193189</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0.95142097669402881</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0.67184601578768866</v>
-      </c>
-      <c r="M49" s="2">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0.9499083921940904</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0.67279707299537095</v>
-      </c>
-      <c r="R49" s="2">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0.1181313888372665</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0.2993634376661844</v>
-      </c>
-      <c r="W49" s="2">
-        <f t="shared" si="4"/>
-        <v>45</v>
-      </c>
-      <c r="X49" s="3">
-        <v>8.1252399579726312E-2</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0.22627686644551931</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C50" s="2">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.9318078711926171</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0.55554552528572498</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="I50" s="3">
-        <v>0.95160578297007814</v>
-      </c>
-      <c r="J50" s="3">
-        <v>0.6561462463634381</v>
-      </c>
-      <c r="M50" s="2">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="N50" s="3">
-        <v>0.9486434871385766</v>
-      </c>
-      <c r="O50" s="3">
-        <v>0.66064148960936353</v>
-      </c>
-      <c r="R50" s="2">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="S50" s="3">
-        <v>0.11526373697328469</v>
-      </c>
-      <c r="T50" s="3">
-        <v>0.32834649138557082</v>
-      </c>
-      <c r="W50" s="2">
-        <f t="shared" si="4"/>
-        <v>46</v>
-      </c>
-      <c r="X50" s="3">
-        <v>8.1913761806771665E-2</v>
-      </c>
-      <c r="Y50" s="3">
-        <v>0.22526419522709509</v>
-      </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C51" s="2">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.93359166653116532</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0.53308548633171493</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0.95131034032703898</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0.62565473218451251</v>
-      </c>
-      <c r="M51" s="2">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="N51" s="3">
-        <v>0.95056760645959915</v>
-      </c>
-      <c r="O51" s="3">
-        <v>0.63749684147528407</v>
-      </c>
-      <c r="R51" s="2">
-        <f t="shared" si="3"/>
-        <v>47</v>
-      </c>
-      <c r="S51" s="3">
-        <v>0.1167540156878106</v>
-      </c>
-      <c r="T51" s="3">
-        <v>0.31376120183153111</v>
-      </c>
-      <c r="W51" s="2">
-        <f t="shared" si="4"/>
-        <v>47</v>
-      </c>
-      <c r="X51" s="3">
-        <v>8.2386580208719126E-2</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>0.2183309121651047</v>
-      </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C52" s="2">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0.93352893423435634</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0.51781827477997133</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0.95049903576942163</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0.67470635833973236</v>
-      </c>
-      <c r="M52" s="2">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0.9491752781596875</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0.62266464437681956</v>
-      </c>
-      <c r="R52" s="2">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="S52" s="3">
-        <v>0.115755029130523</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0.316101255139209</v>
-      </c>
-      <c r="W52" s="2">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="X52" s="3">
-        <v>8.2620642193867777E-2</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0.2183574957645468</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C53" s="2">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.93488696602904964</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0.52126617266258102</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0.95242716781327663</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0.67214288983268911</v>
-      </c>
-      <c r="M53" s="2">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0.95023491224099565</v>
-      </c>
-      <c r="O53" s="3">
-        <v>0.6234164050981541</v>
-      </c>
-      <c r="R53" s="2">
-        <f t="shared" si="3"/>
-        <v>49</v>
-      </c>
-      <c r="S53" s="3">
-        <v>0.1179774430612817</v>
-      </c>
-      <c r="T53" s="3">
-        <v>0.31719008723074549</v>
-      </c>
-      <c r="W53" s="2">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="X53" s="3">
-        <v>8.317294504866625E-2</v>
-      </c>
-      <c r="Y53" s="3">
-        <v>0.2208504624832697</v>
-      </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C54" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.93434855163014841</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.51138770316234061</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0.95210996402469006</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0.66955852923017856</v>
-      </c>
-      <c r="M54" s="2">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0.94889179727122863</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0.67125972957766566</v>
-      </c>
-      <c r="R54" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0.11672725996177399</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0.31912823714411509</v>
-      </c>
-      <c r="W54" s="2">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="X54" s="3">
-        <v>8.2903110305879796E-2</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>0.22718864352021659</v>
-      </c>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="3">
-        <f>AVERAGE(D5:D54)</f>
-        <v>0.93373425241639818</v>
-      </c>
-      <c r="E56" s="3">
-        <f>AVERAGE(E5:E54)</f>
-        <v>0.53035897752064753</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I56" s="3">
-        <f>AVERAGE(I5:I54)</f>
-        <v>0.95148938161329388</v>
-      </c>
-      <c r="J56" s="3">
-        <f>AVERAGE(J5:J54)</f>
-        <v>0.65279081267306827</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N56" s="3">
-        <f>AVERAGE(N5:N54)</f>
-        <v>0.94913546384240977</v>
-      </c>
-      <c r="O56" s="3">
-        <f>AVERAGE(O5:O54)</f>
-        <v>0.64518888293192622</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S56" s="3">
-        <f>AVERAGE(S5:S54)</f>
-        <v>0.11699947269078689</v>
-      </c>
-      <c r="T56" s="3">
-        <f>AVERAGE(T5:T54)</f>
-        <v>0.31308656886454217</v>
-      </c>
-      <c r="W56" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X56" s="3">
-        <f>AVERAGE(X5:X54)</f>
-        <v>8.2193910513009422E-2</v>
-      </c>
-      <c r="Y56" s="3">
-        <f>AVERAGE(Y5:Y54)</f>
-        <v>0.22170521049141068</v>
-      </c>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="3">
-        <f>_xlfn.STDEV.S(D5:D54)</f>
-        <v>1.8378510505159906E-3</v>
-      </c>
-      <c r="E57" s="3">
-        <f>_xlfn.STDEV.S(E5:E54)</f>
-        <v>3.6264196769483045E-2</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3">
-        <f>_xlfn.STDEV.S(I5:I54)</f>
-        <v>1.109177074425751E-3</v>
-      </c>
-      <c r="J57" s="3">
-        <f>_xlfn.STDEV.S(J5:J54)</f>
-        <v>2.2180145922211052E-2</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3">
-        <f>_xlfn.STDEV.S(N5:N54)</f>
-        <v>1.0061875462076956E-3</v>
-      </c>
-      <c r="O57" s="3">
-        <f>_xlfn.STDEV.S(O5:O54)</f>
-        <v>2.0441479091949693E-2</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S57" s="3">
-        <f>_xlfn.STDEV.S(S5:S54)</f>
-        <v>1.0573885580347465E-3</v>
-      </c>
-      <c r="T57" s="3">
-        <f>_xlfn.STDEV.S(T5:T54)</f>
-        <v>9.2969639757002707E-3</v>
-      </c>
-      <c r="W57" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="X57" s="3">
-        <f>_xlfn.STDEV.S(X5:X54)</f>
-        <v>6.7919170904217252E-4</v>
-      </c>
-      <c r="Y57" s="3">
-        <f>_xlfn.STDEV.S(Y5:Y54)</f>
-        <v>5.2278534035366938E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
   <si>
     <t>train (R2)</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>XGBoost</t>
+  </si>
+  <si>
+    <t>NN (128*4-&gt;1, e=100, b=10, relu, mse)</t>
+  </si>
+  <si>
+    <t>train (MSE)</t>
+  </si>
+  <si>
+    <t>test (MSE)</t>
   </si>
 </sst>
 </file>
@@ -2623,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AG57"/>
+  <dimension ref="C1:AT57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2635,9 +2644,10 @@
     <col min="16" max="16" width="11.28515625" customWidth="1"/>
     <col min="20" max="20" width="11.28515625" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2647,17 +2657,26 @@
       <c r="M1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AR1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2670,20 +2689,32 @@
         <v>5</v>
       </c>
       <c r="O2" s="1"/>
+      <c r="Q2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="1"/>
       <c r="U2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="W2" s="1"/>
-      <c r="Z2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="1"/>
-      <c r="AE2" s="1" t="s">
+      <c r="AA2" s="1"/>
+      <c r="AH2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="1"/>
-    </row>
-    <row r="3" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="1"/>
+      <c r="AM2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT2" s="1"/>
+    </row>
+    <row r="3" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2693,17 +2724,26 @@
       <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="U3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -2725,29 +2765,50 @@
       <c r="O4" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2" t="s">
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AO4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2" t="s">
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AT4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
         <v>1</v>
       </c>
@@ -2770,40 +2831,67 @@
         <v>1</v>
       </c>
       <c r="N5" s="3">
-        <v>0.5729003942191212</v>
+        <v>0.96376463714200022</v>
       </c>
       <c r="O5" s="3">
-        <v>0.43373143217207027</v>
+        <v>0.62359503562562546</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.93059818350705847</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.58051363350021623</v>
       </c>
       <c r="U5" s="2">
         <v>1</v>
       </c>
       <c r="V5" s="3">
+        <v>1.5034625322084961E-2</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.10253386685648069</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>9.7254411034077507E-3</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0.11570172630398649</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="3">
         <v>0.9483826461959044</v>
       </c>
-      <c r="W5" s="3">
+      <c r="AJ5" s="3">
         <v>0.62424276749922858</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AM5" s="2">
         <v>1</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AN5" s="3">
         <v>0.11629864236609461</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AO5" s="3">
         <v>0.31224638203978711</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AR5" s="2">
         <v>1</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AS5" s="3">
         <v>8.1769613043519596E-2</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AT5" s="3">
         <v>0.2185752247090387</v>
       </c>
     </row>
-    <row r="6" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C6" s="2">
         <f>C5+1</f>
         <v>2</v>
@@ -2829,43 +2917,73 @@
         <v>2</v>
       </c>
       <c r="N6" s="3">
-        <v>0.57014393347583381</v>
+        <v>0.96804475655403921</v>
       </c>
       <c r="O6" s="3">
-        <v>0.43618552280823431</v>
+        <v>0.66502481796723922</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>Q5+1</f>
+        <v>2</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.93456370580028147</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.64161757131163344</v>
       </c>
       <c r="U6" s="2">
         <f>U5+1</f>
         <v>2</v>
       </c>
       <c r="V6" s="3">
+        <v>1.4764452034542481E-2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.10843676886549219</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>Y5+1</f>
+        <v>2</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1.0216734570977571E-2</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0.1110102435603075</v>
+      </c>
+      <c r="AH6" s="2">
+        <f>AH5+1</f>
+        <v>2</v>
+      </c>
+      <c r="AI6" s="3">
         <v>0.95014181806151399</v>
       </c>
-      <c r="W6" s="3">
+      <c r="AJ6" s="3">
         <v>0.65165738632552261</v>
       </c>
-      <c r="Z6" s="2">
-        <f>Z5+1</f>
+      <c r="AM6" s="2">
+        <f>AM5+1</f>
         <v>2</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AN6" s="3">
         <v>0.1168169117142514</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AO6" s="3">
         <v>0.31273421380824667</v>
       </c>
-      <c r="AE6" s="2">
-        <f>AE5+1</f>
+      <c r="AR6" s="2">
+        <f>AR5+1</f>
         <v>2</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AS6" s="3">
         <v>8.2015583435031403E-2</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AT6" s="3">
         <v>0.228059986916406</v>
       </c>
     </row>
-    <row r="7" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f t="shared" ref="C7:C54" si="0">C6+1</f>
         <v>3</v>
@@ -2891,43 +3009,73 @@
         <v>3</v>
       </c>
       <c r="N7" s="3">
-        <v>0.56924440784655839</v>
+        <v>0.96645022569360428</v>
       </c>
       <c r="O7" s="3">
-        <v>0.44454614706989459</v>
+        <v>0.63576930319603719</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" ref="Q7:Q24" si="3">Q6+1</f>
+        <v>3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.92751102854144163</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.67724501933630687</v>
       </c>
       <c r="U7" s="2">
-        <f t="shared" ref="U7:U54" si="3">U6+1</f>
+        <f t="shared" ref="U7:U24" si="4">U6+1</f>
         <v>3</v>
       </c>
       <c r="V7" s="3">
+        <v>1.524398996920061E-2</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.1018896244447343</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" ref="Y7:Y24" si="5">Y6+1</f>
+        <v>3</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1.028121426492695E-2</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0.1160347139259587</v>
+      </c>
+      <c r="AH7" s="2">
+        <f t="shared" ref="AH7:AH54" si="6">AH6+1</f>
+        <v>3</v>
+      </c>
+      <c r="AI7" s="3">
         <v>0.94851326772255407</v>
       </c>
-      <c r="W7" s="3">
+      <c r="AJ7" s="3">
         <v>0.6671959229934028</v>
       </c>
-      <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z54" si="4">Z6+1</f>
+      <c r="AM7" s="2">
+        <f t="shared" ref="AM7:AM54" si="7">AM6+1</f>
         <v>3</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AN7" s="3">
         <v>0.1179096055996649</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AO7" s="3">
         <v>0.29563574077515559</v>
       </c>
-      <c r="AE7" s="2">
-        <f t="shared" ref="AE7:AE54" si="5">AE6+1</f>
+      <c r="AR7" s="2">
+        <f t="shared" ref="AR7:AR54" si="8">AR6+1</f>
         <v>3</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AS7" s="3">
         <v>8.2242710734438632E-2</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AT7" s="3">
         <v>0.2149826377335019</v>
       </c>
     </row>
-    <row r="8" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2953,43 +3101,73 @@
         <v>4</v>
       </c>
       <c r="N8" s="3">
-        <v>0.54245416236916832</v>
+        <v>0.96658039969724063</v>
       </c>
       <c r="O8" s="3">
-        <v>0.48360989825138317</v>
-      </c>
-      <c r="U8" s="2">
+        <v>0.67227564588948074</v>
+      </c>
+      <c r="Q8" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="V8" s="3">
-        <v>0.94974359082717996</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0.62610975868051677</v>
-      </c>
-      <c r="Z8" s="2">
+      <c r="R8" s="3">
+        <v>0.90509582258875232</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.66056614603622676</v>
+      </c>
+      <c r="U8" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0.1172464566941234</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0.30646210688982789</v>
-      </c>
-      <c r="AE8" s="2">
+      <c r="V8" s="3">
+        <v>1.530080098197413E-2</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.1021724876171361</v>
+      </c>
+      <c r="Y8" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="Z8" s="3">
+        <v>1.163661095152236E-2</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.1048205338783237</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.94974359082717996</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>0.62610975868051677</v>
+      </c>
+      <c r="AM8" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AN8" s="3">
+        <v>0.1172464566941234</v>
+      </c>
+      <c r="AO8" s="3">
+        <v>0.30646210688982789</v>
+      </c>
+      <c r="AR8" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AS8" s="3">
         <v>8.1549176794793454E-2</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AT8" s="3">
         <v>0.22654039805285689</v>
       </c>
     </row>
-    <row r="9" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3015,43 +3193,73 @@
         <v>5</v>
       </c>
       <c r="N9" s="3">
-        <v>0.5647076339167596</v>
+        <v>0.96495952318547551</v>
       </c>
       <c r="O9" s="3">
-        <v>0.43857857430598168</v>
-      </c>
-      <c r="U9" s="2">
+        <v>0.67137239596803533</v>
+      </c>
+      <c r="Q9" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="V9" s="3">
-        <v>0.95025250774461234</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0.62707359060358336</v>
-      </c>
-      <c r="Z9" s="2">
+      <c r="R9" s="3">
+        <v>0.91760974646496485</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.67547158883915204</v>
+      </c>
+      <c r="U9" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0.11815620674558699</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>0.30697978105111479</v>
-      </c>
-      <c r="AE9" s="2">
+      <c r="V9" s="3">
+        <v>1.489262305778513E-2</v>
+      </c>
+      <c r="W9" s="3">
+        <v>9.8546136415411351E-2</v>
+      </c>
+      <c r="Y9" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="Z9" s="3">
+        <v>9.5377722088051623E-3</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0.1052218865180526</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0.95025250774461234</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0.62707359060358336</v>
+      </c>
+      <c r="AM9" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>0.11815620674558699</v>
+      </c>
+      <c r="AO9" s="3">
+        <v>0.30697978105111479</v>
+      </c>
+      <c r="AR9" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AS9" s="3">
         <v>8.1536264136596287E-2</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AT9" s="3">
         <v>0.22159406681404359</v>
       </c>
     </row>
-    <row r="10" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3077,43 +3285,73 @@
         <v>6</v>
       </c>
       <c r="N10" s="3">
-        <v>0.56519497361366344</v>
+        <v>0.96554140647002118</v>
       </c>
       <c r="O10" s="3">
-        <v>0.49003408102072449</v>
-      </c>
-      <c r="U10" s="2">
+        <v>0.6474584870092972</v>
+      </c>
+      <c r="Q10" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="V10" s="3">
-        <v>0.94796415952673541</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0.67429355017169756</v>
-      </c>
-      <c r="Z10" s="2">
+      <c r="R10" s="3">
+        <v>0.91006532245050487</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.67981396316488496</v>
+      </c>
+      <c r="U10" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0.1169240315092835</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>0.30980523001355198</v>
-      </c>
-      <c r="AE10" s="2">
+      <c r="V10" s="3">
+        <v>1.476850552290742E-2</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.1075442703430376</v>
+      </c>
+      <c r="Y10" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="Z10" s="3">
+        <v>1.0286084904980919E-2</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0.12026798540613259</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0.94796415952673541</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0.67429355017169756</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AN10" s="3">
+        <v>0.1169240315092835</v>
+      </c>
+      <c r="AO10" s="3">
+        <v>0.30980523001355198</v>
+      </c>
+      <c r="AR10" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AS10" s="3">
         <v>8.1823070141145773E-2</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AT10" s="3">
         <v>0.22855806711828469</v>
       </c>
     </row>
-    <row r="11" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3139,43 +3377,73 @@
         <v>7</v>
       </c>
       <c r="N11" s="3">
-        <v>0.57312800073621273</v>
+        <v>0.96745516133544252</v>
       </c>
       <c r="O11" s="3">
-        <v>0.46137825217904482</v>
-      </c>
-      <c r="U11" s="2">
+        <v>0.63782181397582938</v>
+      </c>
+      <c r="Q11" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="V11" s="3">
-        <v>0.94938913654931145</v>
-      </c>
-      <c r="W11" s="3">
-        <v>0.64531580148263057</v>
-      </c>
-      <c r="Z11" s="2">
+      <c r="R11" s="3">
+        <v>0.90903325184805839</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.65572288566889669</v>
+      </c>
+      <c r="U11" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AA11" s="3">
-        <v>0.1162986700492049</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>0.32155039855673279</v>
-      </c>
-      <c r="AE11" s="2">
+      <c r="V11" s="3">
+        <v>1.4712986857944071E-2</v>
+      </c>
+      <c r="W11" s="3">
+        <v>0.1076780221436838</v>
+      </c>
+      <c r="Y11" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="Z11" s="3">
+        <v>9.7967090279293435E-3</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>0.1044312865263093</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0.94938913654931145</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>0.64531580148263057</v>
+      </c>
+      <c r="AM11" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AN11" s="3">
+        <v>0.1162986700492049</v>
+      </c>
+      <c r="AO11" s="3">
+        <v>0.32155039855673279</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AS11" s="3">
         <v>8.1705863850174379E-2</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AT11" s="3">
         <v>0.21721269051565181</v>
       </c>
     </row>
-    <row r="12" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3201,43 +3469,73 @@
         <v>8</v>
       </c>
       <c r="N12" s="3">
-        <v>0.56548886907172435</v>
+        <v>0.96867666625655269</v>
       </c>
       <c r="O12" s="3">
-        <v>0.46364370417685119</v>
-      </c>
-      <c r="U12" s="2">
+        <v>0.65038652061124136</v>
+      </c>
+      <c r="Q12" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="V12" s="3">
-        <v>0.94858419153504725</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0.62639699780051294</v>
-      </c>
-      <c r="Z12" s="2">
+      <c r="R12" s="3">
+        <v>0.93874239846378771</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.67022182967905586</v>
+      </c>
+      <c r="U12" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0.11776354951009541</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0.31911434022278012</v>
-      </c>
-      <c r="AE12" s="2">
+      <c r="V12" s="3">
+        <v>1.5026179545689621E-2</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0.10030747828149369</v>
+      </c>
+      <c r="Y12" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="Z12" s="3">
+        <v>1.0141614466680261E-2</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>9.4813154183915338E-2</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0.94858419153504725</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>0.62639699780051294</v>
+      </c>
+      <c r="AM12" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>0.11776354951009541</v>
+      </c>
+      <c r="AO12" s="3">
+        <v>0.31911434022278012</v>
+      </c>
+      <c r="AR12" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AS12" s="3">
         <v>8.2664068657790857E-2</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AT12" s="3">
         <v>0.21594411354817489</v>
       </c>
     </row>
-    <row r="13" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3263,43 +3561,73 @@
         <v>9</v>
       </c>
       <c r="N13" s="3">
-        <v>0.56569296433728455</v>
+        <v>0.96774542035502986</v>
       </c>
       <c r="O13" s="3">
-        <v>0.471774283102813</v>
-      </c>
-      <c r="U13" s="2">
+        <v>0.65614073554898811</v>
+      </c>
+      <c r="Q13" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="V13" s="3">
-        <v>0.94893636270296566</v>
-      </c>
-      <c r="W13" s="3">
-        <v>0.66640684057230692</v>
-      </c>
-      <c r="Z13" s="2">
+      <c r="R13" s="3">
+        <v>0.90286621421309232</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.64378713132094623</v>
+      </c>
+      <c r="U13" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="AA13" s="3">
-        <v>0.1156787760033966</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>0.31468487648743998</v>
-      </c>
-      <c r="AE13" s="2">
+      <c r="V13" s="3">
+        <v>1.485988747458407E-2</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0.1138696459166669</v>
+      </c>
+      <c r="Y13" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="Z13" s="3">
+        <v>1.020521913866438E-2</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0.106946473612236</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0.94893636270296566</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>0.66640684057230692</v>
+      </c>
+      <c r="AM13" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AN13" s="3">
+        <v>0.1156787760033966</v>
+      </c>
+      <c r="AO13" s="3">
+        <v>0.31468487648743998</v>
+      </c>
+      <c r="AR13" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AS13" s="3">
         <v>8.2246020605867914E-2</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AT13" s="3">
         <v>0.22114865492312391</v>
       </c>
     </row>
-    <row r="14" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3325,43 +3653,73 @@
         <v>10</v>
       </c>
       <c r="N14" s="3">
-        <v>0.56131778126338294</v>
+        <v>0.96695142665664691</v>
       </c>
       <c r="O14" s="3">
-        <v>0.49331047699419939</v>
-      </c>
-      <c r="U14" s="2">
+        <v>0.58497164771542542</v>
+      </c>
+      <c r="Q14" s="2">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0.95029434903033028</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0.63156679502402269</v>
-      </c>
-      <c r="Z14" s="2">
+      <c r="R14" s="3">
+        <v>0.93063588370645434</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.66387289968503982</v>
+      </c>
+      <c r="U14" s="2">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0.1178000635324878</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0.30004516193868969</v>
-      </c>
-      <c r="AE14" s="2">
+      <c r="V14" s="3">
+        <v>1.487784831102958E-2</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0.1031935406231308</v>
+      </c>
+      <c r="Y14" s="2">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="Z14" s="3">
+        <v>9.6083974809740222E-3</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0.1113686452837185</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0.95029434903033028</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>0.63156679502402269</v>
+      </c>
+      <c r="AM14" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0.1178000635324878</v>
+      </c>
+      <c r="AO14" s="3">
+        <v>0.30004516193868969</v>
+      </c>
+      <c r="AR14" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AS14" s="3">
         <v>8.2762723030266369E-2</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AT14" s="3">
         <v>0.22181721225600909</v>
       </c>
     </row>
-    <row r="15" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C15" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3387,43 +3745,73 @@
         <v>11</v>
       </c>
       <c r="N15" s="3">
-        <v>0.5599312129266768</v>
+        <v>0.96817186145221468</v>
       </c>
       <c r="O15" s="3">
-        <v>0.47549414611864671</v>
-      </c>
-      <c r="U15" s="2">
+        <v>0.6632362359115116</v>
+      </c>
+      <c r="Q15" s="2">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="V15" s="3">
-        <v>0.9484002184287218</v>
-      </c>
-      <c r="W15" s="3">
-        <v>0.64802503096297781</v>
-      </c>
-      <c r="Z15" s="2">
+      <c r="R15" s="3">
+        <v>0.92299317362426891</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.68000886033185592</v>
+      </c>
+      <c r="U15" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0.1171383818317885</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0.30811545296515908</v>
-      </c>
-      <c r="AE15" s="2">
+      <c r="V15" s="3">
+        <v>1.455115476928368E-2</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0.1139143759740549</v>
+      </c>
+      <c r="Y15" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="Z15" s="3">
+        <v>1.060237720085286E-2</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>9.8518028121507784E-2</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0.9484002184287218</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0.64802503096297781</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AN15" s="3">
+        <v>0.1171383818317885</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>0.30811545296515908</v>
+      </c>
+      <c r="AR15" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AS15" s="3">
         <v>8.3102819747522774E-2</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AT15" s="3">
         <v>0.2112029915425882</v>
       </c>
     </row>
-    <row r="16" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3449,43 +3837,73 @@
         <v>12</v>
       </c>
       <c r="N16" s="3">
-        <v>0.56888447789891305</v>
+        <v>0.96595701096541908</v>
       </c>
       <c r="O16" s="3">
-        <v>0.46157035683934428</v>
-      </c>
-      <c r="U16" s="2">
+        <v>0.66700725715383224</v>
+      </c>
+      <c r="Q16" s="2">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="V16" s="3">
-        <v>0.94989129262824368</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0.63875755894633546</v>
-      </c>
-      <c r="Z16" s="2">
+      <c r="R16" s="3">
+        <v>0.92046359789099963</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.6521985590802033</v>
+      </c>
+      <c r="U16" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="AA16" s="3">
-        <v>0.1171186160910848</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>0.31103563353080099</v>
-      </c>
-      <c r="AE16" s="2">
+      <c r="V16" s="3">
+        <v>1.539029131656122E-2</v>
+      </c>
+      <c r="W16" s="3">
+        <v>9.5257247816083399E-2</v>
+      </c>
+      <c r="Y16" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="Z16" s="3">
+        <v>9.439217120172861E-3</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>0.11145067949458611</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0.94989129262824368</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>0.63875755894633546</v>
+      </c>
+      <c r="AM16" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AN16" s="3">
+        <v>0.1171186160910848</v>
+      </c>
+      <c r="AO16" s="3">
+        <v>0.31103563353080099</v>
+      </c>
+      <c r="AR16" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="AS16" s="3">
         <v>8.2339487334254086E-2</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AT16" s="3">
         <v>0.2260417239367816</v>
       </c>
     </row>
-    <row r="17" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3511,43 +3929,73 @@
         <v>13</v>
       </c>
       <c r="N17" s="3">
-        <v>0.55481490217184271</v>
+        <v>0.968334991632671</v>
       </c>
       <c r="O17" s="3">
-        <v>0.43935771227128562</v>
-      </c>
-      <c r="U17" s="2">
+        <v>0.64718254910704776</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="V17" s="3">
-        <v>0.9492074765160603</v>
-      </c>
-      <c r="W17" s="3">
-        <v>0.64812073080130728</v>
-      </c>
-      <c r="Z17" s="2">
+      <c r="R17" s="3">
+        <v>0.92741306163233084</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.69105130796107628</v>
+      </c>
+      <c r="U17" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="AA17" s="3">
-        <v>0.1171742453010904</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>0.31140957698377753</v>
-      </c>
-      <c r="AE17" s="2">
+      <c r="V17" s="3">
+        <v>1.509463261395547E-2</v>
+      </c>
+      <c r="W17" s="3">
+        <v>9.6457785484444419E-2</v>
+      </c>
+      <c r="Y17" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="Z17" s="3">
+        <v>1.0197519243926549E-2</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0.11246199433009429</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0.9492074765160603</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>0.64812073080130728</v>
+      </c>
+      <c r="AM17" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AN17" s="3">
+        <v>0.1171742453010904</v>
+      </c>
+      <c r="AO17" s="3">
+        <v>0.31140957698377753</v>
+      </c>
+      <c r="AR17" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="AS17" s="3">
         <v>8.1596317207806829E-2</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AT17" s="3">
         <v>0.23112952553723701</v>
       </c>
     </row>
-    <row r="18" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3573,43 +4021,73 @@
         <v>14</v>
       </c>
       <c r="N18" s="3">
-        <v>0.56113394375674164</v>
+        <v>0.96686305288697583</v>
       </c>
       <c r="O18" s="3">
-        <v>0.51816536686718728</v>
-      </c>
-      <c r="U18" s="2">
+        <v>0.63392098300799749</v>
+      </c>
+      <c r="Q18" s="2">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="V18" s="3">
-        <v>0.94938848879038751</v>
-      </c>
-      <c r="W18" s="3">
-        <v>0.66775707346954982</v>
-      </c>
-      <c r="Z18" s="2">
+      <c r="R18" s="3">
+        <v>0.91881001221897252</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.61515329388807605</v>
+      </c>
+      <c r="U18" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0.1164586784263299</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>0.30973552394199477</v>
-      </c>
-      <c r="AE18" s="2">
+      <c r="V18" s="3">
+        <v>1.501486089602681E-2</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0.1017507957212412</v>
+      </c>
+      <c r="Y18" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="Z18" s="3">
+        <v>9.9459032013071696E-3</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0.1187995999173132</v>
+      </c>
+      <c r="AH18" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0.94938848879038751</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>0.66775707346954982</v>
+      </c>
+      <c r="AM18" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AN18" s="3">
+        <v>0.1164586784263299</v>
+      </c>
+      <c r="AO18" s="3">
+        <v>0.30973552394199477</v>
+      </c>
+      <c r="AR18" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="AS18" s="3">
         <v>8.2632752639061433E-2</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AT18" s="3">
         <v>0.21940649077523819</v>
       </c>
     </row>
-    <row r="19" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3635,43 +4113,73 @@
         <v>15</v>
       </c>
       <c r="N19" s="3">
-        <v>0.55820316769467215</v>
+        <v>0.96725845511840991</v>
       </c>
       <c r="O19" s="3">
-        <v>0.5041717052889565</v>
-      </c>
-      <c r="U19" s="2">
+        <v>0.63237481941050588</v>
+      </c>
+      <c r="Q19" s="2">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="V19" s="3">
-        <v>0.94881345044029819</v>
-      </c>
-      <c r="W19" s="3">
-        <v>0.61746215094387957</v>
-      </c>
-      <c r="Z19" s="2">
+      <c r="R19" s="3">
+        <v>0.92446872839028571</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.65414577345870517</v>
+      </c>
+      <c r="U19" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="AA19" s="3">
-        <v>0.1177906235918996</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>0.30600599996569089</v>
-      </c>
-      <c r="AE19" s="2">
+      <c r="V19" s="3">
+        <v>1.51731811306664E-2</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0.10248288858187091</v>
+      </c>
+      <c r="Y19" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="Z19" s="3">
+        <v>1.0488520383780319E-2</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>9.6080827079211756E-2</v>
+      </c>
+      <c r="AH19" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0.94881345044029819</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>0.61746215094387957</v>
+      </c>
+      <c r="AM19" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AN19" s="3">
+        <v>0.1177906235918996</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>0.30600599996569089</v>
+      </c>
+      <c r="AR19" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AS19" s="3">
         <v>8.1650285344827836E-2</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AT19" s="3">
         <v>0.22222848595890529</v>
       </c>
     </row>
-    <row r="20" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3697,43 +4205,73 @@
         <v>16</v>
       </c>
       <c r="N20" s="3">
-        <v>0.55378810396872091</v>
+        <v>0.97056227637556525</v>
       </c>
       <c r="O20" s="3">
-        <v>0.47859722758407591</v>
-      </c>
-      <c r="U20" s="2">
+        <v>0.61294404459202034</v>
+      </c>
+      <c r="Q20" s="2">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="V20" s="3">
-        <v>0.95006313957131971</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0.61314988818603333</v>
-      </c>
-      <c r="Z20" s="2">
+      <c r="R20" s="3">
+        <v>0.92170689584554721</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.70560113634140675</v>
+      </c>
+      <c r="U20" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0.11747927165115141</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0.31312975008720212</v>
-      </c>
-      <c r="AE20" s="2">
+      <c r="V20" s="3">
+        <v>1.524970865159618E-2</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0.1043101435580429</v>
+      </c>
+      <c r="Y20" s="2">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="Z20" s="3">
+        <v>1.063781859124845E-2</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>9.9892162405763318E-2</v>
+      </c>
+      <c r="AH20" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0.95006313957131971</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>0.61314988818603333</v>
+      </c>
+      <c r="AM20" s="2">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>0.11747927165115141</v>
+      </c>
+      <c r="AO20" s="3">
+        <v>0.31312975008720212</v>
+      </c>
+      <c r="AR20" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="AS20" s="3">
         <v>8.2300244262586322E-2</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AT20" s="3">
         <v>0.2131942670611168</v>
       </c>
     </row>
-    <row r="21" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C21" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3759,43 +4297,73 @@
         <v>17</v>
       </c>
       <c r="N21" s="3">
-        <v>0.55925898134961838</v>
+        <v>0.96852328735592308</v>
       </c>
       <c r="O21" s="3">
-        <v>0.49724186270127962</v>
-      </c>
-      <c r="U21" s="2">
+        <v>0.61174912077165566</v>
+      </c>
+      <c r="Q21" s="2">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="V21" s="3">
-        <v>0.94841670021682811</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0.68723334489831167</v>
-      </c>
-      <c r="Z21" s="2">
+      <c r="R21" s="3">
+        <v>0.92248615253204136</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.65636503240016197</v>
+      </c>
+      <c r="U21" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0.1170660597063146</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>0.31892808825715768</v>
-      </c>
-      <c r="AE21" s="2">
+      <c r="V21" s="3">
+        <v>1.4829091549765959E-2</v>
+      </c>
+      <c r="W21" s="3">
+        <v>9.5983189204538827E-2</v>
+      </c>
+      <c r="Y21" s="2">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="Z21" s="3">
+        <v>1.1018297986841249E-2</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0.1017541605419314</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0.94841670021682811</v>
+      </c>
+      <c r="AJ21" s="3">
+        <v>0.68723334489831167</v>
+      </c>
+      <c r="AM21" s="2">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="AN21" s="3">
+        <v>0.1170660597063146</v>
+      </c>
+      <c r="AO21" s="3">
+        <v>0.31892808825715768</v>
+      </c>
+      <c r="AR21" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AS21" s="3">
         <v>8.2010057078785031E-2</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AT21" s="3">
         <v>0.22226383573189001</v>
       </c>
     </row>
-    <row r="22" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C22" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3821,43 +4389,73 @@
         <v>18</v>
       </c>
       <c r="N22" s="3">
-        <v>0.5700450489036335</v>
+        <v>0.96705382208082158</v>
       </c>
       <c r="O22" s="3">
-        <v>0.42430837265763438</v>
-      </c>
-      <c r="U22" s="2">
+        <v>0.66057191323634612</v>
+      </c>
+      <c r="Q22" s="2">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="V22" s="3">
-        <v>0.94745703865263975</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0.65213060930063704</v>
-      </c>
-      <c r="Z22" s="2">
+      <c r="R22" s="3">
+        <v>0.90585642879592543</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.69064017982943171</v>
+      </c>
+      <c r="U22" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0.1190566414304584</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0.29201141261772301</v>
-      </c>
-      <c r="AE22" s="2">
+      <c r="V22" s="3">
+        <v>1.5182036031579979E-2</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.10328630616162759</v>
+      </c>
+      <c r="Y22" s="2">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="Z22" s="3">
+        <v>9.1389457530292161E-3</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0.117986378761315</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0.94745703865263975</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>0.65213060930063704</v>
+      </c>
+      <c r="AM22" s="2">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="AN22" s="3">
+        <v>0.1190566414304584</v>
+      </c>
+      <c r="AO22" s="3">
+        <v>0.29201141261772301</v>
+      </c>
+      <c r="AR22" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="AS22" s="3">
         <v>8.2465725949413093E-2</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AT22" s="3">
         <v>0.22775780337315041</v>
       </c>
     </row>
-    <row r="23" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C23" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3883,43 +4481,73 @@
         <v>19</v>
       </c>
       <c r="N23" s="3">
-        <v>0.56510457249046109</v>
+        <v>0.96842298205967614</v>
       </c>
       <c r="O23" s="3">
-        <v>0.50059267747274117</v>
-      </c>
-      <c r="U23" s="2">
+        <v>0.65680346391451083</v>
+      </c>
+      <c r="Q23" s="2">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="V23" s="3">
-        <v>0.94775393662384277</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0.63138559963267504</v>
-      </c>
-      <c r="Z23" s="2">
+      <c r="R23" s="3">
+        <v>0.90224972257893765</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.60318153309996181</v>
+      </c>
+      <c r="U23" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0.1170426397950606</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>0.31211045796856152</v>
-      </c>
-      <c r="AE23" s="2">
+      <c r="V23" s="3">
+        <v>1.48815956325301E-2</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0.1021515480443403</v>
+      </c>
+      <c r="Y23" s="2">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="Z23" s="3">
+        <v>1.0084064008588359E-2</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0.1110758473543141</v>
+      </c>
+      <c r="AH23" s="2">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0.94775393662384277</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0.63138559963267504</v>
+      </c>
+      <c r="AM23" s="2">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="AN23" s="3">
+        <v>0.1170426397950606</v>
+      </c>
+      <c r="AO23" s="3">
+        <v>0.31211045796856152</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AS23" s="3">
         <v>8.1284535638414881E-2</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AT23" s="3">
         <v>0.2249461185399371</v>
       </c>
     </row>
-    <row r="24" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3945,43 +4573,73 @@
         <v>20</v>
       </c>
       <c r="N24" s="3">
-        <v>0.5605271102695718</v>
+        <v>0.96541496944695859</v>
       </c>
       <c r="O24" s="3">
-        <v>0.48448371170967042</v>
-      </c>
-      <c r="U24" s="2">
+        <v>0.64701515331587733</v>
+      </c>
+      <c r="Q24" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="V24" s="3">
-        <v>0.94822046642134838</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0.69353925357839019</v>
-      </c>
-      <c r="Z24" s="2">
+      <c r="R24" s="3">
+        <v>0.91726800135491149</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0.61267752326283165</v>
+      </c>
+      <c r="U24" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0.1170295318423671</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0.30995721028871059</v>
-      </c>
-      <c r="AE24" s="2">
+      <c r="V24" s="3">
+        <v>1.507075257437346E-2</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0.10130090434442909</v>
+      </c>
+      <c r="Y24" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="Z24" s="3">
+        <v>9.4343814192197409E-3</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0.10359555667566971</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0.94822046642134838</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>0.69353925357839019</v>
+      </c>
+      <c r="AM24" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="AN24" s="3">
+        <v>0.1170295318423671</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>0.30995721028871059</v>
+      </c>
+      <c r="AR24" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AS24" s="3">
         <v>8.2756239960734349E-2</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AT24" s="3">
         <v>0.2251606878609029</v>
       </c>
     </row>
-    <row r="25" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4007,43 +4665,46 @@
         <v>21</v>
       </c>
       <c r="N25" s="3">
-        <v>0.56943036020671678</v>
+        <v>0.96706089680873031</v>
       </c>
       <c r="O25" s="3">
-        <v>0.45327508196252347</v>
-      </c>
-      <c r="U25" s="2">
-        <f t="shared" si="3"/>
+        <v>0.63699481735453878</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="AH25" s="2">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="V25" s="3">
+      <c r="AI25" s="3">
         <v>0.94931379914042635</v>
       </c>
-      <c r="W25" s="3">
+      <c r="AJ25" s="3">
         <v>0.62472045871967519</v>
       </c>
-      <c r="Z25" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM25" s="2">
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AN25" s="3">
         <v>0.1159687288999377</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AO25" s="3">
         <v>0.3253760936579731</v>
       </c>
-      <c r="AE25" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR25" s="2">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AS25" s="3">
         <v>8.2789932906881553E-2</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AT25" s="3">
         <v>0.22213151164887629</v>
       </c>
     </row>
-    <row r="26" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C26" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4069,43 +4730,46 @@
         <v>22</v>
       </c>
       <c r="N26" s="3">
-        <v>0.54926529749374287</v>
+        <v>0.96837786313145813</v>
       </c>
       <c r="O26" s="3">
-        <v>0.48954710522503969</v>
-      </c>
-      <c r="U26" s="2">
-        <f t="shared" si="3"/>
+        <v>0.64759840164855664</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="AH26" s="2">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="V26" s="3">
+      <c r="AI26" s="3">
         <v>0.94756894863843066</v>
       </c>
-      <c r="W26" s="3">
+      <c r="AJ26" s="3">
         <v>0.66667210354049744</v>
       </c>
-      <c r="Z26" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM26" s="2">
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AN26" s="3">
         <v>0.1188156322728026</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AO26" s="3">
         <v>0.30442573730136491</v>
       </c>
-      <c r="AE26" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR26" s="2">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AS26" s="3">
         <v>8.1020708579676914E-2</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AT26" s="3">
         <v>0.21822296232072161</v>
       </c>
     </row>
-    <row r="27" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C27" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4131,43 +4795,76 @@
         <v>23</v>
       </c>
       <c r="N27" s="3">
-        <v>0.54962587441459609</v>
+        <v>0.96880271632125947</v>
       </c>
       <c r="O27" s="3">
-        <v>0.52952299768277711</v>
-      </c>
-      <c r="U27" s="2">
-        <f t="shared" si="3"/>
+        <v>0.66406028222756097</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R27" s="3">
+        <f>AVERAGE(R5:R24)</f>
+        <v>0.91952186662243096</v>
+      </c>
+      <c r="S27" s="3">
+        <f>AVERAGE(S5:S24)</f>
+        <v>0.65549279340980349</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V27" s="3">
+        <f>AVERAGE(V5:V24)</f>
+        <v>1.4995960212204068E-2</v>
+      </c>
+      <c r="W27" s="3">
+        <f>AVERAGE(W5:W24)</f>
+        <v>0.10315335131989704</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="3">
+        <f>AVERAGE(Z5:Z24)</f>
+        <v>1.0121142151391774E-2</v>
+      </c>
+      <c r="AA27" s="3">
+        <f>AVERAGE(AA5:AA24)</f>
+        <v>0.10811159419403238</v>
+      </c>
+      <c r="AH27" s="2">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="V27" s="3">
+      <c r="AI27" s="3">
         <v>0.94927941087257661</v>
       </c>
-      <c r="W27" s="3">
+      <c r="AJ27" s="3">
         <v>0.64131762871406184</v>
       </c>
-      <c r="Z27" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM27" s="2">
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AN27" s="3">
         <v>0.11645404150536651</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AO27" s="3">
         <v>0.31879587372270279</v>
       </c>
-      <c r="AE27" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR27" s="2">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AS27" s="3">
         <v>8.1844616988188068E-2</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AT27" s="3">
         <v>0.22593443927629869</v>
       </c>
     </row>
-    <row r="28" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4193,43 +4890,76 @@
         <v>24</v>
       </c>
       <c r="N28" s="3">
-        <v>0.56256994786424719</v>
+        <v>0.96649378793082474</v>
       </c>
       <c r="O28" s="3">
-        <v>0.49482280750057311</v>
-      </c>
-      <c r="U28" s="2">
-        <f t="shared" si="3"/>
+        <v>0.62467345504139926</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" s="3">
+        <f>_xlfn.STDEV.S(R5:R24)</f>
+        <v>1.0756227068956514E-2</v>
+      </c>
+      <c r="S28" s="3">
+        <f>_xlfn.STDEV.S(S5:S24)</f>
+        <v>3.2077340951335034E-2</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" s="3">
+        <f>_xlfn.STDEV.S(V5:V24)</f>
+        <v>2.2073866956576926E-4</v>
+      </c>
+      <c r="W28" s="3">
+        <f>_xlfn.STDEV.S(W5:W24)</f>
+        <v>5.116401957549685E-3</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="3">
+        <f>_xlfn.STDEV.S(Z5:Z24)</f>
+        <v>5.8977473093686837E-4</v>
+      </c>
+      <c r="AA28" s="3">
+        <f>_xlfn.STDEV.S(AA5:AA24)</f>
+        <v>7.6566451489672831E-3</v>
+      </c>
+      <c r="AH28" s="2">
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="V28" s="3">
+      <c r="AI28" s="3">
         <v>0.9515021068214562</v>
       </c>
-      <c r="W28" s="3">
+      <c r="AJ28" s="3">
         <v>0.63518254619664005</v>
       </c>
-      <c r="Z28" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM28" s="2">
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="AA28" s="3">
+      <c r="AN28" s="3">
         <v>0.1157431253931244</v>
       </c>
-      <c r="AB28" s="3">
+      <c r="AO28" s="3">
         <v>0.31943845407734389</v>
       </c>
-      <c r="AE28" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR28" s="2">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="AF28" s="3">
+      <c r="AS28" s="3">
         <v>8.2173262857609272E-2</v>
       </c>
-      <c r="AG28" s="3">
+      <c r="AT28" s="3">
         <v>0.21537597522765939</v>
       </c>
     </row>
-    <row r="29" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4255,43 +4985,46 @@
         <v>25</v>
       </c>
       <c r="N29" s="3">
-        <v>0.55872190267000232</v>
+        <v>0.96864685132448114</v>
       </c>
       <c r="O29" s="3">
-        <v>0.50745130933313165</v>
-      </c>
-      <c r="U29" s="2">
-        <f t="shared" si="3"/>
+        <v>0.60215066964549391</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="AH29" s="2">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="V29" s="3">
+      <c r="AI29" s="3">
         <v>0.95079891183675846</v>
       </c>
-      <c r="W29" s="3">
+      <c r="AJ29" s="3">
         <v>0.62709149935300168</v>
       </c>
-      <c r="Z29" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM29" s="2">
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AN29" s="3">
         <v>0.11867626165435349</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AO29" s="3">
         <v>0.3004675508345675</v>
       </c>
-      <c r="AE29" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR29" s="2">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="AF29" s="3">
+      <c r="AS29" s="3">
         <v>8.3103598191252098E-2</v>
       </c>
-      <c r="AG29" s="3">
+      <c r="AT29" s="3">
         <v>0.21896354956737649</v>
       </c>
     </row>
-    <row r="30" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4317,43 +5050,46 @@
         <v>26</v>
       </c>
       <c r="N30" s="3">
-        <v>0.58024609343143685</v>
+        <v>0.969671800776857</v>
       </c>
       <c r="O30" s="3">
-        <v>0.4549042117983535</v>
-      </c>
-      <c r="U30" s="2">
-        <f t="shared" si="3"/>
+        <v>0.65465714872092806</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="AH30" s="2">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="V30" s="3">
+      <c r="AI30" s="3">
         <v>0.94856625043000042</v>
       </c>
-      <c r="W30" s="3">
+      <c r="AJ30" s="3">
         <v>0.66241752296418577</v>
       </c>
-      <c r="Z30" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM30" s="2">
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="AA30" s="3">
+      <c r="AN30" s="3">
         <v>0.1169732797623813</v>
       </c>
-      <c r="AB30" s="3">
+      <c r="AO30" s="3">
         <v>0.3032128295097809</v>
       </c>
-      <c r="AE30" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR30" s="2">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="AF30" s="3">
+      <c r="AS30" s="3">
         <v>8.3415777895986545E-2</v>
       </c>
-      <c r="AG30" s="3">
+      <c r="AT30" s="3">
         <v>0.21674506623377729</v>
       </c>
     </row>
-    <row r="31" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4379,43 +5115,46 @@
         <v>27</v>
       </c>
       <c r="N31" s="3">
-        <v>0.55112998792645951</v>
+        <v>0.97001840884810031</v>
       </c>
       <c r="O31" s="3">
-        <v>0.53296804194773317</v>
-      </c>
-      <c r="U31" s="2">
-        <f t="shared" si="3"/>
+        <v>0.60428224392327556</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="AH31" s="2">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="V31" s="3">
+      <c r="AI31" s="3">
         <v>0.94916909696737206</v>
       </c>
-      <c r="W31" s="3">
+      <c r="AJ31" s="3">
         <v>0.64024763553481212</v>
       </c>
-      <c r="Z31" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM31" s="2">
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="AA31" s="3">
+      <c r="AN31" s="3">
         <v>0.1163453991392718</v>
       </c>
-      <c r="AB31" s="3">
+      <c r="AO31" s="3">
         <v>0.32424540470377</v>
       </c>
-      <c r="AE31" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR31" s="2">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="AF31" s="3">
+      <c r="AS31" s="3">
         <v>8.199141602551098E-2</v>
       </c>
-      <c r="AG31" s="3">
+      <c r="AT31" s="3">
         <v>0.22104538512261029</v>
       </c>
     </row>
-    <row r="32" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4441,43 +5180,46 @@
         <v>28</v>
       </c>
       <c r="N32" s="3">
-        <v>0.56136621315304436</v>
+        <v>0.96749575750699623</v>
       </c>
       <c r="O32" s="3">
-        <v>0.48908718548259972</v>
-      </c>
-      <c r="U32" s="2">
-        <f t="shared" si="3"/>
+        <v>0.65759979901366417</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="AH32" s="2">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="V32" s="3">
+      <c r="AI32" s="3">
         <v>0.95126590667618927</v>
       </c>
-      <c r="W32" s="3">
+      <c r="AJ32" s="3">
         <v>0.63468850809580535</v>
       </c>
-      <c r="Z32" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM32" s="2">
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AN32" s="3">
         <v>0.11644616566050631</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AO32" s="3">
         <v>0.31759852383906773</v>
       </c>
-      <c r="AE32" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR32" s="2">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AS32" s="3">
         <v>8.1993014509199463E-2</v>
       </c>
-      <c r="AG32" s="3">
+      <c r="AT32" s="3">
         <v>0.22662824984082541</v>
       </c>
     </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4503,43 +5245,46 @@
         <v>29</v>
       </c>
       <c r="N33" s="3">
-        <v>0.55816565108809524</v>
+        <v>0.96966002835021781</v>
       </c>
       <c r="O33" s="3">
-        <v>0.49587274033729639</v>
-      </c>
-      <c r="U33" s="2">
-        <f t="shared" si="3"/>
+        <v>0.62605676163174528</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="AH33" s="2">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="V33" s="3">
+      <c r="AI33" s="3">
         <v>0.94801919875087393</v>
       </c>
-      <c r="W33" s="3">
+      <c r="AJ33" s="3">
         <v>0.63510125010181251</v>
       </c>
-      <c r="Z33" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM33" s="2">
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AN33" s="3">
         <v>0.11672428402742439</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AO33" s="3">
         <v>0.31902442548075549</v>
       </c>
-      <c r="AE33" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR33" s="2">
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AS33" s="3">
         <v>8.2309728202983323E-2</v>
       </c>
-      <c r="AG33" s="3">
+      <c r="AT33" s="3">
         <v>0.22590961366287871</v>
       </c>
     </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4565,43 +5310,46 @@
         <v>30</v>
       </c>
       <c r="N34" s="3">
-        <v>0.55260648880568741</v>
+        <v>0.97011070399065524</v>
       </c>
       <c r="O34" s="3">
-        <v>0.51932386991672441</v>
-      </c>
-      <c r="U34" s="2">
-        <f t="shared" si="3"/>
+        <v>0.61770117800353197</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="AH34" s="2">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="V34" s="3">
+      <c r="AI34" s="3">
         <v>0.94840673758908034</v>
       </c>
-      <c r="W34" s="3">
+      <c r="AJ34" s="3">
         <v>0.63280636724155181</v>
       </c>
-      <c r="Z34" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM34" s="2">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="AA34" s="3">
+      <c r="AN34" s="3">
         <v>0.1169542614656538</v>
       </c>
-      <c r="AB34" s="3">
+      <c r="AO34" s="3">
         <v>0.32529631093429251</v>
       </c>
-      <c r="AE34" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR34" s="2">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="AF34" s="3">
+      <c r="AS34" s="3">
         <v>8.1605759551974022E-2</v>
       </c>
-      <c r="AG34" s="3">
+      <c r="AT34" s="3">
         <v>0.22718560267952981</v>
       </c>
     </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4627,43 +5375,46 @@
         <v>31</v>
       </c>
       <c r="N35" s="3">
-        <v>0.55800231360741881</v>
+        <v>0.96684736221410073</v>
       </c>
       <c r="O35" s="3">
-        <v>0.48655174627056319</v>
-      </c>
-      <c r="U35" s="2">
-        <f t="shared" si="3"/>
+        <v>0.64167312986793201</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="AH35" s="2">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="V35" s="3">
+      <c r="AI35" s="3">
         <v>0.94897277585487816</v>
       </c>
-      <c r="W35" s="3">
+      <c r="AJ35" s="3">
         <v>0.63271904361202025</v>
       </c>
-      <c r="Z35" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM35" s="2">
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AN35" s="3">
         <v>0.1171298554338379</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AO35" s="3">
         <v>0.30882175983954802</v>
       </c>
-      <c r="AE35" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR35" s="2">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AS35" s="3">
         <v>8.0857996013291869E-2</v>
       </c>
-      <c r="AG35" s="3">
+      <c r="AT35" s="3">
         <v>0.23442192452121891</v>
       </c>
     </row>
-    <row r="36" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4689,43 +5440,46 @@
         <v>32</v>
       </c>
       <c r="N36" s="3">
-        <v>0.57172497230820551</v>
+        <v>0.96719949468444144</v>
       </c>
       <c r="O36" s="3">
-        <v>0.46688614864403172</v>
-      </c>
-      <c r="U36" s="2">
-        <f t="shared" si="3"/>
+        <v>0.67839377188742023</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="AH36" s="2">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="V36" s="3">
+      <c r="AI36" s="3">
         <v>0.94989485658998185</v>
       </c>
-      <c r="W36" s="3">
+      <c r="AJ36" s="3">
         <v>0.62461230834730297</v>
       </c>
-      <c r="Z36" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM36" s="2">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-      <c r="AA36" s="3">
+      <c r="AN36" s="3">
         <v>0.11464950412351831</v>
       </c>
-      <c r="AB36" s="3">
+      <c r="AO36" s="3">
         <v>0.31775017191690352</v>
       </c>
-      <c r="AE36" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR36" s="2">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
-      <c r="AF36" s="3">
+      <c r="AS36" s="3">
         <v>8.268426659852357E-2</v>
       </c>
-      <c r="AG36" s="3">
+      <c r="AT36" s="3">
         <v>0.214568109380808</v>
       </c>
     </row>
-    <row r="37" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4751,43 +5505,46 @@
         <v>33</v>
       </c>
       <c r="N37" s="3">
-        <v>0.55690763968236379</v>
+        <v>0.96705358336396263</v>
       </c>
       <c r="O37" s="3">
-        <v>0.49306054402245031</v>
-      </c>
-      <c r="U37" s="2">
-        <f t="shared" si="3"/>
+        <v>0.61966094306851316</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="AH37" s="2">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="V37" s="3">
+      <c r="AI37" s="3">
         <v>0.94907260950292616</v>
       </c>
-      <c r="W37" s="3">
+      <c r="AJ37" s="3">
         <v>0.64995189227802974</v>
       </c>
-      <c r="Z37" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM37" s="2">
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
-      <c r="AA37" s="3">
+      <c r="AN37" s="3">
         <v>0.1192575516029472</v>
       </c>
-      <c r="AB37" s="3">
+      <c r="AO37" s="3">
         <v>0.30416485167056451</v>
       </c>
-      <c r="AE37" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR37" s="2">
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
-      <c r="AF37" s="3">
+      <c r="AS37" s="3">
         <v>8.251939102818831E-2</v>
       </c>
-      <c r="AG37" s="3">
+      <c r="AT37" s="3">
         <v>0.22075695663214909</v>
       </c>
     </row>
-    <row r="38" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4813,43 +5570,46 @@
         <v>34</v>
       </c>
       <c r="N38" s="3">
-        <v>0.56852446262164502</v>
+        <v>0.96605608814051069</v>
       </c>
       <c r="O38" s="3">
-        <v>0.46651930880157372</v>
-      </c>
-      <c r="U38" s="2">
-        <f t="shared" si="3"/>
+        <v>0.6347610026260514</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="AH38" s="2">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="V38" s="3">
+      <c r="AI38" s="3">
         <v>0.94705888623340939</v>
       </c>
-      <c r="W38" s="3">
+      <c r="AJ38" s="3">
         <v>0.68579049132970538</v>
       </c>
-      <c r="Z38" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM38" s="2">
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
-      <c r="AA38" s="3">
+      <c r="AN38" s="3">
         <v>0.116326574624316</v>
       </c>
-      <c r="AB38" s="3">
+      <c r="AO38" s="3">
         <v>0.31101830390379742</v>
       </c>
-      <c r="AE38" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR38" s="2">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
-      <c r="AF38" s="3">
+      <c r="AS38" s="3">
         <v>8.2179918254379064E-2</v>
       </c>
-      <c r="AG38" s="3">
+      <c r="AT38" s="3">
         <v>0.22428725388674131</v>
       </c>
     </row>
-    <row r="39" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4875,43 +5635,46 @@
         <v>35</v>
       </c>
       <c r="N39" s="3">
-        <v>0.56115963175501893</v>
+        <v>0.96387596753140237</v>
       </c>
       <c r="O39" s="3">
-        <v>0.48126092422625771</v>
-      </c>
-      <c r="U39" s="2">
-        <f t="shared" si="3"/>
+        <v>0.66804475102805649</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="AH39" s="2">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="V39" s="3">
+      <c r="AI39" s="3">
         <v>0.94958304174087971</v>
       </c>
-      <c r="W39" s="3">
+      <c r="AJ39" s="3">
         <v>0.65048634766205182</v>
       </c>
-      <c r="Z39" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM39" s="2">
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
-      <c r="AA39" s="3">
+      <c r="AN39" s="3">
         <v>0.11657180545628169</v>
       </c>
-      <c r="AB39" s="3">
+      <c r="AO39" s="3">
         <v>0.32267682431196071</v>
       </c>
-      <c r="AE39" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR39" s="2">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
-      <c r="AF39" s="3">
+      <c r="AS39" s="3">
         <v>8.434088398931025E-2</v>
       </c>
-      <c r="AG39" s="3">
+      <c r="AT39" s="3">
         <v>0.2074504515956096</v>
       </c>
     </row>
-    <row r="40" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4937,43 +5700,46 @@
         <v>36</v>
       </c>
       <c r="N40" s="3">
-        <v>0.56560546594344041</v>
+        <v>0.9666570417754452</v>
       </c>
       <c r="O40" s="3">
-        <v>0.44550476415424028</v>
-      </c>
-      <c r="U40" s="2">
-        <f t="shared" si="3"/>
+        <v>0.64572779773133293</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="AH40" s="2">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="V40" s="3">
+      <c r="AI40" s="3">
         <v>0.94913214919623734</v>
       </c>
-      <c r="W40" s="3">
+      <c r="AJ40" s="3">
         <v>0.65518227950724151</v>
       </c>
-      <c r="Z40" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM40" s="2">
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="AA40" s="3">
+      <c r="AN40" s="3">
         <v>0.1175172251952756</v>
       </c>
-      <c r="AB40" s="3">
+      <c r="AO40" s="3">
         <v>0.29687029675893889</v>
       </c>
-      <c r="AE40" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR40" s="2">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
-      <c r="AF40" s="3">
+      <c r="AS40" s="3">
         <v>8.1053474524131197E-2</v>
       </c>
-      <c r="AG40" s="3">
+      <c r="AT40" s="3">
         <v>0.2234413775313043</v>
       </c>
     </row>
-    <row r="41" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4999,43 +5765,46 @@
         <v>37</v>
       </c>
       <c r="N41" s="3">
-        <v>0.55963266544690693</v>
+        <v>0.96843934500342366</v>
       </c>
       <c r="O41" s="3">
-        <v>0.51037081587766808</v>
-      </c>
-      <c r="U41" s="2">
-        <f t="shared" si="3"/>
+        <v>0.69274380341907627</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="AH41" s="2">
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="V41" s="3">
+      <c r="AI41" s="3">
         <v>0.94985408030840934</v>
       </c>
-      <c r="W41" s="3">
+      <c r="AJ41" s="3">
         <v>0.63504508315405128</v>
       </c>
-      <c r="Z41" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM41" s="2">
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AN41" s="3">
         <v>0.1163592268528314</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AO41" s="3">
         <v>0.33429847081729869</v>
       </c>
-      <c r="AE41" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR41" s="2">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AS41" s="3">
         <v>8.2970175312972821E-2</v>
       </c>
-      <c r="AG41" s="3">
+      <c r="AT41" s="3">
         <v>0.21663735395507289</v>
       </c>
     </row>
-    <row r="42" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C42" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5061,43 +5830,46 @@
         <v>38</v>
       </c>
       <c r="N42" s="3">
-        <v>0.56085220176285255</v>
+        <v>0.96998048909780143</v>
       </c>
       <c r="O42" s="3">
-        <v>0.47270852034382588</v>
-      </c>
-      <c r="U42" s="2">
-        <f t="shared" si="3"/>
+        <v>0.64411337815721204</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="AH42" s="2">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="V42" s="3">
+      <c r="AI42" s="3">
         <v>0.94749047901522876</v>
       </c>
-      <c r="W42" s="3">
+      <c r="AJ42" s="3">
         <v>0.65365982615793783</v>
       </c>
-      <c r="Z42" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM42" s="2">
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AN42" s="3">
         <v>0.1171025183624865</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AO42" s="3">
         <v>0.30969333488200551</v>
       </c>
-      <c r="AE42" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR42" s="2">
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="AF42" s="3">
+      <c r="AS42" s="3">
         <v>8.2391958007001886E-2</v>
       </c>
-      <c r="AG42" s="3">
+      <c r="AT42" s="3">
         <v>0.2213559784908905</v>
       </c>
     </row>
-    <row r="43" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C43" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5123,43 +5895,46 @@
         <v>39</v>
       </c>
       <c r="N43" s="3">
-        <v>0.56119179626214155</v>
+        <v>0.96805387094207784</v>
       </c>
       <c r="O43" s="3">
-        <v>0.47661244911387968</v>
-      </c>
-      <c r="U43" s="2">
-        <f t="shared" si="3"/>
+        <v>0.65494419522582414</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="AH43" s="2">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="V43" s="3">
+      <c r="AI43" s="3">
         <v>0.94941351161572984</v>
       </c>
-      <c r="W43" s="3">
+      <c r="AJ43" s="3">
         <v>0.64862303322456505</v>
       </c>
-      <c r="Z43" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM43" s="2">
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AN43" s="3">
         <v>0.1160097829524077</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AO43" s="3">
         <v>0.31411067341506499</v>
       </c>
-      <c r="AE43" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR43" s="2">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="AF43" s="3">
+      <c r="AS43" s="3">
         <v>8.22429721964546E-2</v>
       </c>
-      <c r="AG43" s="3">
+      <c r="AT43" s="3">
         <v>0.22404168224471041</v>
       </c>
     </row>
-    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C44" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5185,43 +5960,46 @@
         <v>40</v>
       </c>
       <c r="N44" s="3">
-        <v>0.54892211022858839</v>
+        <v>0.9677382286555406</v>
       </c>
       <c r="O44" s="3">
-        <v>0.52029955105430714</v>
-      </c>
-      <c r="U44" s="2">
-        <f t="shared" si="3"/>
+        <v>0.64027158040545418</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="AH44" s="2">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="V44" s="3">
+      <c r="AI44" s="3">
         <v>0.94713217301416419</v>
       </c>
-      <c r="W44" s="3">
+      <c r="AJ44" s="3">
         <v>0.66737832250117057</v>
       </c>
-      <c r="Z44" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM44" s="2">
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AN44" s="3">
         <v>0.1169842007493667</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AO44" s="3">
         <v>0.3195361200902328</v>
       </c>
-      <c r="AE44" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR44" s="2">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="AF44" s="3">
+      <c r="AS44" s="3">
         <v>8.1921480878560951E-2</v>
       </c>
-      <c r="AG44" s="3">
+      <c r="AT44" s="3">
         <v>0.22349437843421341</v>
       </c>
     </row>
-    <row r="45" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C45" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5247,43 +6025,46 @@
         <v>41</v>
       </c>
       <c r="N45" s="3">
-        <v>0.56491109036266129</v>
+        <v>0.96704033425898828</v>
       </c>
       <c r="O45" s="3">
-        <v>0.49115575136044831</v>
-      </c>
-      <c r="U45" s="2">
-        <f t="shared" si="3"/>
+        <v>0.66115814287741448</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="AH45" s="2">
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="V45" s="3">
+      <c r="AI45" s="3">
         <v>0.94955062022533965</v>
       </c>
-      <c r="W45" s="3">
+      <c r="AJ45" s="3">
         <v>0.66217097171706796</v>
       </c>
-      <c r="Z45" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM45" s="2">
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AN45" s="3">
         <v>0.1156723396802683</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AO45" s="3">
         <v>0.32980129419433779</v>
       </c>
-      <c r="AE45" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR45" s="2">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AS45" s="3">
         <v>8.265138180769839E-2</v>
       </c>
-      <c r="AG45" s="3">
+      <c r="AT45" s="3">
         <v>0.2185944437724423</v>
       </c>
     </row>
-    <row r="46" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C46" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5309,43 +6090,46 @@
         <v>42</v>
       </c>
       <c r="N46" s="3">
-        <v>0.5690967802681195</v>
+        <v>0.96756593276728253</v>
       </c>
       <c r="O46" s="3">
-        <v>0.48108643836119352</v>
-      </c>
-      <c r="U46" s="2">
-        <f t="shared" si="3"/>
+        <v>0.67334101939530366</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="AH46" s="2">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="V46" s="3">
+      <c r="AI46" s="3">
         <v>0.94945515644551282</v>
       </c>
-      <c r="W46" s="3">
+      <c r="AJ46" s="3">
         <v>0.61884190231559644</v>
       </c>
-      <c r="Z46" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM46" s="2">
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AN46" s="3">
         <v>0.1192893179719352</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AO46" s="3">
         <v>0.30232087969819471</v>
       </c>
-      <c r="AE46" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR46" s="2">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AS46" s="3">
         <v>8.1484548138303636E-2</v>
       </c>
-      <c r="AG46" s="3">
+      <c r="AT46" s="3">
         <v>0.2207778386553034</v>
       </c>
     </row>
-    <row r="47" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C47" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5371,43 +6155,46 @@
         <v>43</v>
       </c>
       <c r="N47" s="3">
-        <v>0.55915574224950459</v>
+        <v>0.96901333066048068</v>
       </c>
       <c r="O47" s="3">
-        <v>0.49276078268304729</v>
-      </c>
-      <c r="U47" s="2">
-        <f t="shared" si="3"/>
+        <v>0.64908603701423795</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="AH47" s="2">
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="V47" s="3">
+      <c r="AI47" s="3">
         <v>0.9495275389287956</v>
       </c>
-      <c r="W47" s="3">
+      <c r="AJ47" s="3">
         <v>0.60652038798714258</v>
       </c>
-      <c r="Z47" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM47" s="2">
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AN47" s="3">
         <v>0.1148393825765807</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AO47" s="3">
         <v>0.32812220282649351</v>
       </c>
-      <c r="AE47" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR47" s="2">
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
-      <c r="AF47" s="3">
+      <c r="AS47" s="3">
         <v>8.2216713090806512E-2</v>
       </c>
-      <c r="AG47" s="3">
+      <c r="AT47" s="3">
         <v>0.2176719762422053</v>
       </c>
     </row>
-    <row r="48" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C48" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5433,43 +6220,46 @@
         <v>44</v>
       </c>
       <c r="N48" s="3">
-        <v>0.55900491735508084</v>
+        <v>0.96775676945242362</v>
       </c>
       <c r="O48" s="3">
-        <v>0.50325636406513996</v>
-      </c>
-      <c r="U48" s="2">
-        <f t="shared" si="3"/>
+        <v>0.65576711279830713</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="AH48" s="2">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="V48" s="3">
+      <c r="AI48" s="3">
         <v>0.94950923407580956</v>
       </c>
-      <c r="W48" s="3">
+      <c r="AJ48" s="3">
         <v>0.64211990133419727</v>
       </c>
-      <c r="Z48" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM48" s="2">
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AN48" s="3">
         <v>0.1183066921327932</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AO48" s="3">
         <v>0.31167400605268719</v>
       </c>
-      <c r="AE48" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR48" s="2">
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
-      <c r="AF48" s="3">
+      <c r="AS48" s="3">
         <v>8.1229551364922783E-2</v>
       </c>
-      <c r="AG48" s="3">
+      <c r="AT48" s="3">
         <v>0.22558488513671829</v>
       </c>
     </row>
-    <row r="49" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C49" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5495,43 +6285,46 @@
         <v>45</v>
       </c>
       <c r="N49" s="3">
-        <v>0.56987359946145311</v>
+        <v>0.96828891765935021</v>
       </c>
       <c r="O49" s="3">
-        <v>0.45790968959728179</v>
-      </c>
-      <c r="U49" s="2">
-        <f t="shared" si="3"/>
+        <v>0.67814163911810921</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="AH49" s="2">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="V49" s="3">
+      <c r="AI49" s="3">
         <v>0.9499083921940904</v>
       </c>
-      <c r="W49" s="3">
+      <c r="AJ49" s="3">
         <v>0.67279707299537095</v>
       </c>
-      <c r="Z49" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM49" s="2">
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AN49" s="3">
         <v>0.1181313888372665</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AO49" s="3">
         <v>0.2993634376661844</v>
       </c>
-      <c r="AE49" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR49" s="2">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="AF49" s="3">
+      <c r="AS49" s="3">
         <v>8.1252399579726312E-2</v>
       </c>
-      <c r="AG49" s="3">
+      <c r="AT49" s="3">
         <v>0.22627686644551931</v>
       </c>
     </row>
-    <row r="50" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C50" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5557,43 +6350,46 @@
         <v>46</v>
       </c>
       <c r="N50" s="3">
-        <v>0.57084586930465497</v>
+        <v>0.96930009417344143</v>
       </c>
       <c r="O50" s="3">
-        <v>0.44089958672100488</v>
-      </c>
-      <c r="U50" s="2">
-        <f t="shared" si="3"/>
+        <v>0.60727526617801497</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="AH50" s="2">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="V50" s="3">
+      <c r="AI50" s="3">
         <v>0.9486434871385766</v>
       </c>
-      <c r="W50" s="3">
+      <c r="AJ50" s="3">
         <v>0.66064148960936353</v>
       </c>
-      <c r="Z50" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM50" s="2">
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
-      <c r="AA50" s="3">
+      <c r="AN50" s="3">
         <v>0.11526373697328469</v>
       </c>
-      <c r="AB50" s="3">
+      <c r="AO50" s="3">
         <v>0.32834649138557082</v>
       </c>
-      <c r="AE50" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR50" s="2">
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="AF50" s="3">
+      <c r="AS50" s="3">
         <v>8.1913761806771665E-2</v>
       </c>
-      <c r="AG50" s="3">
+      <c r="AT50" s="3">
         <v>0.22526419522709509</v>
       </c>
     </row>
-    <row r="51" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5619,43 +6415,46 @@
         <v>47</v>
       </c>
       <c r="N51" s="3">
-        <v>0.56143080886473029</v>
+        <v>0.96898516070522911</v>
       </c>
       <c r="O51" s="3">
-        <v>0.50041944569344787</v>
-      </c>
-      <c r="U51" s="2">
-        <f t="shared" si="3"/>
+        <v>0.61564138999521623</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="AH51" s="2">
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="V51" s="3">
+      <c r="AI51" s="3">
         <v>0.95056760645959915</v>
       </c>
-      <c r="W51" s="3">
+      <c r="AJ51" s="3">
         <v>0.63749684147528407</v>
       </c>
-      <c r="Z51" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM51" s="2">
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
-      <c r="AA51" s="3">
+      <c r="AN51" s="3">
         <v>0.1167540156878106</v>
       </c>
-      <c r="AB51" s="3">
+      <c r="AO51" s="3">
         <v>0.31376120183153111</v>
       </c>
-      <c r="AE51" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR51" s="2">
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
-      <c r="AF51" s="3">
+      <c r="AS51" s="3">
         <v>8.2386580208719126E-2</v>
       </c>
-      <c r="AG51" s="3">
+      <c r="AT51" s="3">
         <v>0.2183309121651047</v>
       </c>
     </row>
-    <row r="52" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5681,43 +6480,46 @@
         <v>48</v>
       </c>
       <c r="N52" s="3">
-        <v>0.57169128734075436</v>
+        <v>0.9691639735694535</v>
       </c>
       <c r="O52" s="3">
-        <v>0.44325058191149919</v>
-      </c>
-      <c r="U52" s="2">
-        <f t="shared" si="3"/>
+        <v>0.65324580217227091</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="AH52" s="2">
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="V52" s="3">
+      <c r="AI52" s="3">
         <v>0.9491752781596875</v>
       </c>
-      <c r="W52" s="3">
+      <c r="AJ52" s="3">
         <v>0.62266464437681956</v>
       </c>
-      <c r="Z52" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM52" s="2">
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AN52" s="3">
         <v>0.115755029130523</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AO52" s="3">
         <v>0.316101255139209</v>
       </c>
-      <c r="AE52" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR52" s="2">
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
-      <c r="AF52" s="3">
+      <c r="AS52" s="3">
         <v>8.2620642193867777E-2</v>
       </c>
-      <c r="AG52" s="3">
+      <c r="AT52" s="3">
         <v>0.2183574957645468</v>
       </c>
     </row>
-    <row r="53" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5743,43 +6545,46 @@
         <v>49</v>
       </c>
       <c r="N53" s="3">
-        <v>0.57062196426779366</v>
+        <v>0.96380286377543911</v>
       </c>
       <c r="O53" s="3">
-        <v>0.46956736524243903</v>
-      </c>
-      <c r="U53" s="2">
-        <f t="shared" si="3"/>
+        <v>0.6283908719423843</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="AH53" s="2">
+        <f t="shared" si="6"/>
         <v>49</v>
       </c>
-      <c r="V53" s="3">
+      <c r="AI53" s="3">
         <v>0.95023491224099565</v>
       </c>
-      <c r="W53" s="3">
+      <c r="AJ53" s="3">
         <v>0.6234164050981541</v>
       </c>
-      <c r="Z53" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM53" s="2">
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
-      <c r="AA53" s="3">
+      <c r="AN53" s="3">
         <v>0.1179774430612817</v>
       </c>
-      <c r="AB53" s="3">
+      <c r="AO53" s="3">
         <v>0.31719008723074549</v>
       </c>
-      <c r="AE53" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR53" s="2">
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
-      <c r="AF53" s="3">
+      <c r="AS53" s="3">
         <v>8.317294504866625E-2</v>
       </c>
-      <c r="AG53" s="3">
+      <c r="AT53" s="3">
         <v>0.2208504624832697</v>
       </c>
     </row>
-    <row r="54" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5805,43 +6610,46 @@
         <v>50</v>
       </c>
       <c r="N54" s="3">
-        <v>0.56712552347473832</v>
+        <v>0.96876204770486285</v>
       </c>
       <c r="O54" s="3">
-        <v>0.47284169948414362</v>
-      </c>
-      <c r="U54" s="2">
-        <f t="shared" si="3"/>
+        <v>0.62714655469404723</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="AH54" s="2">
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="V54" s="3">
+      <c r="AI54" s="3">
         <v>0.94889179727122863</v>
       </c>
-      <c r="W54" s="3">
+      <c r="AJ54" s="3">
         <v>0.67125972957766566</v>
       </c>
-      <c r="Z54" s="2">
-        <f t="shared" si="4"/>
+      <c r="AM54" s="2">
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AN54" s="3">
         <v>0.11672725996177399</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AO54" s="3">
         <v>0.31912823714411509</v>
       </c>
-      <c r="AE54" s="2">
-        <f t="shared" si="5"/>
+      <c r="AR54" s="2">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AS54" s="3">
         <v>8.2903110305879796E-2</v>
       </c>
-      <c r="AG54" s="3">
+      <c r="AT54" s="3">
         <v>0.22718864352021659</v>
       </c>
     </row>
-    <row r="56" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
         <v>2</v>
       </c>
@@ -5869,47 +6677,47 @@
       </c>
       <c r="N56" s="3">
         <f>AVERAGE(N5:N54)</f>
-        <v>0.56262746603805336</v>
+        <v>0.96761304087691868</v>
       </c>
       <c r="O56" s="3">
         <f>AVERAGE(O5:O54)</f>
-        <v>0.47880946680814424</v>
-      </c>
-      <c r="U56" s="2" t="s">
+        <v>0.64365849781482753</v>
+      </c>
+      <c r="AH56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="V56" s="3">
-        <f>AVERAGE(V5:V54)</f>
+      <c r="AI56" s="3">
+        <f>AVERAGE(AI5:AI54)</f>
         <v>0.94913546384240977</v>
       </c>
-      <c r="W56" s="3">
-        <f>AVERAGE(W5:W54)</f>
+      <c r="AJ56" s="3">
+        <f>AVERAGE(AJ5:AJ54)</f>
         <v>0.64518888293192622</v>
       </c>
-      <c r="Z56" s="2" t="s">
+      <c r="AM56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA56" s="3">
-        <f>AVERAGE(AA5:AA54)</f>
+      <c r="AN56" s="3">
+        <f>AVERAGE(AN5:AN54)</f>
         <v>0.11699947269078689</v>
       </c>
-      <c r="AB56" s="3">
-        <f>AVERAGE(AB5:AB54)</f>
+      <c r="AO56" s="3">
+        <f>AVERAGE(AO5:AO54)</f>
         <v>0.31308656886454217</v>
       </c>
-      <c r="AE56" s="2" t="s">
+      <c r="AR56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AF56" s="3">
-        <f>AVERAGE(AF5:AF54)</f>
+      <c r="AS56" s="3">
+        <f>AVERAGE(AS5:AS54)</f>
         <v>8.2193910513009422E-2</v>
       </c>
-      <c r="AG56" s="3">
-        <f>AVERAGE(AG5:AG54)</f>
+      <c r="AT56" s="3">
+        <f>AVERAGE(AT5:AT54)</f>
         <v>0.22170521049141068</v>
       </c>
     </row>
-    <row r="57" spans="3:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
@@ -5937,43 +6745,43 @@
       </c>
       <c r="N57" s="3">
         <f>_xlfn.STDEV.S(N5:N54)</f>
-        <v>7.4995626254446349E-3</v>
+        <v>1.6013737950829094E-3</v>
       </c>
       <c r="O57" s="3">
         <f>_xlfn.STDEV.S(O5:O54)</f>
-        <v>2.6543667788147089E-2</v>
-      </c>
-      <c r="U57" s="2" t="s">
+        <v>2.280233943453298E-2</v>
+      </c>
+      <c r="AH57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="V57" s="3">
-        <f>_xlfn.STDEV.S(V5:V54)</f>
+      <c r="AI57" s="3">
+        <f>_xlfn.STDEV.S(AI5:AI54)</f>
         <v>1.0061875462076956E-3</v>
       </c>
-      <c r="W57" s="3">
-        <f>_xlfn.STDEV.S(W5:W54)</f>
+      <c r="AJ57" s="3">
+        <f>_xlfn.STDEV.S(AJ5:AJ54)</f>
         <v>2.0441479091949693E-2</v>
       </c>
-      <c r="Z57" s="2" t="s">
+      <c r="AM57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AA57" s="3">
-        <f>_xlfn.STDEV.S(AA5:AA54)</f>
+      <c r="AN57" s="3">
+        <f>_xlfn.STDEV.S(AN5:AN54)</f>
         <v>1.0573885580347465E-3</v>
       </c>
-      <c r="AB57" s="3">
-        <f>_xlfn.STDEV.S(AB5:AB54)</f>
+      <c r="AO57" s="3">
+        <f>_xlfn.STDEV.S(AO5:AO54)</f>
         <v>9.2969639757002707E-3</v>
       </c>
-      <c r="AE57" s="2" t="s">
+      <c r="AR57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AF57" s="3">
-        <f>_xlfn.STDEV.S(AF5:AF54)</f>
+      <c r="AS57" s="3">
+        <f>_xlfn.STDEV.S(AS5:AS54)</f>
         <v>6.7919170904217252E-4</v>
       </c>
-      <c r="AG57" s="3">
-        <f>_xlfn.STDEV.S(AG5:AG54)</f>
+      <c r="AT57" s="3">
+        <f>_xlfn.STDEV.S(AT5:AT54)</f>
         <v>5.2278534035366938E-3</v>
       </c>
     </row>
@@ -5987,7 +6795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
   <si>
     <t>train (R2)</t>
   </si>
@@ -268,6 +268,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -355,6 +358,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2635,7 +2641,7 @@
   <dimension ref="C1:AT57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB23" sqref="AB23"/>
+      <selection activeCell="AG37" sqref="AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,6 +2651,7 @@
     <col min="20" max="20" width="11.28515625" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" customWidth="1"/>
     <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:46" x14ac:dyDescent="0.25">
@@ -2666,6 +2673,9 @@
       <c r="Y1" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AH1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2701,6 +2711,10 @@
         <v>5</v>
       </c>
       <c r="AA2" s="1"/>
+      <c r="AC2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="1"/>
       <c r="AH2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2731,6 +2745,9 @@
         <v>25</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AH3" s="1" t="s">
@@ -2786,6 +2803,13 @@
       <c r="AA4" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2" t="s">
         <v>0</v>
@@ -2862,6 +2886,15 @@
       </c>
       <c r="AA5" s="3">
         <v>0.11570172630398649</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>2.3784950585372049E-2</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0.10659284416487901</v>
       </c>
       <c r="AH5" s="2">
         <v>1</v>
@@ -2952,6 +2985,16 @@
       <c r="AA6" s="3">
         <v>0.1110102435603075</v>
       </c>
+      <c r="AC6" s="2">
+        <f>AC5+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>2.6980596917559399E-2</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0.10453993865587199</v>
+      </c>
       <c r="AH6" s="2">
         <f>AH5+1</f>
         <v>2</v>
@@ -3044,8 +3087,18 @@
       <c r="AA7" s="3">
         <v>0.1160347139259587</v>
       </c>
+      <c r="AC7" s="2">
+        <f t="shared" ref="AC7:AC24" si="6">AC6+1</f>
+        <v>3</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>2.009486907295174E-2</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>0.12533751204958379</v>
+      </c>
       <c r="AH7" s="2">
-        <f t="shared" ref="AH7:AH54" si="6">AH6+1</f>
+        <f t="shared" ref="AH7:AH54" si="7">AH6+1</f>
         <v>3</v>
       </c>
       <c r="AI7" s="3">
@@ -3055,7 +3108,7 @@
         <v>0.6671959229934028</v>
       </c>
       <c r="AM7" s="2">
-        <f t="shared" ref="AM7:AM54" si="7">AM6+1</f>
+        <f t="shared" ref="AM7:AM54" si="8">AM6+1</f>
         <v>3</v>
       </c>
       <c r="AN7" s="3">
@@ -3065,7 +3118,7 @@
         <v>0.29563574077515559</v>
       </c>
       <c r="AR7" s="2">
-        <f t="shared" ref="AR7:AR54" si="8">AR6+1</f>
+        <f t="shared" ref="AR7:AR54" si="9">AR6+1</f>
         <v>3</v>
       </c>
       <c r="AS7" s="3">
@@ -3136,10 +3189,20 @@
       <c r="AA8" s="3">
         <v>0.1048205338783237</v>
       </c>
-      <c r="AH8" s="2">
+      <c r="AC8" s="2">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="AD8" s="3">
+        <v>1.8886891081513559E-2</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>9.0645081685408982E-2</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
       <c r="AI8" s="3">
         <v>0.94974359082717996</v>
       </c>
@@ -3147,7 +3210,7 @@
         <v>0.62610975868051677</v>
       </c>
       <c r="AM8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AN8" s="3">
@@ -3157,7 +3220,7 @@
         <v>0.30646210688982789</v>
       </c>
       <c r="AR8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AS8" s="3">
@@ -3228,10 +3291,20 @@
       <c r="AA9" s="3">
         <v>0.1052218865180526</v>
       </c>
-      <c r="AH9" s="2">
+      <c r="AC9" s="2">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
+      <c r="AD9" s="3">
+        <v>1.903900608299898E-2</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>9.8376659454373211E-2</v>
+      </c>
+      <c r="AH9" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
       <c r="AI9" s="3">
         <v>0.95025250774461234</v>
       </c>
@@ -3239,7 +3312,7 @@
         <v>0.62707359060358336</v>
       </c>
       <c r="AM9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AN9" s="3">
@@ -3249,7 +3322,7 @@
         <v>0.30697978105111479</v>
       </c>
       <c r="AR9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AS9" s="3">
@@ -3320,10 +3393,20 @@
       <c r="AA10" s="3">
         <v>0.12026798540613259</v>
       </c>
-      <c r="AH10" s="2">
+      <c r="AC10" s="2">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
+      <c r="AD10" s="3">
+        <v>2.1975638229181121E-2</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>9.9657738869041182E-2</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
       <c r="AI10" s="3">
         <v>0.94796415952673541</v>
       </c>
@@ -3331,7 +3414,7 @@
         <v>0.67429355017169756</v>
       </c>
       <c r="AM10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AN10" s="3">
@@ -3341,7 +3424,7 @@
         <v>0.30980523001355198</v>
       </c>
       <c r="AR10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AS10" s="3">
@@ -3412,10 +3495,20 @@
       <c r="AA11" s="3">
         <v>0.1044312865263093</v>
       </c>
-      <c r="AH11" s="2">
+      <c r="AC11" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
+      <c r="AD11" s="3">
+        <v>2.059937584020425E-2</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>9.6860522450962661E-2</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
       <c r="AI11" s="3">
         <v>0.94938913654931145</v>
       </c>
@@ -3423,7 +3516,7 @@
         <v>0.64531580148263057</v>
       </c>
       <c r="AM11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AN11" s="3">
@@ -3433,7 +3526,7 @@
         <v>0.32155039855673279</v>
       </c>
       <c r="AR11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AS11" s="3">
@@ -3504,10 +3597,20 @@
       <c r="AA12" s="3">
         <v>9.4813154183915338E-2</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AC12" s="2">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
+      <c r="AD12" s="3">
+        <v>2.0036949751600121E-2</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0.1047232778820977</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
       <c r="AI12" s="3">
         <v>0.94858419153504725</v>
       </c>
@@ -3515,7 +3618,7 @@
         <v>0.62639699780051294</v>
       </c>
       <c r="AM12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AN12" s="3">
@@ -3525,7 +3628,7 @@
         <v>0.31911434022278012</v>
       </c>
       <c r="AR12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AS12" s="3">
@@ -3596,10 +3699,20 @@
       <c r="AA13" s="3">
         <v>0.106946473612236</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AC13" s="2">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
+      <c r="AD13" s="3">
+        <v>2.7506474550890149E-2</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0.1090018296103881</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
       <c r="AI13" s="3">
         <v>0.94893636270296566</v>
       </c>
@@ -3607,7 +3720,7 @@
         <v>0.66640684057230692</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AN13" s="3">
@@ -3617,7 +3730,7 @@
         <v>0.31468487648743998</v>
       </c>
       <c r="AR13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="AS13" s="3">
@@ -3688,10 +3801,20 @@
       <c r="AA14" s="3">
         <v>0.1113686452837185</v>
       </c>
-      <c r="AH14" s="2">
+      <c r="AC14" s="2">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
+      <c r="AD14" s="3">
+        <v>2.4736927553130651E-2</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0.1178511207403803</v>
+      </c>
+      <c r="AH14" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
       <c r="AI14" s="3">
         <v>0.95029434903033028</v>
       </c>
@@ -3699,7 +3822,7 @@
         <v>0.63156679502402269</v>
       </c>
       <c r="AM14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AN14" s="3">
@@ -3709,7 +3832,7 @@
         <v>0.30004516193868969</v>
       </c>
       <c r="AR14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="AS14" s="3">
@@ -3780,10 +3903,20 @@
       <c r="AA15" s="3">
         <v>9.8518028121507784E-2</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AC15" s="2">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
+      <c r="AD15" s="3">
+        <v>2.366041817567183E-2</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0.115024458213068</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
       <c r="AI15" s="3">
         <v>0.9484002184287218</v>
       </c>
@@ -3791,7 +3924,7 @@
         <v>0.64802503096297781</v>
       </c>
       <c r="AM15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="AN15" s="3">
@@ -3801,7 +3934,7 @@
         <v>0.30811545296515908</v>
       </c>
       <c r="AR15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="AS15" s="3">
@@ -3872,10 +4005,20 @@
       <c r="AA16" s="3">
         <v>0.11145067949458611</v>
       </c>
-      <c r="AH16" s="2">
+      <c r="AC16" s="2">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
+      <c r="AD16" s="3">
+        <v>2.3834668802650009E-2</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>9.5046112484566653E-2</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
       <c r="AI16" s="3">
         <v>0.94989129262824368</v>
       </c>
@@ -3883,7 +4026,7 @@
         <v>0.63875755894633546</v>
       </c>
       <c r="AM16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AN16" s="3">
@@ -3893,7 +4036,7 @@
         <v>0.31103563353080099</v>
       </c>
       <c r="AR16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="AS16" s="3">
@@ -3964,10 +4107,20 @@
       <c r="AA17" s="3">
         <v>0.11246199433009429</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AC17" s="2">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
+      <c r="AD17" s="3">
+        <v>2.3078141588300519E-2</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>9.5364117258531125E-2</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
       <c r="AI17" s="3">
         <v>0.9492074765160603</v>
       </c>
@@ -3975,7 +4128,7 @@
         <v>0.64812073080130728</v>
       </c>
       <c r="AM17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="AN17" s="3">
@@ -3985,7 +4138,7 @@
         <v>0.31140957698377753</v>
       </c>
       <c r="AR17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="AS17" s="3">
@@ -4056,10 +4209,20 @@
       <c r="AA18" s="3">
         <v>0.1187995999173132</v>
       </c>
-      <c r="AH18" s="2">
+      <c r="AC18" s="2">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
+      <c r="AD18" s="3">
+        <v>2.608919144003409E-2</v>
+      </c>
+      <c r="AE18" s="3">
+        <v>0.106491224146987</v>
+      </c>
+      <c r="AH18" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
       <c r="AI18" s="3">
         <v>0.94938848879038751</v>
       </c>
@@ -4067,7 +4230,7 @@
         <v>0.66775707346954982</v>
       </c>
       <c r="AM18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AN18" s="3">
@@ -4077,7 +4240,7 @@
         <v>0.30973552394199477</v>
       </c>
       <c r="AR18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="AS18" s="3">
@@ -4148,10 +4311,20 @@
       <c r="AA19" s="3">
         <v>9.6080827079211756E-2</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AC19" s="2">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
+      <c r="AD19" s="3">
+        <v>2.593978202806135E-2</v>
+      </c>
+      <c r="AE19" s="3">
+        <v>9.5598847492860115E-2</v>
+      </c>
+      <c r="AH19" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
       <c r="AI19" s="3">
         <v>0.94881345044029819</v>
       </c>
@@ -4159,7 +4332,7 @@
         <v>0.61746215094387957</v>
       </c>
       <c r="AM19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AN19" s="3">
@@ -4169,7 +4342,7 @@
         <v>0.30600599996569089</v>
       </c>
       <c r="AR19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="AS19" s="3">
@@ -4240,10 +4413,20 @@
       <c r="AA20" s="3">
         <v>9.9892162405763318E-2</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AC20" s="2">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
+      <c r="AD20" s="3">
+        <v>2.3852872637802482E-2</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>9.3235788013665055E-2</v>
+      </c>
+      <c r="AH20" s="2">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
       <c r="AI20" s="3">
         <v>0.95006313957131971</v>
       </c>
@@ -4251,7 +4434,7 @@
         <v>0.61314988818603333</v>
       </c>
       <c r="AM20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AN20" s="3">
@@ -4261,7 +4444,7 @@
         <v>0.31312975008720212</v>
       </c>
       <c r="AR20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AS20" s="3">
@@ -4332,10 +4515,20 @@
       <c r="AA21" s="3">
         <v>0.1017541605419314</v>
       </c>
-      <c r="AH21" s="2">
+      <c r="AC21" s="2">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
+      <c r="AD21" s="3">
+        <v>2.0881119010251661E-2</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0.10018307542002849</v>
+      </c>
+      <c r="AH21" s="2">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
       <c r="AI21" s="3">
         <v>0.94841670021682811</v>
       </c>
@@ -4343,7 +4536,7 @@
         <v>0.68723334489831167</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="AN21" s="3">
@@ -4353,7 +4546,7 @@
         <v>0.31892808825715768</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="AS21" s="3">
@@ -4424,10 +4617,20 @@
       <c r="AA22" s="3">
         <v>0.117986378761315</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AC22" s="2">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
+      <c r="AD22" s="3">
+        <v>2.2058495320335589E-2</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>9.1326566848252674E-2</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
       <c r="AI22" s="3">
         <v>0.94745703865263975</v>
       </c>
@@ -4435,7 +4638,7 @@
         <v>0.65213060930063704</v>
       </c>
       <c r="AM22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AN22" s="3">
@@ -4445,7 +4648,7 @@
         <v>0.29201141261772301</v>
       </c>
       <c r="AR22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="AS22" s="3">
@@ -4516,10 +4719,20 @@
       <c r="AA23" s="3">
         <v>0.1110758473543141</v>
       </c>
-      <c r="AH23" s="2">
+      <c r="AC23" s="2">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
+      <c r="AD23" s="3">
+        <v>2.730677571248585E-2</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0.1003024475088593</v>
+      </c>
+      <c r="AH23" s="2">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
       <c r="AI23" s="3">
         <v>0.94775393662384277</v>
       </c>
@@ -4527,7 +4740,7 @@
         <v>0.63138559963267504</v>
       </c>
       <c r="AM23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="AN23" s="3">
@@ -4537,7 +4750,7 @@
         <v>0.31211045796856152</v>
       </c>
       <c r="AR23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="AS23" s="3">
@@ -4608,10 +4821,20 @@
       <c r="AA24" s="3">
         <v>0.10359555667566971</v>
       </c>
-      <c r="AH24" s="2">
+      <c r="AC24" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
+      <c r="AD24" s="3">
+        <v>2.135982430656462E-2</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0.11239124195655489</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
       <c r="AI24" s="3">
         <v>0.94822046642134838</v>
       </c>
@@ -4619,7 +4842,7 @@
         <v>0.69353925357839019</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AN24" s="3">
@@ -4629,7 +4852,7 @@
         <v>0.30995721028871059</v>
       </c>
       <c r="AR24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="AS24" s="3">
@@ -4673,8 +4896,11 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
       <c r="AH25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="AI25" s="3">
@@ -4684,7 +4910,7 @@
         <v>0.62472045871967519</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="AN25" s="3">
@@ -4694,7 +4920,7 @@
         <v>0.3253760936579731</v>
       </c>
       <c r="AR25" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="AS25" s="3">
@@ -4738,8 +4964,11 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
       <c r="AH26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="AI26" s="3">
@@ -4749,7 +4978,7 @@
         <v>0.66667210354049744</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AN26" s="3">
@@ -4759,7 +4988,7 @@
         <v>0.30442573730136491</v>
       </c>
       <c r="AR26" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="AS26" s="3">
@@ -4818,7 +5047,7 @@
         <f>AVERAGE(V5:V24)</f>
         <v>1.4995960212204068E-2</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="8">
         <f>AVERAGE(W5:W24)</f>
         <v>0.10315335131989704</v>
       </c>
@@ -4829,12 +5058,23 @@
         <f>AVERAGE(Z5:Z24)</f>
         <v>1.0121142151391774E-2</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="8">
         <f>AVERAGE(AA5:AA24)</f>
         <v>0.10811159419403238</v>
       </c>
+      <c r="AC27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="3">
+        <f>AVERAGE(AD5:AD24)</f>
+        <v>2.3085148434377999E-2</v>
+      </c>
+      <c r="AE27" s="8">
+        <f>AVERAGE(AE5:AE24)</f>
+        <v>0.10292752024531801</v>
+      </c>
       <c r="AH27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="AI27" s="3">
@@ -4844,7 +5084,7 @@
         <v>0.64131762871406184</v>
       </c>
       <c r="AM27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="AN27" s="3">
@@ -4854,7 +5094,7 @@
         <v>0.31879587372270279</v>
       </c>
       <c r="AR27" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="AS27" s="3">
@@ -4928,8 +5168,19 @@
         <f>_xlfn.STDEV.S(AA5:AA24)</f>
         <v>7.6566451489672831E-3</v>
       </c>
+      <c r="AC28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="3">
+        <f>_xlfn.STDEV.S(AD5:AD24)</f>
+        <v>2.7429023543521754E-3</v>
+      </c>
+      <c r="AE28" s="3">
+        <f>_xlfn.STDEV.S(AE5:AE24)</f>
+        <v>9.3603599161350207E-3</v>
+      </c>
       <c r="AH28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="AI28" s="3">
@@ -4939,7 +5190,7 @@
         <v>0.63518254619664005</v>
       </c>
       <c r="AM28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="AN28" s="3">
@@ -4949,7 +5200,7 @@
         <v>0.31943845407734389</v>
       </c>
       <c r="AR28" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="AS28" s="3">
@@ -4994,7 +5245,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="AH29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="AI29" s="3">
@@ -5004,7 +5255,7 @@
         <v>0.62709149935300168</v>
       </c>
       <c r="AM29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="AN29" s="3">
@@ -5014,7 +5265,7 @@
         <v>0.3004675508345675</v>
       </c>
       <c r="AR29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="AS29" s="3">
@@ -5059,7 +5310,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="AH30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AI30" s="3">
@@ -5069,7 +5320,7 @@
         <v>0.66241752296418577</v>
       </c>
       <c r="AM30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="AN30" s="3">
@@ -5079,7 +5330,7 @@
         <v>0.3032128295097809</v>
       </c>
       <c r="AR30" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="AS30" s="3">
@@ -5124,7 +5375,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="AH31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="AI31" s="3">
@@ -5134,7 +5385,7 @@
         <v>0.64024763553481212</v>
       </c>
       <c r="AM31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="AN31" s="3">
@@ -5144,7 +5395,7 @@
         <v>0.32424540470377</v>
       </c>
       <c r="AR31" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="AS31" s="3">
@@ -5189,7 +5440,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="AH32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="AI32" s="3">
@@ -5199,7 +5450,7 @@
         <v>0.63468850809580535</v>
       </c>
       <c r="AM32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="AN32" s="3">
@@ -5209,7 +5460,7 @@
         <v>0.31759852383906773</v>
       </c>
       <c r="AR32" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="AS32" s="3">
@@ -5254,7 +5505,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="AH33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="AI33" s="3">
@@ -5264,7 +5515,7 @@
         <v>0.63510125010181251</v>
       </c>
       <c r="AM33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="AN33" s="3">
@@ -5274,7 +5525,7 @@
         <v>0.31902442548075549</v>
       </c>
       <c r="AR33" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="AS33" s="3">
@@ -5319,7 +5570,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="AH34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="AI34" s="3">
@@ -5329,7 +5580,7 @@
         <v>0.63280636724155181</v>
       </c>
       <c r="AM34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="AN34" s="3">
@@ -5339,7 +5590,7 @@
         <v>0.32529631093429251</v>
       </c>
       <c r="AR34" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="AS34" s="3">
@@ -5384,7 +5635,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="AH35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="AI35" s="3">
@@ -5394,7 +5645,7 @@
         <v>0.63271904361202025</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="AN35" s="3">
@@ -5404,7 +5655,7 @@
         <v>0.30882175983954802</v>
       </c>
       <c r="AR35" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="AS35" s="3">
@@ -5449,7 +5700,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="AH36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="AI36" s="3">
@@ -5459,7 +5710,7 @@
         <v>0.62461230834730297</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="AN36" s="3">
@@ -5469,7 +5720,7 @@
         <v>0.31775017191690352</v>
       </c>
       <c r="AR36" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="AS36" s="3">
@@ -5514,7 +5765,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="AH37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
       <c r="AI37" s="3">
@@ -5524,7 +5775,7 @@
         <v>0.64995189227802974</v>
       </c>
       <c r="AM37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="AN37" s="3">
@@ -5534,7 +5785,7 @@
         <v>0.30416485167056451</v>
       </c>
       <c r="AR37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="AS37" s="3">
@@ -5579,7 +5830,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="AH38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="AI38" s="3">
@@ -5589,7 +5840,7 @@
         <v>0.68579049132970538</v>
       </c>
       <c r="AM38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="AN38" s="3">
@@ -5599,7 +5850,7 @@
         <v>0.31101830390379742</v>
       </c>
       <c r="AR38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="AS38" s="3">
@@ -5644,7 +5895,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="AH39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AI39" s="3">
@@ -5654,7 +5905,7 @@
         <v>0.65048634766205182</v>
       </c>
       <c r="AM39" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="AN39" s="3">
@@ -5664,7 +5915,7 @@
         <v>0.32267682431196071</v>
       </c>
       <c r="AR39" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="AS39" s="3">
@@ -5709,7 +5960,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="AH40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="AI40" s="3">
@@ -5719,7 +5970,7 @@
         <v>0.65518227950724151</v>
       </c>
       <c r="AM40" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="AN40" s="3">
@@ -5729,7 +5980,7 @@
         <v>0.29687029675893889</v>
       </c>
       <c r="AR40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="AS40" s="3">
@@ -5774,7 +6025,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
       <c r="AH41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="AI41" s="3">
@@ -5784,7 +6035,7 @@
         <v>0.63504508315405128</v>
       </c>
       <c r="AM41" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="AN41" s="3">
@@ -5794,7 +6045,7 @@
         <v>0.33429847081729869</v>
       </c>
       <c r="AR41" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="AS41" s="3">
@@ -5839,7 +6090,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="AH42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="AI42" s="3">
@@ -5849,7 +6100,7 @@
         <v>0.65365982615793783</v>
       </c>
       <c r="AM42" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="AN42" s="3">
@@ -5859,7 +6110,7 @@
         <v>0.30969333488200551</v>
       </c>
       <c r="AR42" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="AS42" s="3">
@@ -5904,7 +6155,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="AH43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="AI43" s="3">
@@ -5914,7 +6165,7 @@
         <v>0.64862303322456505</v>
       </c>
       <c r="AM43" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="AN43" s="3">
@@ -5924,7 +6175,7 @@
         <v>0.31411067341506499</v>
       </c>
       <c r="AR43" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="AS43" s="3">
@@ -5969,7 +6220,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="AH44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="AI44" s="3">
@@ -5979,7 +6230,7 @@
         <v>0.66737832250117057</v>
       </c>
       <c r="AM44" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="AN44" s="3">
@@ -5989,7 +6240,7 @@
         <v>0.3195361200902328</v>
       </c>
       <c r="AR44" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="AS44" s="3">
@@ -6034,7 +6285,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="AH45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="AI45" s="3">
@@ -6044,7 +6295,7 @@
         <v>0.66217097171706796</v>
       </c>
       <c r="AM45" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="AN45" s="3">
@@ -6054,7 +6305,7 @@
         <v>0.32980129419433779</v>
       </c>
       <c r="AR45" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="AS45" s="3">
@@ -6099,7 +6350,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="AH46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="AI46" s="3">
@@ -6109,7 +6360,7 @@
         <v>0.61884190231559644</v>
       </c>
       <c r="AM46" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="AN46" s="3">
@@ -6119,7 +6370,7 @@
         <v>0.30232087969819471</v>
       </c>
       <c r="AR46" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="AS46" s="3">
@@ -6164,7 +6415,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="AH47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="AI47" s="3">
@@ -6174,7 +6425,7 @@
         <v>0.60652038798714258</v>
       </c>
       <c r="AM47" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
       <c r="AN47" s="3">
@@ -6184,7 +6435,7 @@
         <v>0.32812220282649351</v>
       </c>
       <c r="AR47" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="AS47" s="3">
@@ -6229,7 +6480,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="AH48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="AI48" s="3">
@@ -6239,7 +6490,7 @@
         <v>0.64211990133419727</v>
       </c>
       <c r="AM48" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="AN48" s="3">
@@ -6249,7 +6500,7 @@
         <v>0.31167400605268719</v>
       </c>
       <c r="AR48" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="AS48" s="3">
@@ -6294,7 +6545,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="AH49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="AI49" s="3">
@@ -6304,7 +6555,7 @@
         <v>0.67279707299537095</v>
       </c>
       <c r="AM49" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="AN49" s="3">
@@ -6314,7 +6565,7 @@
         <v>0.2993634376661844</v>
       </c>
       <c r="AR49" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="AS49" s="3">
@@ -6359,7 +6610,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="AH50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="AI50" s="3">
@@ -6369,7 +6620,7 @@
         <v>0.66064148960936353</v>
       </c>
       <c r="AM50" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="AN50" s="3">
@@ -6379,7 +6630,7 @@
         <v>0.32834649138557082</v>
       </c>
       <c r="AR50" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="AS50" s="3">
@@ -6424,7 +6675,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
       <c r="AH51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="AI51" s="3">
@@ -6434,7 +6685,7 @@
         <v>0.63749684147528407</v>
       </c>
       <c r="AM51" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
       <c r="AN51" s="3">
@@ -6444,7 +6695,7 @@
         <v>0.31376120183153111</v>
       </c>
       <c r="AR51" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="AS51" s="3">
@@ -6489,7 +6740,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
       <c r="AH52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="AI52" s="3">
@@ -6499,7 +6750,7 @@
         <v>0.62266464437681956</v>
       </c>
       <c r="AM52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="AN52" s="3">
@@ -6509,7 +6760,7 @@
         <v>0.316101255139209</v>
       </c>
       <c r="AR52" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="AS52" s="3">
@@ -6554,7 +6805,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
       <c r="AH53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="AI53" s="3">
@@ -6564,7 +6815,7 @@
         <v>0.6234164050981541</v>
       </c>
       <c r="AM53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="AN53" s="3">
@@ -6574,7 +6825,7 @@
         <v>0.31719008723074549</v>
       </c>
       <c r="AR53" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="AS53" s="3">
@@ -6619,7 +6870,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="AH54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="AI54" s="3">
@@ -6629,7 +6880,7 @@
         <v>0.67125972957766566</v>
       </c>
       <c r="AM54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="AN54" s="3">
@@ -6639,7 +6890,7 @@
         <v>0.31912823714411509</v>
       </c>
       <c r="AR54" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="AS54" s="3">

--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="error (soc-eco)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
   <si>
     <t>train (R2)</t>
   </si>
@@ -2640,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AT57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG37" sqref="AG37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6916,23 +6916,23 @@
         <v>2</v>
       </c>
       <c r="I56" s="3">
-        <f>AVERAGE(I5:I54)</f>
-        <v>0.95148938161329388</v>
+        <f>AVERAGE(I5:I24)</f>
+        <v>0.95162556154990097</v>
       </c>
       <c r="J56" s="3">
-        <f>AVERAGE(J5:J54)</f>
-        <v>0.65279081267306827</v>
+        <f>AVERAGE(J5:J24)</f>
+        <v>0.65007658792139944</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>2</v>
       </c>
       <c r="N56" s="3">
-        <f>AVERAGE(N5:N54)</f>
-        <v>0.96761304087691868</v>
+        <f>AVERAGE(N5:N24)</f>
+        <v>0.96713661663603434</v>
       </c>
       <c r="O56" s="3">
-        <f>AVERAGE(O5:O54)</f>
-        <v>0.64365849781482753</v>
+        <f>AVERAGE(O5:O24)</f>
+        <v>0.64388109719642528</v>
       </c>
       <c r="AH56" s="2" t="s">
         <v>2</v>
@@ -6984,23 +6984,23 @@
         <v>3</v>
       </c>
       <c r="I57" s="3">
-        <f>_xlfn.STDEV.S(I5:I54)</f>
-        <v>1.109177074425751E-3</v>
+        <f>_xlfn.STDEV.S(I5:I24)</f>
+        <v>1.1119016395007371E-3</v>
       </c>
       <c r="J57" s="3">
-        <f>_xlfn.STDEV.S(J5:J54)</f>
-        <v>2.2180145922211052E-2</v>
+        <f>_xlfn.STDEV.S(J5:J24)</f>
+        <v>2.2768160362159527E-2</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3">
-        <f>_xlfn.STDEV.S(N5:N54)</f>
-        <v>1.6013737950829094E-3</v>
+        <f>_xlfn.STDEV.S(N5:N24)</f>
+        <v>1.5459746016870976E-3</v>
       </c>
       <c r="O57" s="3">
-        <f>_xlfn.STDEV.S(O5:O54)</f>
-        <v>2.280233943453298E-2</v>
+        <f>_xlfn.STDEV.S(O5:O24)</f>
+        <v>2.2706081219163909E-2</v>
       </c>
       <c r="AH57" s="2" t="s">
         <v>3</v>
@@ -7709,15 +7709,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:X58"/>
+  <dimension ref="D2:AI58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7730,8 +7730,14 @@
       <c r="V2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
@@ -7748,8 +7754,16 @@
         <v>44</v>
       </c>
       <c r="X3" s="1"/>
-    </row>
-    <row r="4" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AG3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="4" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -7762,8 +7776,14 @@
       <c r="V4" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -7792,8 +7812,22 @@
       <c r="X5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
         <v>1</v>
       </c>
@@ -7830,8 +7864,26 @@
       <c r="X6" s="3">
         <v>0.36848928238861622</v>
       </c>
-    </row>
-    <row r="7" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0.16444422820366711</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>5.1318614766284743E-2</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.96191353116989897</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0.28511194831997499</v>
+      </c>
+    </row>
+    <row r="7" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f>D6+1</f>
         <v>2</v>
@@ -7872,8 +7924,28 @@
       <c r="X7" s="3">
         <v>0.36745965385872292</v>
       </c>
-    </row>
-    <row r="8" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB7" s="2">
+        <f>AB6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>0.24713103775555911</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.1632762284104092</v>
+      </c>
+      <c r="AG7" s="2">
+        <f>AG6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0.96328217442830422</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.29848327581207551</v>
+      </c>
+    </row>
+    <row r="8" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <f t="shared" ref="D8:D55" si="0">D7+1</f>
         <v>3</v>
@@ -7914,8 +7986,28 @@
       <c r="X8" s="3">
         <v>0.38424225933507289</v>
       </c>
-    </row>
-    <row r="9" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB8" s="2">
+        <f t="shared" ref="AB8:AB25" si="4">AB7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0.18717958993639749</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0.11931187023594129</v>
+      </c>
+      <c r="AG8" s="2">
+        <f t="shared" ref="AG8:AG25" si="5">AG7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0.96208208050576749</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.31914913744437923</v>
+      </c>
+    </row>
+    <row r="9" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7956,8 +8048,28 @@
       <c r="X9" s="3">
         <v>0.34224769704717062</v>
       </c>
-    </row>
-    <row r="10" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB9" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0.2880029437274243</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0.23510325400265139</v>
+      </c>
+      <c r="AG9" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>0.95772180067212276</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0.33968552111749228</v>
+      </c>
+    </row>
+    <row r="10" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7998,8 +8110,28 @@
       <c r="X10" s="3">
         <v>0.35296069861369012</v>
       </c>
-    </row>
-    <row r="11" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB10" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0.23726393742534041</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0.1840600097486533</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0.96326306891056457</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0.23663288280979511</v>
+      </c>
+    </row>
+    <row r="11" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8040,8 +8172,28 @@
       <c r="X11" s="3">
         <v>0.3869490565462419</v>
       </c>
-    </row>
-    <row r="12" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB11" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0.27592711411592741</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>0.20888797862826031</v>
+      </c>
+      <c r="AG11" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0.96340813575449791</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0.29761089945181968</v>
+      </c>
+    </row>
+    <row r="12" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8082,8 +8234,28 @@
       <c r="X12" s="3">
         <v>0.35837750600112012</v>
       </c>
-    </row>
-    <row r="13" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB12" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0.2707255773205276</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0.23120237282326661</v>
+      </c>
+      <c r="AG12" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0.96131678401780951</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0.29129780787044163</v>
+      </c>
+    </row>
+    <row r="13" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8124,8 +8296,28 @@
       <c r="X13" s="3">
         <v>0.38211100243818741</v>
       </c>
-    </row>
-    <row r="14" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB13" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0.24862992685335009</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0.2235973716191175</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>0.96534005116879229</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>0.3089884547072892</v>
+      </c>
+    </row>
+    <row r="14" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8166,8 +8358,28 @@
       <c r="X14" s="3">
         <v>0.3561435463206466</v>
       </c>
-    </row>
-    <row r="15" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB14" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0.12887168456128309</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>9.8118837829290317E-2</v>
+      </c>
+      <c r="AG14" s="2">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>0.96410952460647725</v>
+      </c>
+      <c r="AI14" s="3">
+        <v>0.34509909681347872</v>
+      </c>
+    </row>
+    <row r="15" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8208,8 +8420,28 @@
       <c r="X15" s="3">
         <v>0.36353769019507348</v>
       </c>
-    </row>
-    <row r="16" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB15" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0.21743471182679111</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0.23141489414938571</v>
+      </c>
+      <c r="AG15" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>0.96375788437494492</v>
+      </c>
+      <c r="AI15" s="3">
+        <v>0.29256475280673289</v>
+      </c>
+    </row>
+    <row r="16" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8250,8 +8482,28 @@
       <c r="X16" s="3">
         <v>0.37022756806940638</v>
       </c>
-    </row>
-    <row r="17" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB16" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>0.2555149545785913</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>0.2373475464644749</v>
+      </c>
+      <c r="AG16" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>0.96291162462004665</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0.28072236451040611</v>
+      </c>
+    </row>
+    <row r="17" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8292,8 +8544,28 @@
       <c r="X17" s="3">
         <v>0.37518872464659703</v>
       </c>
-    </row>
-    <row r="18" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB17" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0.25686615360981541</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>0.21773789554374781</v>
+      </c>
+      <c r="AG17" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>0.96186745870731916</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>0.26556971504848709</v>
+      </c>
+    </row>
+    <row r="18" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8334,8 +8606,28 @@
       <c r="X18" s="3">
         <v>0.3519755344879566</v>
       </c>
-    </row>
-    <row r="19" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB18" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0.2441472364549491</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>8.7248135927027404E-2</v>
+      </c>
+      <c r="AG18" s="2">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>0.95993952980960418</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>0.31363065051710881</v>
+      </c>
+    </row>
+    <row r="19" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8376,8 +8668,28 @@
       <c r="X19" s="3">
         <v>0.33945686412592557</v>
       </c>
-    </row>
-    <row r="20" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB19" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>0.2663038971207955</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>0.20725940850921121</v>
+      </c>
+      <c r="AG19" s="2">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0.96315064420419405</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0.30401439194729463</v>
+      </c>
+    </row>
+    <row r="20" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8418,8 +8730,28 @@
       <c r="X20" s="3">
         <v>0.34916664239529083</v>
       </c>
-    </row>
-    <row r="21" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB20" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0.26972569113027972</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0.2184736127384419</v>
+      </c>
+      <c r="AG20" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0.96497234955407185</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>0.29199560186065571</v>
+      </c>
+    </row>
+    <row r="21" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8460,8 +8792,28 @@
       <c r="X21" s="3">
         <v>0.3441756986153196</v>
       </c>
-    </row>
-    <row r="22" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB21" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0.26075261944389772</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>0.21435814553611399</v>
+      </c>
+      <c r="AG21" s="2">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0.96074049144284146</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0.23426162463259109</v>
+      </c>
+    </row>
+    <row r="22" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8502,8 +8854,28 @@
       <c r="X22" s="3">
         <v>0.32367387023366728</v>
       </c>
-    </row>
-    <row r="23" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB22" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0.26455702041975332</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0.20407981322167831</v>
+      </c>
+      <c r="AG22" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0.96351323887493445</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0.27496576232248832</v>
+      </c>
+    </row>
+    <row r="23" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8544,8 +8916,28 @@
       <c r="X23" s="3">
         <v>0.38153316128653608</v>
       </c>
-    </row>
-    <row r="24" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB23" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0.25425525322141379</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0.222716254740814</v>
+      </c>
+      <c r="AG23" s="2">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0.95910346148524417</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0.26630282686007301</v>
+      </c>
+    </row>
+    <row r="24" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8586,8 +8978,28 @@
       <c r="X24" s="3">
         <v>0.36349344312586213</v>
       </c>
-    </row>
-    <row r="25" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB24" s="2">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0.26566699159798168</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0.1909353412867659</v>
+      </c>
+      <c r="AG24" s="2">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0.96391149808368592</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0.28591878350636718</v>
+      </c>
+    </row>
+    <row r="25" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8628,8 +9040,28 @@
       <c r="X25" s="3">
         <v>0.39013366290362861</v>
       </c>
-    </row>
-    <row r="26" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB25" s="2">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0.2127553945268825</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0.1765746262935092</v>
+      </c>
+      <c r="AG25" s="2">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0.95815139395019888</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0.32805251964219689</v>
+      </c>
+    </row>
+    <row r="26" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8670,8 +9102,14 @@
       <c r="X26" s="3">
         <v>0.36123939362136481</v>
       </c>
-    </row>
-    <row r="27" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+    </row>
+    <row r="27" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8712,8 +9150,14 @@
       <c r="X27" s="3">
         <v>0.40655641561173878</v>
       </c>
-    </row>
-    <row r="28" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+    </row>
+    <row r="28" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8754,8 +9198,30 @@
       <c r="X28" s="3">
         <v>0.38001010606786589</v>
       </c>
-    </row>
-    <row r="29" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="3">
+        <f>AVERAGE(AC6:AC25)</f>
+        <v>0.24080779819153147</v>
+      </c>
+      <c r="AD28" s="3">
+        <f>AVERAGE(AD6:AD25)</f>
+        <v>0.1861511106237522</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="3">
+        <f>AVERAGE(AH6:AH25)</f>
+        <v>0.96222283631706618</v>
+      </c>
+      <c r="AI28" s="3">
+        <f>AVERAGE(AI6:AI25)</f>
+        <v>0.29300290090005748</v>
+      </c>
+    </row>
+    <row r="29" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8796,8 +9262,30 @@
       <c r="X29" s="3">
         <v>0.38210824174425989</v>
       </c>
-    </row>
-    <row r="30" spans="4:24" x14ac:dyDescent="0.25">
+      <c r="AB29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="3">
+        <f>_xlfn.STDEV.S(AC6:AC25)</f>
+        <v>4.0244067809304632E-2</v>
+      </c>
+      <c r="AD29" s="3">
+        <f>_xlfn.STDEV.S(AD6:AD25)</f>
+        <v>5.4665543832880352E-2</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH29" s="3">
+        <f>_xlfn.STDEV.S(AH6:AH25)</f>
+        <v>2.1483654945221127E-3</v>
+      </c>
+      <c r="AI29" s="3">
+        <f>_xlfn.STDEV.S(AI6:AI25)</f>
+        <v>2.9330468329519251E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8839,7 +9327,7 @@
         <v>0.37847927180935031</v>
       </c>
     </row>
-    <row r="31" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8881,7 +9369,7 @@
         <v>0.36834541782196389</v>
       </c>
     </row>
-    <row r="32" spans="4:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:35" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9916,12 +10404,12 @@
         <v>2</v>
       </c>
       <c r="Q57" s="3">
-        <f>AVERAGE(Q6:Q55)</f>
-        <v>0.90602557041699849</v>
+        <f>AVERAGE(Q6:Q25)</f>
+        <v>0.90616162503237396</v>
       </c>
       <c r="R57" s="3">
-        <f>AVERAGE(R6:R55)</f>
-        <v>0.32503056967694349</v>
+        <f>AVERAGE(R6:R25)</f>
+        <v>0.31947718992948237</v>
       </c>
       <c r="V57" s="2" t="s">
         <v>2</v>
@@ -9962,12 +10450,12 @@
         <v>3</v>
       </c>
       <c r="Q58" s="3">
-        <f>_xlfn.STDEV.S(Q6:Q55)</f>
-        <v>1.379915286741316E-3</v>
+        <f>_xlfn.STDEV.S(Q6:Q25)</f>
+        <v>1.2600869058769768E-3</v>
       </c>
       <c r="R58" s="3">
-        <f>_xlfn.STDEV.S(R6:R55)</f>
-        <v>2.2127364474893569E-2</v>
+        <f>_xlfn.STDEV.S(R6:R25)</f>
+        <v>2.2877079311163302E-2</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>3</v>

--- a/migforecasting/social conflicts/test for paper.xlsx
+++ b/migforecasting/social conflicts/test for paper.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="80">
   <si>
     <t>train (R2)</t>
   </si>
@@ -7709,15 +7709,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:AI58"/>
+  <dimension ref="D2:AU58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL37" sqref="AL37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -7736,8 +7736,17 @@
       <c r="AG2" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
@@ -7762,8 +7771,20 @@
         <v>44</v>
       </c>
       <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" s="1"/>
+      <c r="AO3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AS3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
@@ -7782,8 +7803,17 @@
       <c r="AG4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -7826,8 +7856,29 @@
       <c r="AI5" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D6" s="2">
         <v>1</v>
       </c>
@@ -7882,8 +7933,35 @@
       <c r="AI6" s="3">
         <v>0.28511194831997499</v>
       </c>
-    </row>
-    <row r="7" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>1.216532842076549E-2</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>0.20921836687022699</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>2.9059890789708019E-2</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>0.1885133660234079</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>0.25890983480595098</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>0.25237804949838338</v>
+      </c>
+    </row>
+    <row r="7" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f>D6+1</f>
         <v>2</v>
@@ -7944,8 +8022,38 @@
       <c r="AI7" s="3">
         <v>0.29848327581207551</v>
       </c>
-    </row>
-    <row r="8" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK7" s="2">
+        <f>AK6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>1.135983073959252E-2</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>0.23056396115561659</v>
+      </c>
+      <c r="AO7" s="2">
+        <f>AO6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>2.907241879994104E-2</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>0.19950063839118881</v>
+      </c>
+      <c r="AS7" s="2">
+        <f>AS6+1</f>
+        <v>2</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>0.2274343408525541</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>0.27392590933763178</v>
+      </c>
+    </row>
+    <row r="8" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <f t="shared" ref="D8:D55" si="0">D7+1</f>
         <v>3</v>
@@ -8006,8 +8114,38 @@
       <c r="AI8" s="3">
         <v>0.31914913744437923</v>
       </c>
-    </row>
-    <row r="9" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK8" s="2">
+        <f t="shared" ref="AK8:AK25" si="6">AK7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>1.156977310337691E-2</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>0.21758885758403471</v>
+      </c>
+      <c r="AO8" s="2">
+        <f t="shared" ref="AO8:AO25" si="7">AO7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AP8" s="3">
+        <v>2.927728887477728E-2</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>0.19910228621246601</v>
+      </c>
+      <c r="AS8" s="2">
+        <f t="shared" ref="AS8:AS25" si="8">AS7+1</f>
+        <v>3</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>0.21889410423408151</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>0.28294395218482071</v>
+      </c>
+    </row>
+    <row r="9" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8068,8 +8206,38 @@
       <c r="AI9" s="3">
         <v>0.33968552111749228</v>
       </c>
-    </row>
-    <row r="10" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK9" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>1.252743799738585E-2</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>0.2249327022430001</v>
+      </c>
+      <c r="AO9" s="2">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>3.0312170660272499E-2</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>0.1751940047638956</v>
+      </c>
+      <c r="AS9" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AT9" s="3">
+        <v>0.23116290161822101</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>0.22177345891245279</v>
+      </c>
+    </row>
+    <row r="10" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8130,8 +8298,38 @@
       <c r="AI10" s="3">
         <v>0.23663288280979511</v>
       </c>
-    </row>
-    <row r="11" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK10" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>1.0827403598047869E-2</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>0.23522502578249721</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>2.863586400164659E-2</v>
+      </c>
+      <c r="AQ10" s="3">
+        <v>0.20376412713756209</v>
+      </c>
+      <c r="AS10" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AT10" s="3">
+        <v>0.23010787714385919</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>0.21972943972356301</v>
+      </c>
+    </row>
+    <row r="11" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8192,8 +8390,38 @@
       <c r="AI11" s="3">
         <v>0.29761089945181968</v>
       </c>
-    </row>
-    <row r="12" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK11" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>1.069124894392004E-2</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>0.21031908867249521</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AP11" s="3">
+        <v>2.8264235604473869E-2</v>
+      </c>
+      <c r="AQ11" s="3">
+        <v>0.21196051632568741</v>
+      </c>
+      <c r="AS11" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AT11" s="3">
+        <v>0.23196045195667411</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>0.22408733911038209</v>
+      </c>
+    </row>
+    <row r="12" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8254,8 +8482,38 @@
       <c r="AI12" s="3">
         <v>0.29129780787044163</v>
       </c>
-    </row>
-    <row r="13" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK12" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>1.250745784059494E-2</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0.23359423849102601</v>
+      </c>
+      <c r="AO12" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AP12" s="3">
+        <v>2.9014470347617571E-2</v>
+      </c>
+      <c r="AQ12" s="3">
+        <v>0.20237365959528311</v>
+      </c>
+      <c r="AS12" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AT12" s="3">
+        <v>0.23183373348545211</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>0.24221858645079869</v>
+      </c>
+    </row>
+    <row r="13" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8316,8 +8574,38 @@
       <c r="AI13" s="3">
         <v>0.3089884547072892</v>
       </c>
-    </row>
-    <row r="14" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK13" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>1.131105535489043E-2</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>0.18979289356906631</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>2.8145438363724851E-2</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>0.21789479245722451</v>
+      </c>
+      <c r="AS13" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AT13" s="3">
+        <v>0.2367886281304768</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>0.2893925254880888</v>
+      </c>
+    </row>
+    <row r="14" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D14" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8378,8 +8666,38 @@
       <c r="AI14" s="3">
         <v>0.34509909681347872</v>
       </c>
-    </row>
-    <row r="15" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK14" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>1.094266061770525E-2</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>0.21496403334372749</v>
+      </c>
+      <c r="AO14" s="2">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>2.831739447953632E-2</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>0.21160568356931969</v>
+      </c>
+      <c r="AS14" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="AT14" s="3">
+        <v>0.22365960400597679</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>0.23801913174357711</v>
+      </c>
+    </row>
+    <row r="15" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8440,8 +8758,38 @@
       <c r="AI15" s="3">
         <v>0.29256475280673289</v>
       </c>
-    </row>
-    <row r="16" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK15" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>1.202322300179165E-2</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>0.19955203880976671</v>
+      </c>
+      <c r="AO15" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>2.9614485836379791E-2</v>
+      </c>
+      <c r="AQ15" s="3">
+        <v>0.19618884058187541</v>
+      </c>
+      <c r="AS15" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="AT15" s="3">
+        <v>0.24239463517834969</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>0.26765396943269049</v>
+      </c>
+    </row>
+    <row r="16" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8502,8 +8850,38 @@
       <c r="AI16" s="3">
         <v>0.28072236451040611</v>
       </c>
-    </row>
-    <row r="17" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK16" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>1.1981171057090831E-2</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>0.2293765838210195</v>
+      </c>
+      <c r="AO16" s="2">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>2.904981290682938E-2</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>0.2018548606004911</v>
+      </c>
+      <c r="AS16" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AT16" s="3">
+        <v>0.2273622096992938</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>0.2326587755961434</v>
+      </c>
+    </row>
+    <row r="17" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8564,8 +8942,38 @@
       <c r="AI17" s="3">
         <v>0.26556971504848709</v>
       </c>
-    </row>
-    <row r="18" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK17" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>1.196295687799446E-2</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>0.2157008859369145</v>
+      </c>
+      <c r="AO17" s="2">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>2.8783848663172931E-2</v>
+      </c>
+      <c r="AQ17" s="3">
+        <v>0.22536010283286001</v>
+      </c>
+      <c r="AS17" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="AT17" s="3">
+        <v>0.22925222483938859</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>0.25363642232775252</v>
+      </c>
+    </row>
+    <row r="18" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D18" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8626,8 +9034,38 @@
       <c r="AI18" s="3">
         <v>0.31363065051710881</v>
       </c>
-    </row>
-    <row r="19" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK18" s="2">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>1.338239599753413E-2</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>0.2113072148998798</v>
+      </c>
+      <c r="AO18" s="2">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>2.8923472507629701E-2</v>
+      </c>
+      <c r="AQ18" s="3">
+        <v>0.2025871381549158</v>
+      </c>
+      <c r="AS18" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="AT18" s="3">
+        <v>0.2261480692409783</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>0.25359918808201171</v>
+      </c>
+    </row>
+    <row r="19" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8688,8 +9126,38 @@
       <c r="AI19" s="3">
         <v>0.30401439194729463</v>
       </c>
-    </row>
-    <row r="20" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK19" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>1.1176165345831161E-2</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>0.23971845895881361</v>
+      </c>
+      <c r="AO19" s="2">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>2.8325919403971962E-2</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>0.2126894870936735</v>
+      </c>
+      <c r="AS19" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="AT19" s="3">
+        <v>0.22465981220047709</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>0.2451337798848103</v>
+      </c>
+    </row>
+    <row r="20" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8750,8 +9218,38 @@
       <c r="AI20" s="3">
         <v>0.29199560186065571</v>
       </c>
-    </row>
-    <row r="21" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK20" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="AL20" s="3">
+        <v>1.102859500001073E-2</v>
+      </c>
+      <c r="AM20" s="3">
+        <v>0.21592985743695831</v>
+      </c>
+      <c r="AO20" s="2">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>2.9278868997181989E-2</v>
+      </c>
+      <c r="AQ20" s="3">
+        <v>0.20451639326589879</v>
+      </c>
+      <c r="AS20" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="AT20" s="3">
+        <v>0.22253921601875259</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>0.2420095920753611</v>
+      </c>
+    </row>
+    <row r="21" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8812,8 +9310,38 @@
       <c r="AI21" s="3">
         <v>0.23426162463259109</v>
       </c>
-    </row>
-    <row r="22" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK21" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="AL21" s="3">
+        <v>1.1197293074098341E-2</v>
+      </c>
+      <c r="AM21" s="3">
+        <v>0.19739282235455499</v>
+      </c>
+      <c r="AO21" s="2">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="AP21" s="3">
+        <v>2.9788303486703419E-2</v>
+      </c>
+      <c r="AQ21" s="3">
+        <v>0.19680790379346111</v>
+      </c>
+      <c r="AS21" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="AT21" s="3">
+        <v>0.23202886833192041</v>
+      </c>
+      <c r="AU21" s="3">
+        <v>0.24237629285922041</v>
+      </c>
+    </row>
+    <row r="22" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8874,8 +9402,38 @@
       <c r="AI22" s="3">
         <v>0.27496576232248832</v>
       </c>
-    </row>
-    <row r="23" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK22" s="2">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="AL22" s="3">
+        <v>1.180240887821841E-2</v>
+      </c>
+      <c r="AM22" s="3">
+        <v>0.21134900189297501</v>
+      </c>
+      <c r="AO22" s="2">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>2.9813802552078331E-2</v>
+      </c>
+      <c r="AQ22" s="3">
+        <v>0.18898453449153721</v>
+      </c>
+      <c r="AS22" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AT22" s="3">
+        <v>0.2242521820678442</v>
+      </c>
+      <c r="AU22" s="3">
+        <v>0.26959081253108502</v>
+      </c>
+    </row>
+    <row r="23" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8936,8 +9494,38 @@
       <c r="AI23" s="3">
         <v>0.26630282686007301</v>
       </c>
-    </row>
-    <row r="24" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK23" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>1.1116749557755009E-2</v>
+      </c>
+      <c r="AM23" s="3">
+        <v>0.19714719451353921</v>
+      </c>
+      <c r="AO23" s="2">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="AP23" s="3">
+        <v>2.899907824888091E-2</v>
+      </c>
+      <c r="AQ23" s="3">
+        <v>0.22094007661125409</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="AT23" s="3">
+        <v>0.24377026230159221</v>
+      </c>
+      <c r="AU23" s="3">
+        <v>0.22718252038308909</v>
+      </c>
+    </row>
+    <row r="24" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D24" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8998,8 +9586,38 @@
       <c r="AI24" s="3">
         <v>0.28591878350636718</v>
       </c>
-    </row>
-    <row r="25" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK24" s="2">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>1.012922554058957E-2</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>0.22359089695122561</v>
+      </c>
+      <c r="AO24" s="2">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="AP24" s="3">
+        <v>2.949958299923924E-2</v>
+      </c>
+      <c r="AQ24" s="3">
+        <v>0.20604642968540501</v>
+      </c>
+      <c r="AS24" s="2">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AT24" s="3">
+        <v>0.22160099028528429</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>0.26034395985747127</v>
+      </c>
+    </row>
+    <row r="25" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9060,8 +9678,38 @@
       <c r="AI25" s="3">
         <v>0.32805251964219689</v>
       </c>
-    </row>
-    <row r="26" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK25" s="2">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>1.116247950879933E-2</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>0.22588418899393789</v>
+      </c>
+      <c r="AO25" s="2">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>2.8118248588614898E-2</v>
+      </c>
+      <c r="AQ25" s="3">
+        <v>0.21355086867828471</v>
+      </c>
+      <c r="AS25" s="2">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AT25" s="3">
+        <v>0.2273857703151666</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>0.2219827116157766</v>
+      </c>
+    </row>
+    <row r="26" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9108,8 +9756,17 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="3"/>
       <c r="AI26" s="3"/>
-    </row>
-    <row r="27" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+    </row>
+    <row r="27" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9156,8 +9813,17 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="3"/>
       <c r="AI27" s="3"/>
-    </row>
-    <row r="28" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+    </row>
+    <row r="28" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9220,8 +9886,41 @@
         <f>AVERAGE(AI6:AI25)</f>
         <v>0.29300290090005748</v>
       </c>
-    </row>
-    <row r="29" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="3">
+        <f>AVERAGE(AL6:AL25)</f>
+        <v>1.1543243022799644E-2</v>
+      </c>
+      <c r="AM28" s="8">
+        <f>AVERAGE(AM6:AM25)</f>
+        <v>0.21665741561406376</v>
+      </c>
+      <c r="AO28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP28" s="3">
+        <f>AVERAGE(AP6:AP25)</f>
+        <v>2.9014729805619026E-2</v>
+      </c>
+      <c r="AQ28" s="8">
+        <f>AVERAGE(AQ6:AQ25)</f>
+        <v>0.20397178551328463</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT28" s="3">
+        <f>AVERAGE(AT6:AT25)</f>
+        <v>0.23060728583561468</v>
+      </c>
+      <c r="AU28" s="8">
+        <f>AVERAGE(AU6:AU25)</f>
+        <v>0.24803182085475553</v>
+      </c>
+    </row>
+    <row r="29" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9284,8 +9983,41 @@
         <f>_xlfn.STDEV.S(AI6:AI25)</f>
         <v>2.9330468329519251E-2</v>
       </c>
-    </row>
-    <row r="30" spans="4:35" x14ac:dyDescent="0.25">
+      <c r="AK29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL29" s="3">
+        <f>_xlfn.STDEV.S(AL6:AL25)</f>
+        <v>7.5624416345144291E-4</v>
+      </c>
+      <c r="AM29" s="3">
+        <f>_xlfn.STDEV.S(AM6:AM25)</f>
+        <v>1.3848516663873725E-2</v>
+      </c>
+      <c r="AO29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP29" s="3">
+        <f>_xlfn.STDEV.S(AP6:AP25)</f>
+        <v>6.0476718901545084E-4</v>
+      </c>
+      <c r="AQ29" s="3">
+        <f>_xlfn.STDEV.S(AQ6:AQ25)</f>
+        <v>1.1898745435308345E-2</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT29" s="3">
+        <f>_xlfn.STDEV.S(AT6:AT25)</f>
+        <v>9.2266659849244738E-3</v>
+      </c>
+      <c r="AU29" s="3">
+        <f>_xlfn.STDEV.S(AU6:AU25)</f>
+        <v>2.0909474151486817E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9327,7 +10059,7 @@
         <v>0.37847927180935031</v>
       </c>
     </row>
-    <row r="31" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9369,7 +10101,7 @@
         <v>0.36834541782196389</v>
       </c>
     </row>
-    <row r="32" spans="4:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:47" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
